--- a/ExcelResumenFactura.xlsx
+++ b/ExcelResumenFactura.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4548" uniqueCount="2308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="2601">
   <si>
     <t>Factura</t>
   </si>
@@ -6169,6 +6169,102 @@
     <t>2,340</t>
   </si>
   <si>
+    <t>repsol_102386ccbe725cb3ea7f566e1eeee8a2.pdf</t>
+  </si>
+  <si>
+    <t>ES0021000019795753AH1F</t>
+  </si>
+  <si>
+    <t>17.04.2024</t>
+  </si>
+  <si>
+    <t>61045519454</t>
+  </si>
+  <si>
+    <t>25.03.2024</t>
+  </si>
+  <si>
+    <t>15.04.2024</t>
+  </si>
+  <si>
+    <t>54,90</t>
+  </si>
+  <si>
+    <t>9,11</t>
+  </si>
+  <si>
+    <t>0,56</t>
+  </si>
+  <si>
+    <t>5,377</t>
+  </si>
+  <si>
+    <t>6,799</t>
+  </si>
+  <si>
+    <t>20.738</t>
+  </si>
+  <si>
+    <t>19.202</t>
+  </si>
+  <si>
+    <t>5.888</t>
+  </si>
+  <si>
+    <t>20.770</t>
+  </si>
+  <si>
+    <t>19.264</t>
+  </si>
+  <si>
+    <t>5.994</t>
+  </si>
+  <si>
+    <t>repsol_16e69c53ab3fc9c50d1e8c1d35ee13ef.pdf</t>
+  </si>
+  <si>
+    <t>ES0021000001922442GF1F</t>
+  </si>
+  <si>
+    <t>61045519455</t>
+  </si>
+  <si>
+    <t>26.03.2024</t>
+  </si>
+  <si>
+    <t>56,63</t>
+  </si>
+  <si>
+    <t>9,44</t>
+  </si>
+  <si>
+    <t>0,53</t>
+  </si>
+  <si>
+    <t>4,520</t>
+  </si>
+  <si>
+    <t>4,528</t>
+  </si>
+  <si>
+    <t>27.561</t>
+  </si>
+  <si>
+    <t>31.103</t>
+  </si>
+  <si>
+    <t>4.530</t>
+  </si>
+  <si>
+    <t>27.630</t>
+  </si>
+  <si>
+    <t>31.178</t>
+  </si>
+  <si>
+    <t>4.605</t>
+  </si>
+  <si>
     <t>repsol_1e05fccc5e2c751f5ecd639dc47b9307.pdf</t>
   </si>
   <si>
@@ -6223,9 +6319,6 @@
     <t>5,71</t>
   </si>
   <si>
-    <t>0,56</t>
-  </si>
-  <si>
     <t>1,39</t>
   </si>
   <si>
@@ -6310,6 +6403,42 @@
     <t>1.870</t>
   </si>
   <si>
+    <t>repsol_2d7cd2f594aa6124712f07ce4c49d83e.pdf</t>
+  </si>
+  <si>
+    <t>ES0031102168456001TG0F</t>
+  </si>
+  <si>
+    <t>61045504694</t>
+  </si>
+  <si>
+    <t>27.03.2024</t>
+  </si>
+  <si>
+    <t>11.04.2024</t>
+  </si>
+  <si>
+    <t>46,96</t>
+  </si>
+  <si>
+    <t>38,81</t>
+  </si>
+  <si>
+    <t>8,15</t>
+  </si>
+  <si>
+    <t>1,41</t>
+  </si>
+  <si>
+    <t>0,40</t>
+  </si>
+  <si>
+    <t>4,352</t>
+  </si>
+  <si>
+    <t>4,260</t>
+  </si>
+  <si>
     <t>repsol_2e2667957eb52ca799cd6b59b24cf98d.pdf</t>
   </si>
   <si>
@@ -6478,6 +6607,114 @@
     <t>4,608</t>
   </si>
   <si>
+    <t>repsol_4bb9855443873e45cf8139ccdd5a665d.pdf</t>
+  </si>
+  <si>
+    <t>ES0021000001947875YW1F</t>
+  </si>
+  <si>
+    <t>61045519456</t>
+  </si>
+  <si>
+    <t>130,81</t>
+  </si>
+  <si>
+    <t>21,97</t>
+  </si>
+  <si>
+    <t>3,80</t>
+  </si>
+  <si>
+    <t>0,89</t>
+  </si>
+  <si>
+    <t>6,056</t>
+  </si>
+  <si>
+    <t>6,020</t>
+  </si>
+  <si>
+    <t>9,9</t>
+  </si>
+  <si>
+    <t>43.691</t>
+  </si>
+  <si>
+    <t>55.607</t>
+  </si>
+  <si>
+    <t>11.807</t>
+  </si>
+  <si>
+    <t>43.869</t>
+  </si>
+  <si>
+    <t>55.736</t>
+  </si>
+  <si>
+    <t>12.058</t>
+  </si>
+  <si>
+    <t>repsol_4e077240f11fb8264dd1492210a3c5eb.pdf</t>
+  </si>
+  <si>
+    <t>ES0031102443979056NX0F</t>
+  </si>
+  <si>
+    <t>61045530937</t>
+  </si>
+  <si>
+    <t>16.03.2024</t>
+  </si>
+  <si>
+    <t>14.04.2024</t>
+  </si>
+  <si>
+    <t>56,05</t>
+  </si>
+  <si>
+    <t>46,32</t>
+  </si>
+  <si>
+    <t>9,73</t>
+  </si>
+  <si>
+    <t>1,65</t>
+  </si>
+  <si>
+    <t>3,328</t>
+  </si>
+  <si>
+    <t>0,328</t>
+  </si>
+  <si>
+    <t>repsol_4ea8f85d585dda4cd5943dfe1d4d607a.pdf</t>
+  </si>
+  <si>
+    <t>ES0031101585684001ZA0F</t>
+  </si>
+  <si>
+    <t>61045519453</t>
+  </si>
+  <si>
+    <t>36,14</t>
+  </si>
+  <si>
+    <t>5,96</t>
+  </si>
+  <si>
+    <t>0,64</t>
+  </si>
+  <si>
+    <t>4,768</t>
+  </si>
+  <si>
+    <t>4,084</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
     <t>repsol_4f94cd3f5b43261d981b05b41ae0c1b6.pdf</t>
   </si>
   <si>
@@ -6514,6 +6751,54 @@
     <t>27.056</t>
   </si>
   <si>
+    <t>repsol_5673720277de19a43eaf36ee1d76d1b5.pdf</t>
+  </si>
+  <si>
+    <t>ES0031405164846001HA0F</t>
+  </si>
+  <si>
+    <t>61045511694</t>
+  </si>
+  <si>
+    <t>13.04.2024</t>
+  </si>
+  <si>
+    <t>65,81</t>
+  </si>
+  <si>
+    <t>54,39</t>
+  </si>
+  <si>
+    <t>11,42</t>
+  </si>
+  <si>
+    <t>1,95</t>
+  </si>
+  <si>
+    <t>10,392</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>45.825,96</t>
+  </si>
+  <si>
+    <t>5.679,49</t>
+  </si>
+  <si>
+    <t>2.424,04</t>
+  </si>
+  <si>
+    <t>45.915,03</t>
+  </si>
+  <si>
+    <t>5.761,52</t>
+  </si>
+  <si>
+    <t>2.488,74</t>
+  </si>
+  <si>
     <t>repsol_5b07d1fbb28d2f0d9127adb834c0b86d.pdf</t>
   </si>
   <si>
@@ -6568,6 +6853,9 @@
     <t>153,02</t>
   </si>
   <si>
+    <t>32,13</t>
+  </si>
+  <si>
     <t>1,70</t>
   </si>
   <si>
@@ -6583,9 +6871,6 @@
     <t>3,172</t>
   </si>
   <si>
-    <t>10,392</t>
-  </si>
-  <si>
     <t>40.962</t>
   </si>
   <si>
@@ -6604,6 +6889,51 @@
     <t>11.689</t>
   </si>
   <si>
+    <t>repsol_5cdd57287646645efc5133151ac45b2d.pdf</t>
+  </si>
+  <si>
+    <t>ES0022000005033314WG1P</t>
+  </si>
+  <si>
+    <t>61045533677</t>
+  </si>
+  <si>
+    <t>13.03.2024</t>
+  </si>
+  <si>
+    <t>51,97</t>
+  </si>
+  <si>
+    <t>1,87</t>
+  </si>
+  <si>
+    <t>2,932</t>
+  </si>
+  <si>
+    <t>4,008</t>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>9.541</t>
+  </si>
+  <si>
+    <t>7.779</t>
+  </si>
+  <si>
+    <t>4.593</t>
+  </si>
+  <si>
+    <t>9.600</t>
+  </si>
+  <si>
+    <t>7.853</t>
+  </si>
+  <si>
+    <t>4.701</t>
+  </si>
+  <si>
     <t>repsol_5eec2afda8843c9a0063a8fd222add81.pdf</t>
   </si>
   <si>
@@ -6628,10 +6958,145 @@
     <t>0,380</t>
   </si>
   <si>
-    <t>0,328</t>
-  </si>
-  <si>
-    <t>9,9</t>
+    <t>repsol_5f532f714fa698d84e9b29f86142d95c.pdf</t>
+  </si>
+  <si>
+    <t>ES0031408569087001ED0F</t>
+  </si>
+  <si>
+    <t>61045511693</t>
+  </si>
+  <si>
+    <t>106,02</t>
+  </si>
+  <si>
+    <t>87,62</t>
+  </si>
+  <si>
+    <t>18,40</t>
+  </si>
+  <si>
+    <t>3,18</t>
+  </si>
+  <si>
+    <t>0,77</t>
+  </si>
+  <si>
+    <t>14,4</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>14.918,83</t>
+  </si>
+  <si>
+    <t>12.553,93</t>
+  </si>
+  <si>
+    <t>4.571,21</t>
+  </si>
+  <si>
+    <t>15.052,31</t>
+  </si>
+  <si>
+    <t>12.692,11</t>
+  </si>
+  <si>
+    <t>4.684,29</t>
+  </si>
+  <si>
+    <t>repsol_60ec288e556214e61004787dd2e2f959.pdf</t>
+  </si>
+  <si>
+    <t>ES0031102329374001HE0F</t>
+  </si>
+  <si>
+    <t>61045512983</t>
+  </si>
+  <si>
+    <t>08.04.2024</t>
+  </si>
+  <si>
+    <t>152,30</t>
+  </si>
+  <si>
+    <t>125,87</t>
+  </si>
+  <si>
+    <t>26,43</t>
+  </si>
+  <si>
+    <t>4,52</t>
+  </si>
+  <si>
+    <t>2,41</t>
+  </si>
+  <si>
+    <t>6,928</t>
+  </si>
+  <si>
+    <t>947,75</t>
+  </si>
+  <si>
+    <t>5.746,78</t>
+  </si>
+  <si>
+    <t>1.017,95</t>
+  </si>
+  <si>
+    <t>6.163,24</t>
+  </si>
+  <si>
+    <t>repsol_611b5960718ca365695d3e4f3e7a02f2.pdf</t>
+  </si>
+  <si>
+    <t>ES0021000009034670LZ1F</t>
+  </si>
+  <si>
+    <t>80001038942</t>
+  </si>
+  <si>
+    <t>1,942</t>
+  </si>
+  <si>
+    <t>2,162</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>5.367</t>
+  </si>
+  <si>
+    <t>5.539</t>
+  </si>
+  <si>
+    <t>2.327</t>
+  </si>
+  <si>
+    <t>repsol_6929e8163a08da7c5f878267488df33c.pdf</t>
+  </si>
+  <si>
+    <t>ES0021000007552787NK1F</t>
+  </si>
+  <si>
+    <t>80001038966</t>
+  </si>
+  <si>
+    <t>3,592</t>
+  </si>
+  <si>
+    <t>2,836</t>
+  </si>
+  <si>
+    <t>9.315</t>
+  </si>
+  <si>
+    <t>9.403</t>
+  </si>
+  <si>
+    <t>2.992</t>
   </si>
   <si>
     <t>repsol_6a05f509bceee8860658083f7f30ea56.pdf</t>
@@ -6679,6 +7144,9 @@
     <t>69,04</t>
   </si>
   <si>
+    <t>14,50</t>
+  </si>
+  <si>
     <t>1,388</t>
   </si>
   <si>
@@ -6820,6 +7288,39 @@
     <t>2.651</t>
   </si>
   <si>
+    <t>repsol_848e84c3bdd88c4f3cbf3094ec64dc7e.pdf</t>
+  </si>
+  <si>
+    <t>ES0021000001886218QP1F</t>
+  </si>
+  <si>
+    <t>61045504086</t>
+  </si>
+  <si>
+    <t>40,83</t>
+  </si>
+  <si>
+    <t>33,74</t>
+  </si>
+  <si>
+    <t>7,09</t>
+  </si>
+  <si>
+    <t>1,19</t>
+  </si>
+  <si>
+    <t>0,674</t>
+  </si>
+  <si>
+    <t>0,689</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
     <t>repsol_8529524a0a9ec4f78cd6263457afcef0.pdf</t>
   </si>
   <si>
@@ -6862,7 +7363,7 @@
     <t>129,35</t>
   </si>
   <si>
-    <t>0,64</t>
+    <t>27,16</t>
   </si>
   <si>
     <t>253</t>
@@ -6895,6 +7396,120 @@
     <t>4.435</t>
   </si>
   <si>
+    <t>repsol_93316971ccc46f8e3aae2195dee3f969.pdf</t>
+  </si>
+  <si>
+    <t>ES0021000008116369KB1F</t>
+  </si>
+  <si>
+    <t>80001038943</t>
+  </si>
+  <si>
+    <t>3,21</t>
+  </si>
+  <si>
+    <t>4,576</t>
+  </si>
+  <si>
+    <t>4,344</t>
+  </si>
+  <si>
+    <t>9.215</t>
+  </si>
+  <si>
+    <t>9.118</t>
+  </si>
+  <si>
+    <t>5.747</t>
+  </si>
+  <si>
+    <t>repsol_9436a57affc05ff60cebc4e5b17be5cc.pdf</t>
+  </si>
+  <si>
+    <t>ES0021000007758632SQ1F</t>
+  </si>
+  <si>
+    <t>61045493045</t>
+  </si>
+  <si>
+    <t>09.03.2024</t>
+  </si>
+  <si>
+    <t>167,52</t>
+  </si>
+  <si>
+    <t>4,88</t>
+  </si>
+  <si>
+    <t>5,452</t>
+  </si>
+  <si>
+    <t>4,832</t>
+  </si>
+  <si>
+    <t>23.884</t>
+  </si>
+  <si>
+    <t>20.967</t>
+  </si>
+  <si>
+    <t>8.333</t>
+  </si>
+  <si>
+    <t>24.169</t>
+  </si>
+  <si>
+    <t>21.199</t>
+  </si>
+  <si>
+    <t>8.583</t>
+  </si>
+  <si>
+    <t>repsol_9a2e66703c52b3a024ed6f8bd9789bb5.pdf</t>
+  </si>
+  <si>
+    <t>ES0021000001887022MF1F</t>
+  </si>
+  <si>
+    <t>61045497287</t>
+  </si>
+  <si>
+    <t>31,56</t>
+  </si>
+  <si>
+    <t>26,08</t>
+  </si>
+  <si>
+    <t>5,48</t>
+  </si>
+  <si>
+    <t>0,93</t>
+  </si>
+  <si>
+    <t>2,488</t>
+  </si>
+  <si>
+    <t>2,520</t>
+  </si>
+  <si>
+    <t>4.473</t>
+  </si>
+  <si>
+    <t>5.143</t>
+  </si>
+  <si>
+    <t>1.873</t>
+  </si>
+  <si>
+    <t>4.499</t>
+  </si>
+  <si>
+    <t>5.185</t>
+  </si>
+  <si>
+    <t>1.926</t>
+  </si>
+  <si>
     <t>repsol_a3de2c21b981725bc3bbf116c57c75fc.pdf</t>
   </si>
   <si>
@@ -6935,6 +7550,270 @@
   </si>
   <si>
     <t>2.953</t>
+  </si>
+  <si>
+    <t>repsol_ab65b63e91d98cc0a338b592cf61ae33.pdf</t>
+  </si>
+  <si>
+    <t>ES0021000002504621QX1F</t>
+  </si>
+  <si>
+    <t>61045504087</t>
+  </si>
+  <si>
+    <t>07.04.2024</t>
+  </si>
+  <si>
+    <t>30,47</t>
+  </si>
+  <si>
+    <t>4,94</t>
+  </si>
+  <si>
+    <t>0,36</t>
+  </si>
+  <si>
+    <t>2,997</t>
+  </si>
+  <si>
+    <t>2,441</t>
+  </si>
+  <si>
+    <t>20.414</t>
+  </si>
+  <si>
+    <t>23.960</t>
+  </si>
+  <si>
+    <t>8.457</t>
+  </si>
+  <si>
+    <t>20.454</t>
+  </si>
+  <si>
+    <t>23.996</t>
+  </si>
+  <si>
+    <t>8.518</t>
+  </si>
+  <si>
+    <t>repsol_c7287815d291cb6ab698d31e8555aeb0.pdf</t>
+  </si>
+  <si>
+    <t>ES0021000001938999BG1F</t>
+  </si>
+  <si>
+    <t>61045493043</t>
+  </si>
+  <si>
+    <t>03.04.2024</t>
+  </si>
+  <si>
+    <t>88,83</t>
+  </si>
+  <si>
+    <t>13,32</t>
+  </si>
+  <si>
+    <t>2,31</t>
+  </si>
+  <si>
+    <t>10,588</t>
+  </si>
+  <si>
+    <t>10,216</t>
+  </si>
+  <si>
+    <t>57.851</t>
+  </si>
+  <si>
+    <t>50.046</t>
+  </si>
+  <si>
+    <t>17.097</t>
+  </si>
+  <si>
+    <t>57.974</t>
+  </si>
+  <si>
+    <t>50.170</t>
+  </si>
+  <si>
+    <t>17.222</t>
+  </si>
+  <si>
+    <t>repsol_c92486199ebd39b747d84901c9dae0b6.pdf</t>
+  </si>
+  <si>
+    <t>ES0021000015305521TF1F</t>
+  </si>
+  <si>
+    <t>61045502933</t>
+  </si>
+  <si>
+    <t>10.04.2024</t>
+  </si>
+  <si>
+    <t>18,67</t>
+  </si>
+  <si>
+    <t>15,43</t>
+  </si>
+  <si>
+    <t>3,24</t>
+  </si>
+  <si>
+    <t>0,13</t>
+  </si>
+  <si>
+    <t>1,877</t>
+  </si>
+  <si>
+    <t>1,817</t>
+  </si>
+  <si>
+    <t>20.182</t>
+  </si>
+  <si>
+    <t>59.026</t>
+  </si>
+  <si>
+    <t>13.777</t>
+  </si>
+  <si>
+    <t>20.208</t>
+  </si>
+  <si>
+    <t>59.051</t>
+  </si>
+  <si>
+    <t>13.813</t>
+  </si>
+  <si>
+    <t>repsol_e1da1e36fd24c17d261b1a85c6f23e03.pdf</t>
+  </si>
+  <si>
+    <t>ES0315000030200575AN0F</t>
+  </si>
+  <si>
+    <t>61045493044</t>
+  </si>
+  <si>
+    <t>31.03.2024</t>
+  </si>
+  <si>
+    <t>34,62</t>
+  </si>
+  <si>
+    <t>5,49</t>
+  </si>
+  <si>
+    <t>2,200</t>
+  </si>
+  <si>
+    <t>6.186</t>
+  </si>
+  <si>
+    <t>8.955</t>
+  </si>
+  <si>
+    <t>5.752</t>
+  </si>
+  <si>
+    <t>6.220</t>
+  </si>
+  <si>
+    <t>9.002</t>
+  </si>
+  <si>
+    <t>5.829</t>
+  </si>
+  <si>
+    <t>repsol_ef698f978ece2e56aff2501ee995119b.pdf</t>
+  </si>
+  <si>
+    <t>ES0021000007761180BB1F</t>
+  </si>
+  <si>
+    <t>61045500132</t>
+  </si>
+  <si>
+    <t>09.04.2024</t>
+  </si>
+  <si>
+    <t>6,80</t>
+  </si>
+  <si>
+    <t>0,16</t>
+  </si>
+  <si>
+    <t>3,880</t>
+  </si>
+  <si>
+    <t>3,862</t>
+  </si>
+  <si>
+    <t>6.487</t>
+  </si>
+  <si>
+    <t>6.841</t>
+  </si>
+  <si>
+    <t>4.255</t>
+  </si>
+  <si>
+    <t>6.493</t>
+  </si>
+  <si>
+    <t>6.845</t>
+  </si>
+  <si>
+    <t>4.275</t>
+  </si>
+  <si>
+    <t>repsol_f190fc03a8b29d99971fd4a24911c527.pdf</t>
+  </si>
+  <si>
+    <t>ES0021000019405747KT1F</t>
+  </si>
+  <si>
+    <t>61045530938</t>
+  </si>
+  <si>
+    <t>14,59</t>
+  </si>
+  <si>
+    <t>12,06</t>
+  </si>
+  <si>
+    <t>2,53</t>
+  </si>
+  <si>
+    <t>0,41</t>
+  </si>
+  <si>
+    <t>0,792</t>
+  </si>
+  <si>
+    <t>2,544</t>
+  </si>
+  <si>
+    <t>1.068</t>
+  </si>
+  <si>
+    <t>1.201</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>1.074</t>
+  </si>
+  <si>
+    <t>1.208</t>
+  </si>
+  <si>
+    <t>590</t>
   </si>
 </sst>
 </file>
@@ -7311,7 +8190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM167"/>
+  <dimension ref="A1:CM189"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:90" x14ac:dyDescent="0.25">
@@ -20051,19 +20930,19 @@
         <v>94</v>
       </c>
       <c r="H148" t="s">
-        <v>1996</v>
+        <v>2054</v>
       </c>
       <c r="I148" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="J148" t="s">
-        <v>2044</v>
+        <v>2056</v>
       </c>
       <c r="K148" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="L148" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="Q148" t="s">
         <v>2001</v>
@@ -20071,52 +20950,58 @@
       <c r="R148" t="s">
         <v>101</v>
       </c>
-      <c r="S148" t="s">
-        <v>2057</v>
-      </c>
       <c r="T148" t="s">
+        <v>2059</v>
+      </c>
+      <c r="U148" t="s">
         <v>2058</v>
       </c>
-      <c r="U148" t="s">
-        <v>2056</v>
-      </c>
       <c r="Y148" t="s">
-        <v>829</v>
+        <v>449</v>
       </c>
       <c r="Z148" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC148" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD148" t="s">
-        <v>1939</v>
-      </c>
-      <c r="AE148" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="AO148" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="AQ148" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="AU148" t="s">
-        <v>2062</v>
+        <v>2008</v>
       </c>
       <c r="AW148" t="s">
-        <v>2062</v>
+        <v>2008</v>
+      </c>
+      <c r="BI148" t="s">
+        <v>2063</v>
+      </c>
+      <c r="BJ148" t="s">
+        <v>2064</v>
+      </c>
+      <c r="BK148" t="s">
+        <v>2065</v>
+      </c>
+      <c r="BO148" t="s">
+        <v>2066</v>
+      </c>
+      <c r="BP148" t="s">
+        <v>2067</v>
+      </c>
+      <c r="BQ148" t="s">
+        <v>2068</v>
       </c>
     </row>
     <row r="149" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>2063</v>
+        <v>2069</v>
       </c>
       <c r="D149" t="s">
         <v>91</v>
       </c>
       <c r="E149" t="s">
-        <v>2064</v>
+        <v>2070</v>
       </c>
       <c r="F149" t="s">
         <v>93</v>
@@ -20125,19 +21010,19 @@
         <v>94</v>
       </c>
       <c r="H149" t="s">
-        <v>1996</v>
+        <v>2054</v>
       </c>
       <c r="I149" t="s">
-        <v>2065</v>
+        <v>2071</v>
       </c>
       <c r="J149" t="s">
-        <v>2044</v>
+        <v>2072</v>
       </c>
       <c r="K149" t="s">
-        <v>2066</v>
+        <v>2057</v>
       </c>
       <c r="L149" t="s">
-        <v>2067</v>
+        <v>2073</v>
       </c>
       <c r="Q149" t="s">
         <v>2001</v>
@@ -20145,41 +21030,29 @@
       <c r="R149" t="s">
         <v>101</v>
       </c>
-      <c r="S149" t="s">
-        <v>2068</v>
-      </c>
       <c r="T149" t="s">
-        <v>2069</v>
+        <v>2074</v>
       </c>
       <c r="U149" t="s">
-        <v>2067</v>
+        <v>2073</v>
       </c>
       <c r="Y149" t="s">
-        <v>2070</v>
+        <v>880</v>
       </c>
       <c r="Z149" t="s">
-        <v>2071</v>
-      </c>
-      <c r="AC149" t="s">
-        <v>2072</v>
-      </c>
-      <c r="AD149" t="s">
-        <v>2073</v>
-      </c>
-      <c r="AE149" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="AO149" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="AQ149" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="AU149" t="s">
-        <v>2077</v>
+        <v>2021</v>
       </c>
       <c r="AW149" t="s">
-        <v>2077</v>
+        <v>2021</v>
       </c>
       <c r="BI149" t="s">
         <v>2078</v>
@@ -20217,7 +21090,7 @@
         <v>94</v>
       </c>
       <c r="H150" t="s">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="I150" t="s">
         <v>2086</v>
@@ -20226,10 +21099,10 @@
         <v>2044</v>
       </c>
       <c r="K150" t="s">
-        <v>2066</v>
+        <v>2087</v>
       </c>
       <c r="L150" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="Q150" t="s">
         <v>2001</v>
@@ -20238,69 +21111,51 @@
         <v>101</v>
       </c>
       <c r="S150" t="s">
+        <v>2089</v>
+      </c>
+      <c r="T150" t="s">
+        <v>2090</v>
+      </c>
+      <c r="U150" t="s">
         <v>2088</v>
       </c>
-      <c r="T150" t="s">
-        <v>2089</v>
-      </c>
-      <c r="U150" t="s">
-        <v>2087</v>
-      </c>
       <c r="Y150" t="s">
-        <v>2090</v>
+        <v>829</v>
       </c>
       <c r="Z150" t="s">
-        <v>2071</v>
+        <v>161</v>
       </c>
       <c r="AC150" t="s">
-        <v>860</v>
+        <v>279</v>
       </c>
       <c r="AD150" t="s">
-        <v>942</v>
+        <v>1939</v>
       </c>
       <c r="AE150" t="s">
-        <v>1082</v>
+        <v>2091</v>
       </c>
       <c r="AO150" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="AQ150" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="AU150" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="AW150" t="s">
-        <v>2093</v>
-      </c>
-      <c r="BI150" t="s">
         <v>2094</v>
-      </c>
-      <c r="BJ150" t="s">
-        <v>2095</v>
-      </c>
-      <c r="BK150" t="s">
-        <v>2096</v>
-      </c>
-      <c r="BO150" t="s">
-        <v>2097</v>
-      </c>
-      <c r="BP150" t="s">
-        <v>1668</v>
-      </c>
-      <c r="BQ150" t="s">
-        <v>2098</v>
       </c>
     </row>
     <row r="151" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="D151" t="s">
         <v>91</v>
       </c>
       <c r="E151" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="F151" t="s">
         <v>93</v>
@@ -20309,19 +21164,19 @@
         <v>94</v>
       </c>
       <c r="H151" t="s">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="I151" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="J151" t="s">
-        <v>2102</v>
+        <v>2044</v>
       </c>
       <c r="K151" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="L151" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="Q151" t="s">
         <v>2001</v>
@@ -20330,51 +21185,69 @@
         <v>101</v>
       </c>
       <c r="S151" t="s">
+        <v>2100</v>
+      </c>
+      <c r="T151" t="s">
+        <v>2101</v>
+      </c>
+      <c r="U151" t="s">
+        <v>2099</v>
+      </c>
+      <c r="Y151" t="s">
+        <v>2060</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>2102</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>2103</v>
+      </c>
+      <c r="AD151" t="s">
+        <v>2104</v>
+      </c>
+      <c r="AE151" t="s">
         <v>2105</v>
       </c>
-      <c r="T151" t="s">
-        <v>1067</v>
-      </c>
-      <c r="U151" t="s">
-        <v>2104</v>
-      </c>
-      <c r="Y151" t="s">
+      <c r="AO151" t="s">
         <v>2106</v>
       </c>
-      <c r="Z151" t="s">
+      <c r="AQ151" t="s">
         <v>2107</v>
       </c>
-      <c r="AC151" t="s">
-        <v>565</v>
-      </c>
-      <c r="AD151" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE151" t="s">
-        <v>566</v>
-      </c>
-      <c r="AO151" t="s">
+      <c r="AU151" t="s">
         <v>2108</v>
       </c>
-      <c r="AQ151" t="s">
+      <c r="AW151" t="s">
+        <v>2108</v>
+      </c>
+      <c r="BI151" t="s">
         <v>2109</v>
       </c>
-      <c r="AU151" t="s">
+      <c r="BJ151" t="s">
         <v>2110</v>
       </c>
-      <c r="AW151" t="s">
-        <v>2110</v>
+      <c r="BK151" t="s">
+        <v>2111</v>
+      </c>
+      <c r="BO151" t="s">
+        <v>2112</v>
+      </c>
+      <c r="BP151" t="s">
+        <v>2113</v>
+      </c>
+      <c r="BQ151" t="s">
+        <v>2114</v>
       </c>
     </row>
     <row r="152" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>2111</v>
+        <v>2115</v>
       </c>
       <c r="D152" t="s">
         <v>91</v>
       </c>
       <c r="E152" t="s">
-        <v>2112</v>
+        <v>2116</v>
       </c>
       <c r="F152" t="s">
         <v>93</v>
@@ -20386,16 +21259,16 @@
         <v>2011</v>
       </c>
       <c r="I152" t="s">
-        <v>2113</v>
+        <v>2117</v>
       </c>
       <c r="J152" t="s">
         <v>2044</v>
       </c>
       <c r="K152" t="s">
-        <v>2066</v>
+        <v>2098</v>
       </c>
       <c r="L152" t="s">
-        <v>2114</v>
+        <v>2118</v>
       </c>
       <c r="Q152" t="s">
         <v>2001</v>
@@ -20404,51 +21277,69 @@
         <v>101</v>
       </c>
       <c r="S152" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="T152" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="U152" t="s">
-        <v>2114</v>
+        <v>2118</v>
       </c>
       <c r="Y152" t="s">
-        <v>2117</v>
+        <v>2121</v>
       </c>
       <c r="Z152" t="s">
-        <v>1066</v>
+        <v>2102</v>
       </c>
       <c r="AC152" t="s">
-        <v>1364</v>
+        <v>860</v>
       </c>
       <c r="AD152" t="s">
-        <v>146</v>
+        <v>942</v>
       </c>
       <c r="AE152" t="s">
-        <v>107</v>
+        <v>1082</v>
       </c>
       <c r="AO152" t="s">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="AQ152" t="s">
-        <v>2119</v>
+        <v>2123</v>
       </c>
       <c r="AU152" t="s">
-        <v>2120</v>
+        <v>2124</v>
       </c>
       <c r="AW152" t="s">
-        <v>2120</v>
+        <v>2124</v>
+      </c>
+      <c r="BI152" t="s">
+        <v>2125</v>
+      </c>
+      <c r="BJ152" t="s">
+        <v>2126</v>
+      </c>
+      <c r="BK152" t="s">
+        <v>2127</v>
+      </c>
+      <c r="BO152" t="s">
+        <v>2128</v>
+      </c>
+      <c r="BP152" t="s">
+        <v>1668</v>
+      </c>
+      <c r="BQ152" t="s">
+        <v>2129</v>
       </c>
     </row>
     <row r="153" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>2121</v>
+        <v>2130</v>
       </c>
       <c r="D153" t="s">
         <v>91</v>
       </c>
       <c r="E153" t="s">
-        <v>2122</v>
+        <v>2131</v>
       </c>
       <c r="F153" t="s">
         <v>93</v>
@@ -20457,19 +21348,19 @@
         <v>94</v>
       </c>
       <c r="H153" t="s">
-        <v>1996</v>
+        <v>2054</v>
       </c>
       <c r="I153" t="s">
-        <v>2123</v>
+        <v>2132</v>
       </c>
       <c r="J153" t="s">
-        <v>2124</v>
+        <v>2133</v>
       </c>
       <c r="K153" t="s">
-        <v>2055</v>
+        <v>2134</v>
       </c>
       <c r="L153" t="s">
-        <v>2125</v>
+        <v>2135</v>
       </c>
       <c r="Q153" t="s">
         <v>2001</v>
@@ -20478,66 +21369,42 @@
         <v>101</v>
       </c>
       <c r="S153" t="s">
-        <v>2126</v>
+        <v>2136</v>
       </c>
       <c r="T153" t="s">
-        <v>2127</v>
+        <v>2137</v>
       </c>
       <c r="U153" t="s">
-        <v>2125</v>
+        <v>2135</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>2138</v>
       </c>
       <c r="Z153" t="s">
-        <v>2128</v>
-      </c>
-      <c r="AC153" t="s">
-        <v>1459</v>
-      </c>
-      <c r="AD153" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AE153" t="s">
-        <v>2129</v>
+        <v>2139</v>
       </c>
       <c r="AO153" t="s">
-        <v>2130</v>
+        <v>2140</v>
       </c>
       <c r="AQ153" t="s">
-        <v>2131</v>
+        <v>2141</v>
       </c>
       <c r="AU153" t="s">
-        <v>2132</v>
+        <v>2021</v>
       </c>
       <c r="AW153" t="s">
-        <v>2132</v>
-      </c>
-      <c r="BI153" t="s">
-        <v>2133</v>
-      </c>
-      <c r="BJ153" t="s">
-        <v>2134</v>
-      </c>
-      <c r="BK153" t="s">
-        <v>2135</v>
-      </c>
-      <c r="BO153" t="s">
-        <v>2136</v>
-      </c>
-      <c r="BP153" t="s">
-        <v>2137</v>
-      </c>
-      <c r="BQ153" t="s">
-        <v>2138</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="154" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>2139</v>
+        <v>2142</v>
       </c>
       <c r="D154" t="s">
         <v>91</v>
       </c>
       <c r="E154" t="s">
-        <v>2140</v>
+        <v>2143</v>
       </c>
       <c r="F154" t="s">
         <v>93</v>
@@ -20549,16 +21416,16 @@
         <v>2011</v>
       </c>
       <c r="I154" t="s">
-        <v>2141</v>
+        <v>2144</v>
       </c>
       <c r="J154" t="s">
-        <v>2044</v>
+        <v>2145</v>
       </c>
       <c r="K154" t="s">
-        <v>2045</v>
+        <v>2146</v>
       </c>
       <c r="L154" t="s">
-        <v>927</v>
+        <v>2147</v>
       </c>
       <c r="Q154" t="s">
         <v>2001</v>
@@ -20567,51 +21434,51 @@
         <v>101</v>
       </c>
       <c r="S154" t="s">
-        <v>2142</v>
+        <v>2148</v>
       </c>
       <c r="T154" t="s">
-        <v>105</v>
+        <v>1067</v>
       </c>
       <c r="U154" t="s">
-        <v>927</v>
+        <v>2147</v>
       </c>
       <c r="Y154" t="s">
-        <v>2143</v>
+        <v>2149</v>
       </c>
       <c r="Z154" t="s">
-        <v>123</v>
+        <v>2150</v>
       </c>
       <c r="AC154" t="s">
-        <v>329</v>
+        <v>565</v>
       </c>
       <c r="AD154" t="s">
-        <v>329</v>
+        <v>206</v>
       </c>
       <c r="AE154" t="s">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="AO154" t="s">
-        <v>2144</v>
+        <v>2151</v>
       </c>
       <c r="AQ154" t="s">
-        <v>2145</v>
+        <v>2152</v>
       </c>
       <c r="AU154" t="s">
-        <v>2021</v>
+        <v>2153</v>
       </c>
       <c r="AW154" t="s">
-        <v>2021</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="155" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>2146</v>
+        <v>2154</v>
       </c>
       <c r="D155" t="s">
         <v>91</v>
       </c>
       <c r="E155" t="s">
-        <v>2147</v>
+        <v>2155</v>
       </c>
       <c r="F155" t="s">
         <v>93</v>
@@ -20620,19 +21487,19 @@
         <v>94</v>
       </c>
       <c r="H155" t="s">
-        <v>1996</v>
+        <v>2011</v>
       </c>
       <c r="I155" t="s">
-        <v>2148</v>
+        <v>2156</v>
       </c>
       <c r="J155" t="s">
-        <v>1998</v>
+        <v>2044</v>
       </c>
       <c r="K155" t="s">
-        <v>2149</v>
+        <v>2098</v>
       </c>
       <c r="L155" t="s">
-        <v>2150</v>
+        <v>2157</v>
       </c>
       <c r="Q155" t="s">
         <v>2001</v>
@@ -20641,51 +21508,51 @@
         <v>101</v>
       </c>
       <c r="S155" t="s">
-        <v>2151</v>
+        <v>2158</v>
       </c>
       <c r="T155" t="s">
-        <v>1598</v>
+        <v>2159</v>
       </c>
       <c r="U155" t="s">
-        <v>2150</v>
+        <v>2157</v>
       </c>
       <c r="Y155" t="s">
-        <v>2152</v>
+        <v>2160</v>
       </c>
       <c r="Z155" t="s">
         <v>1066</v>
       </c>
       <c r="AC155" t="s">
-        <v>706</v>
+        <v>1364</v>
       </c>
       <c r="AD155" t="s">
-        <v>1939</v>
+        <v>146</v>
       </c>
       <c r="AE155" t="s">
-        <v>2129</v>
+        <v>107</v>
       </c>
       <c r="AO155" t="s">
-        <v>2153</v>
+        <v>2161</v>
       </c>
       <c r="AQ155" t="s">
-        <v>2154</v>
+        <v>2162</v>
       </c>
       <c r="AU155" t="s">
-        <v>2008</v>
+        <v>2163</v>
       </c>
       <c r="AW155" t="s">
-        <v>2008</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="156" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>2155</v>
+        <v>2164</v>
       </c>
       <c r="D156" t="s">
         <v>91</v>
       </c>
       <c r="E156" t="s">
-        <v>2156</v>
+        <v>2165</v>
       </c>
       <c r="F156" t="s">
         <v>93</v>
@@ -20697,16 +21564,16 @@
         <v>1996</v>
       </c>
       <c r="I156" t="s">
-        <v>2157</v>
+        <v>2166</v>
       </c>
       <c r="J156" t="s">
-        <v>2158</v>
+        <v>2167</v>
       </c>
       <c r="K156" t="s">
-        <v>2159</v>
+        <v>2087</v>
       </c>
       <c r="L156" t="s">
-        <v>2160</v>
+        <v>2168</v>
       </c>
       <c r="Q156" t="s">
         <v>2001</v>
@@ -20715,63 +21582,66 @@
         <v>101</v>
       </c>
       <c r="S156" t="s">
-        <v>2161</v>
+        <v>2169</v>
       </c>
       <c r="T156" t="s">
-        <v>1266</v>
+        <v>2170</v>
       </c>
       <c r="U156" t="s">
-        <v>2160</v>
+        <v>2168</v>
+      </c>
+      <c r="Z156" t="s">
+        <v>2171</v>
       </c>
       <c r="AC156" t="s">
-        <v>739</v>
+        <v>1459</v>
       </c>
       <c r="AD156" t="s">
-        <v>329</v>
+        <v>1061</v>
       </c>
       <c r="AE156" t="s">
-        <v>616</v>
+        <v>2172</v>
       </c>
       <c r="AO156" t="s">
-        <v>162</v>
+        <v>2173</v>
       </c>
       <c r="AQ156" t="s">
-        <v>162</v>
+        <v>2174</v>
       </c>
       <c r="AU156" t="s">
-        <v>2021</v>
+        <v>2175</v>
       </c>
       <c r="AW156" t="s">
-        <v>2021</v>
+        <v>2175</v>
       </c>
       <c r="BI156" t="s">
-        <v>2162</v>
+        <v>2176</v>
       </c>
       <c r="BJ156" t="s">
-        <v>2163</v>
+        <v>2177</v>
       </c>
       <c r="BK156" t="s">
-        <v>2164</v>
+        <v>2178</v>
       </c>
       <c r="BO156" t="s">
-        <v>2165</v>
+        <v>2179</v>
       </c>
       <c r="BP156" t="s">
-        <v>2166</v>
+        <v>2180</v>
       </c>
       <c r="BQ156" t="s">
-        <v>1625</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="157" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>2167</v>
+        <v>2182</v>
       </c>
       <c r="D157" t="s">
         <v>91</v>
       </c>
       <c r="E157" t="s">
-        <v>2156</v>
+        <v>2183</v>
       </c>
       <c r="F157" t="s">
         <v>93</v>
@@ -20780,19 +21650,19 @@
         <v>94</v>
       </c>
       <c r="H157" t="s">
-        <v>1996</v>
+        <v>2011</v>
       </c>
       <c r="I157" t="s">
-        <v>2168</v>
+        <v>2184</v>
       </c>
       <c r="J157" t="s">
         <v>2044</v>
       </c>
       <c r="K157" t="s">
-        <v>2066</v>
+        <v>2045</v>
       </c>
       <c r="L157" t="s">
-        <v>2169</v>
+        <v>927</v>
       </c>
       <c r="Q157" t="s">
         <v>2001</v>
@@ -20800,64 +21670,52 @@
       <c r="R157" t="s">
         <v>101</v>
       </c>
+      <c r="S157" t="s">
+        <v>2185</v>
+      </c>
       <c r="T157" t="s">
-        <v>2170</v>
+        <v>105</v>
       </c>
       <c r="U157" t="s">
-        <v>2169</v>
+        <v>927</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>2186</v>
       </c>
       <c r="Z157" t="s">
-        <v>1066</v>
+        <v>123</v>
       </c>
       <c r="AC157" t="s">
-        <v>673</v>
+        <v>329</v>
       </c>
       <c r="AD157" t="s">
-        <v>706</v>
+        <v>329</v>
       </c>
       <c r="AE157" t="s">
-        <v>1336</v>
+        <v>616</v>
       </c>
       <c r="AO157" t="s">
-        <v>2171</v>
+        <v>2187</v>
       </c>
       <c r="AQ157" t="s">
-        <v>2172</v>
+        <v>2188</v>
       </c>
       <c r="AU157" t="s">
         <v>2021</v>
       </c>
       <c r="AW157" t="s">
         <v>2021</v>
-      </c>
-      <c r="BI157" t="s">
-        <v>2173</v>
-      </c>
-      <c r="BJ157" t="s">
-        <v>2174</v>
-      </c>
-      <c r="BK157" t="s">
-        <v>2175</v>
-      </c>
-      <c r="BO157" t="s">
-        <v>2176</v>
-      </c>
-      <c r="BP157" t="s">
-        <v>2177</v>
-      </c>
-      <c r="BQ157" t="s">
-        <v>2178</v>
       </c>
     </row>
     <row r="158" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>2179</v>
+        <v>2189</v>
       </c>
       <c r="D158" t="s">
         <v>91</v>
       </c>
       <c r="E158" t="s">
-        <v>2180</v>
+        <v>2190</v>
       </c>
       <c r="F158" t="s">
         <v>93</v>
@@ -20866,19 +21724,19 @@
         <v>94</v>
       </c>
       <c r="H158" t="s">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="I158" t="s">
-        <v>2181</v>
+        <v>2191</v>
       </c>
       <c r="J158" t="s">
-        <v>2182</v>
+        <v>1998</v>
       </c>
       <c r="K158" t="s">
-        <v>2045</v>
+        <v>2192</v>
       </c>
       <c r="L158" t="s">
-        <v>2183</v>
+        <v>2193</v>
       </c>
       <c r="Q158" t="s">
         <v>2001</v>
@@ -20887,63 +21745,51 @@
         <v>101</v>
       </c>
       <c r="S158" t="s">
-        <v>2184</v>
+        <v>2194</v>
+      </c>
+      <c r="T158" t="s">
+        <v>1598</v>
       </c>
       <c r="U158" t="s">
-        <v>2183</v>
+        <v>2193</v>
+      </c>
+      <c r="Y158" t="s">
+        <v>2195</v>
       </c>
       <c r="Z158" t="s">
-        <v>2185</v>
+        <v>1066</v>
       </c>
       <c r="AC158" t="s">
-        <v>639</v>
+        <v>706</v>
       </c>
       <c r="AD158" t="s">
-        <v>2186</v>
+        <v>1939</v>
       </c>
       <c r="AE158" t="s">
-        <v>2187</v>
+        <v>2172</v>
       </c>
       <c r="AO158" t="s">
-        <v>2188</v>
+        <v>2196</v>
       </c>
       <c r="AQ158" t="s">
-        <v>2189</v>
+        <v>2197</v>
       </c>
       <c r="AU158" t="s">
-        <v>2190</v>
+        <v>2008</v>
       </c>
       <c r="AW158" t="s">
-        <v>2190</v>
-      </c>
-      <c r="BI158" t="s">
-        <v>2191</v>
-      </c>
-      <c r="BJ158" t="s">
-        <v>2192</v>
-      </c>
-      <c r="BK158" t="s">
-        <v>2193</v>
-      </c>
-      <c r="BO158" t="s">
-        <v>2194</v>
-      </c>
-      <c r="BP158" t="s">
-        <v>2195</v>
-      </c>
-      <c r="BQ158" t="s">
-        <v>2196</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="159" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="D159" t="s">
         <v>91</v>
       </c>
       <c r="E159" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="F159" t="s">
         <v>93</v>
@@ -20952,16 +21798,16 @@
         <v>94</v>
       </c>
       <c r="H159" t="s">
-        <v>2199</v>
+        <v>2054</v>
       </c>
       <c r="I159" t="s">
         <v>2200</v>
       </c>
       <c r="J159" t="s">
-        <v>1998</v>
+        <v>2072</v>
       </c>
       <c r="K159" t="s">
-        <v>2045</v>
+        <v>2057</v>
       </c>
       <c r="L159" t="s">
         <v>2201</v>
@@ -20972,67 +21818,58 @@
       <c r="R159" t="s">
         <v>101</v>
       </c>
-      <c r="S159" t="s">
+      <c r="T159" t="s">
         <v>2202</v>
-      </c>
-      <c r="T159" t="s">
-        <v>721</v>
       </c>
       <c r="U159" t="s">
         <v>2201</v>
       </c>
+      <c r="Y159" t="s">
+        <v>2203</v>
+      </c>
       <c r="Z159" t="s">
-        <v>2203</v>
-      </c>
-      <c r="AC159" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD159" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE159" t="s">
-        <v>162</v>
+        <v>2204</v>
       </c>
       <c r="AO159" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="AQ159" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="AU159" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="AW159" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="BI159" t="s">
-        <v>208</v>
+        <v>2208</v>
       </c>
       <c r="BJ159" t="s">
-        <v>333</v>
+        <v>2209</v>
       </c>
       <c r="BK159" t="s">
-        <v>799</v>
+        <v>2210</v>
       </c>
       <c r="BO159" t="s">
-        <v>208</v>
+        <v>2211</v>
       </c>
       <c r="BP159" t="s">
-        <v>333</v>
+        <v>2212</v>
       </c>
       <c r="BQ159" t="s">
-        <v>799</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="160" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>2207</v>
+        <v>2214</v>
       </c>
       <c r="D160" t="s">
         <v>91</v>
       </c>
       <c r="E160" t="s">
-        <v>2208</v>
+        <v>2215</v>
       </c>
       <c r="F160" t="s">
         <v>93</v>
@@ -21041,19 +21878,19 @@
         <v>94</v>
       </c>
       <c r="H160" t="s">
-        <v>1996</v>
+        <v>2054</v>
       </c>
       <c r="I160" t="s">
-        <v>2209</v>
+        <v>2216</v>
       </c>
       <c r="J160" t="s">
-        <v>2182</v>
+        <v>2217</v>
       </c>
       <c r="K160" t="s">
-        <v>2055</v>
+        <v>2218</v>
       </c>
       <c r="L160" t="s">
-        <v>2210</v>
+        <v>2219</v>
       </c>
       <c r="Q160" t="s">
         <v>2001</v>
@@ -21062,48 +21899,42 @@
         <v>101</v>
       </c>
       <c r="S160" t="s">
-        <v>2211</v>
+        <v>2220</v>
       </c>
       <c r="T160" t="s">
-        <v>2212</v>
+        <v>2221</v>
       </c>
       <c r="U160" t="s">
-        <v>2210</v>
+        <v>2219</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>2222</v>
       </c>
       <c r="Z160" t="s">
-        <v>2213</v>
-      </c>
-      <c r="AC160" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD160" t="s">
-        <v>1919</v>
-      </c>
-      <c r="AE160" t="s">
-        <v>1337</v>
+        <v>1859</v>
       </c>
       <c r="AO160" t="s">
-        <v>2214</v>
+        <v>2223</v>
       </c>
       <c r="AQ160" t="s">
-        <v>2215</v>
+        <v>2224</v>
       </c>
       <c r="AU160" t="s">
-        <v>2110</v>
+        <v>2163</v>
       </c>
       <c r="AW160" t="s">
-        <v>2110</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="161" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>2216</v>
+        <v>2225</v>
       </c>
       <c r="D161" t="s">
         <v>91</v>
       </c>
       <c r="E161" t="s">
-        <v>2217</v>
+        <v>2226</v>
       </c>
       <c r="F161" t="s">
         <v>93</v>
@@ -21112,19 +21943,19 @@
         <v>94</v>
       </c>
       <c r="H161" t="s">
-        <v>1996</v>
+        <v>2054</v>
       </c>
       <c r="I161" t="s">
-        <v>2218</v>
+        <v>2227</v>
       </c>
       <c r="J161" t="s">
-        <v>2219</v>
+        <v>1817</v>
       </c>
       <c r="K161" t="s">
-        <v>2055</v>
+        <v>2134</v>
       </c>
       <c r="L161" t="s">
-        <v>2220</v>
+        <v>2228</v>
       </c>
       <c r="Q161" t="s">
         <v>2001</v>
@@ -21132,67 +21963,40 @@
       <c r="R161" t="s">
         <v>101</v>
       </c>
-      <c r="S161" t="s">
-        <v>2221</v>
+      <c r="T161" t="s">
+        <v>2229</v>
       </c>
       <c r="U161" t="s">
-        <v>2220</v>
+        <v>2228</v>
       </c>
       <c r="Y161" t="s">
-        <v>1278</v>
+        <v>1122</v>
       </c>
       <c r="Z161" t="s">
-        <v>2185</v>
-      </c>
-      <c r="AC161" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD161" t="s">
-        <v>359</v>
-      </c>
-      <c r="AE161" t="s">
-        <v>1536</v>
+        <v>2230</v>
       </c>
       <c r="AO161" t="s">
-        <v>2222</v>
+        <v>2231</v>
       </c>
       <c r="AQ161" t="s">
-        <v>2223</v>
+        <v>2232</v>
       </c>
       <c r="AU161" t="s">
-        <v>2224</v>
+        <v>2233</v>
       </c>
       <c r="AW161" t="s">
-        <v>2224</v>
-      </c>
-      <c r="BI161" t="s">
-        <v>2225</v>
-      </c>
-      <c r="BJ161" t="s">
-        <v>2226</v>
-      </c>
-      <c r="BK161" t="s">
-        <v>2227</v>
-      </c>
-      <c r="BO161" t="s">
-        <v>2228</v>
-      </c>
-      <c r="BP161" t="s">
-        <v>2229</v>
-      </c>
-      <c r="BQ161" t="s">
-        <v>2230</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="162" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>2231</v>
+        <v>2234</v>
       </c>
       <c r="D162" t="s">
         <v>91</v>
       </c>
       <c r="E162" t="s">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="F162" t="s">
         <v>93</v>
@@ -21204,16 +22008,16 @@
         <v>1996</v>
       </c>
       <c r="I162" t="s">
-        <v>2233</v>
+        <v>2236</v>
       </c>
       <c r="J162" t="s">
-        <v>2234</v>
+        <v>2237</v>
       </c>
       <c r="K162" t="s">
-        <v>2055</v>
+        <v>2238</v>
       </c>
       <c r="L162" t="s">
-        <v>2235</v>
+        <v>2239</v>
       </c>
       <c r="Q162" t="s">
         <v>2001</v>
@@ -21222,66 +22026,63 @@
         <v>101</v>
       </c>
       <c r="S162" t="s">
-        <v>2236</v>
+        <v>2240</v>
       </c>
       <c r="T162" t="s">
-        <v>625</v>
+        <v>1266</v>
       </c>
       <c r="U162" t="s">
-        <v>2235</v>
-      </c>
-      <c r="Z162" t="s">
-        <v>420</v>
+        <v>2239</v>
       </c>
       <c r="AC162" t="s">
-        <v>1108</v>
+        <v>739</v>
       </c>
       <c r="AD162" t="s">
-        <v>533</v>
+        <v>329</v>
       </c>
       <c r="AE162" t="s">
-        <v>638</v>
+        <v>616</v>
       </c>
       <c r="AO162" t="s">
-        <v>2237</v>
+        <v>162</v>
       </c>
       <c r="AQ162" t="s">
-        <v>2238</v>
+        <v>162</v>
       </c>
       <c r="AU162" t="s">
-        <v>2239</v>
+        <v>2021</v>
       </c>
       <c r="AW162" t="s">
-        <v>2239</v>
+        <v>2021</v>
       </c>
       <c r="BI162" t="s">
-        <v>1499</v>
+        <v>2241</v>
       </c>
       <c r="BJ162" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="BK162" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="BO162" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="BP162" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="BQ162" t="s">
-        <v>2244</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="163" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="D163" t="s">
         <v>91</v>
       </c>
       <c r="E163" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="F163" t="s">
         <v>93</v>
@@ -21290,19 +22091,19 @@
         <v>94</v>
       </c>
       <c r="H163" t="s">
-        <v>1996</v>
+        <v>2054</v>
       </c>
       <c r="I163" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="J163" t="s">
-        <v>2248</v>
+        <v>2217</v>
       </c>
       <c r="K163" t="s">
-        <v>2149</v>
+        <v>2249</v>
       </c>
       <c r="L163" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="Q163" t="s">
         <v>2001</v>
@@ -21311,51 +22112,54 @@
         <v>101</v>
       </c>
       <c r="S163" t="s">
+        <v>2251</v>
+      </c>
+      <c r="T163" t="s">
+        <v>2252</v>
+      </c>
+      <c r="U163" t="s">
         <v>2250</v>
       </c>
-      <c r="T163" t="s">
-        <v>2251</v>
-      </c>
-      <c r="U163" t="s">
-        <v>2249</v>
-      </c>
       <c r="Y163" t="s">
-        <v>342</v>
+        <v>2253</v>
       </c>
       <c r="Z163" t="s">
-        <v>703</v>
-      </c>
-      <c r="AC163" t="s">
-        <v>976</v>
-      </c>
-      <c r="AD163" t="s">
-        <v>502</v>
-      </c>
-      <c r="AE163" t="s">
-        <v>2252</v>
-      </c>
-      <c r="AO163" t="s">
-        <v>2253</v>
-      </c>
-      <c r="AQ163" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AU163" t="s">
         <v>2254</v>
       </c>
-      <c r="AU163" t="s">
-        <v>2120</v>
-      </c>
       <c r="AW163" t="s">
-        <v>2120</v>
+        <v>2255</v>
+      </c>
+      <c r="BI163" t="s">
+        <v>2256</v>
+      </c>
+      <c r="BJ163" t="s">
+        <v>2257</v>
+      </c>
+      <c r="BK163" t="s">
+        <v>2258</v>
+      </c>
+      <c r="BO163" t="s">
+        <v>2259</v>
+      </c>
+      <c r="BP163" t="s">
+        <v>2260</v>
+      </c>
+      <c r="BQ163" t="s">
+        <v>2261</v>
       </c>
     </row>
     <row r="164" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>2255</v>
+        <v>2262</v>
       </c>
       <c r="D164" t="s">
         <v>91</v>
       </c>
       <c r="E164" t="s">
-        <v>2256</v>
+        <v>2235</v>
       </c>
       <c r="F164" t="s">
         <v>93</v>
@@ -21364,19 +22168,19 @@
         <v>94</v>
       </c>
       <c r="H164" t="s">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="I164" t="s">
-        <v>2257</v>
+        <v>2263</v>
       </c>
       <c r="J164" t="s">
         <v>2044</v>
       </c>
       <c r="K164" t="s">
-        <v>2066</v>
+        <v>2098</v>
       </c>
       <c r="L164" t="s">
-        <v>2258</v>
+        <v>2264</v>
       </c>
       <c r="Q164" t="s">
         <v>2001</v>
@@ -21384,70 +22188,64 @@
       <c r="R164" t="s">
         <v>101</v>
       </c>
-      <c r="S164" t="s">
-        <v>2259</v>
-      </c>
       <c r="T164" t="s">
-        <v>2260</v>
+        <v>2265</v>
       </c>
       <c r="U164" t="s">
-        <v>2258</v>
-      </c>
-      <c r="Y164" t="s">
-        <v>2048</v>
+        <v>2264</v>
       </c>
       <c r="Z164" t="s">
-        <v>2071</v>
+        <v>1066</v>
       </c>
       <c r="AC164" t="s">
-        <v>1182</v>
+        <v>673</v>
       </c>
       <c r="AD164" t="s">
-        <v>1766</v>
+        <v>706</v>
       </c>
       <c r="AE164" t="s">
-        <v>689</v>
+        <v>1336</v>
       </c>
       <c r="AO164" t="s">
-        <v>2261</v>
+        <v>2266</v>
       </c>
       <c r="AQ164" t="s">
-        <v>2262</v>
+        <v>2267</v>
       </c>
       <c r="AU164" t="s">
-        <v>2206</v>
+        <v>2021</v>
       </c>
       <c r="AW164" t="s">
-        <v>2206</v>
+        <v>2021</v>
       </c>
       <c r="BI164" t="s">
-        <v>2263</v>
+        <v>2268</v>
       </c>
       <c r="BJ164" t="s">
-        <v>2264</v>
+        <v>2269</v>
       </c>
       <c r="BK164" t="s">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="BO164" t="s">
-        <v>2266</v>
+        <v>2271</v>
       </c>
       <c r="BP164" t="s">
-        <v>2267</v>
+        <v>2272</v>
       </c>
       <c r="BQ164" t="s">
-        <v>2268</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="165" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>2269</v>
+        <v>2274</v>
       </c>
       <c r="D165" t="s">
         <v>91</v>
       </c>
       <c r="E165" t="s">
-        <v>2270</v>
+        <v>2275</v>
       </c>
       <c r="F165" t="s">
         <v>93</v>
@@ -21456,19 +22254,19 @@
         <v>94</v>
       </c>
       <c r="H165" t="s">
-        <v>1996</v>
+        <v>2011</v>
       </c>
       <c r="I165" t="s">
-        <v>2271</v>
+        <v>2276</v>
       </c>
       <c r="J165" t="s">
-        <v>2272</v>
+        <v>2277</v>
       </c>
       <c r="K165" t="s">
-        <v>2273</v>
+        <v>2045</v>
       </c>
       <c r="L165" t="s">
-        <v>2274</v>
+        <v>2278</v>
       </c>
       <c r="Q165" t="s">
         <v>2001</v>
@@ -21477,36 +22275,66 @@
         <v>101</v>
       </c>
       <c r="S165" t="s">
-        <v>2275</v>
+        <v>2279</v>
       </c>
       <c r="T165" t="s">
-        <v>2276</v>
+        <v>2280</v>
       </c>
       <c r="U165" t="s">
-        <v>2274</v>
-      </c>
-      <c r="Y165" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="Z165" t="s">
-        <v>1858</v>
+        <v>2281</v>
+      </c>
+      <c r="AC165" t="s">
+        <v>639</v>
+      </c>
+      <c r="AD165" t="s">
+        <v>2282</v>
+      </c>
+      <c r="AE165" t="s">
+        <v>2283</v>
+      </c>
+      <c r="AO165" t="s">
+        <v>2284</v>
+      </c>
+      <c r="AQ165" t="s">
+        <v>2285</v>
       </c>
       <c r="AU165" t="s">
-        <v>2110</v>
+        <v>2254</v>
       </c>
       <c r="AW165" t="s">
-        <v>2110</v>
+        <v>2254</v>
+      </c>
+      <c r="BI165" t="s">
+        <v>2286</v>
+      </c>
+      <c r="BJ165" t="s">
+        <v>2287</v>
+      </c>
+      <c r="BK165" t="s">
+        <v>2288</v>
+      </c>
+      <c r="BO165" t="s">
+        <v>2289</v>
+      </c>
+      <c r="BP165" t="s">
+        <v>2290</v>
+      </c>
+      <c r="BQ165" t="s">
+        <v>2291</v>
       </c>
     </row>
     <row r="166" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>2278</v>
+        <v>2292</v>
       </c>
       <c r="D166" t="s">
         <v>91</v>
       </c>
       <c r="E166" t="s">
-        <v>2279</v>
+        <v>2293</v>
       </c>
       <c r="F166" t="s">
         <v>93</v>
@@ -21515,19 +22343,19 @@
         <v>94</v>
       </c>
       <c r="H166" t="s">
-        <v>2011</v>
+        <v>2054</v>
       </c>
       <c r="I166" t="s">
-        <v>2280</v>
+        <v>2294</v>
       </c>
       <c r="J166" t="s">
-        <v>2234</v>
+        <v>2295</v>
       </c>
       <c r="K166" t="s">
-        <v>2149</v>
+        <v>2218</v>
       </c>
       <c r="L166" t="s">
-        <v>2281</v>
+        <v>855</v>
       </c>
       <c r="Q166" t="s">
         <v>2001</v>
@@ -21536,66 +22364,60 @@
         <v>101</v>
       </c>
       <c r="S166" t="s">
-        <v>2282</v>
+        <v>2296</v>
+      </c>
+      <c r="T166" t="s">
+        <v>1107</v>
       </c>
       <c r="U166" t="s">
-        <v>2281</v>
+        <v>855</v>
       </c>
       <c r="Y166" t="s">
-        <v>2283</v>
+        <v>2297</v>
       </c>
       <c r="Z166" t="s">
-        <v>1080</v>
-      </c>
-      <c r="AC166" t="s">
-        <v>1613</v>
-      </c>
-      <c r="AD166" t="s">
-        <v>673</v>
-      </c>
-      <c r="AE166" t="s">
-        <v>2284</v>
+        <v>703</v>
       </c>
       <c r="AO166" t="s">
-        <v>2285</v>
+        <v>2298</v>
       </c>
       <c r="AQ166" t="s">
-        <v>2286</v>
+        <v>2299</v>
       </c>
       <c r="AU166" t="s">
-        <v>2287</v>
+        <v>2300</v>
       </c>
       <c r="AW166" t="s">
-        <v>2287</v>
+        <v>2300</v>
       </c>
       <c r="BI166" t="s">
-        <v>2288</v>
+        <v>2301</v>
       </c>
       <c r="BJ166" t="s">
-        <v>2289</v>
+        <v>2302</v>
       </c>
       <c r="BK166" t="s">
-        <v>2290</v>
+        <v>2303</v>
       </c>
       <c r="BO166" t="s">
-        <v>2291</v>
+        <v>2304</v>
       </c>
       <c r="BP166" t="s">
-        <v>2292</v>
+        <v>2305</v>
       </c>
       <c r="BQ166" t="s">
-        <v>2293</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="167" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>2294</v>
+        <v>2307</v>
       </c>
       <c r="D167" t="s">
         <v>91</v>
       </c>
       <c r="E167" t="s">
-        <v>2295</v>
+        <v>2308</v>
       </c>
       <c r="F167" t="s">
         <v>93</v>
@@ -21604,19 +22426,19 @@
         <v>94</v>
       </c>
       <c r="H167" t="s">
-        <v>2011</v>
+        <v>2309</v>
       </c>
       <c r="I167" t="s">
-        <v>2296</v>
+        <v>2310</v>
       </c>
       <c r="J167" t="s">
-        <v>2044</v>
+        <v>1998</v>
       </c>
       <c r="K167" t="s">
-        <v>2066</v>
+        <v>2045</v>
       </c>
       <c r="L167" t="s">
-        <v>2297</v>
+        <v>2311</v>
       </c>
       <c r="Q167" t="s">
         <v>2001</v>
@@ -21625,55 +22447,1821 @@
         <v>101</v>
       </c>
       <c r="S167" t="s">
-        <v>2298</v>
+        <v>2312</v>
       </c>
       <c r="T167" t="s">
+        <v>721</v>
+      </c>
+      <c r="U167" t="s">
+        <v>2311</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>2313</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD167" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE167" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO167" t="s">
+        <v>2314</v>
+      </c>
+      <c r="AQ167" t="s">
+        <v>2224</v>
+      </c>
+      <c r="AU167" t="s">
+        <v>2207</v>
+      </c>
+      <c r="AW167" t="s">
+        <v>2207</v>
+      </c>
+      <c r="BI167" t="s">
+        <v>208</v>
+      </c>
+      <c r="BJ167" t="s">
+        <v>333</v>
+      </c>
+      <c r="BK167" t="s">
+        <v>799</v>
+      </c>
+      <c r="BO167" t="s">
+        <v>208</v>
+      </c>
+      <c r="BP167" t="s">
+        <v>333</v>
+      </c>
+      <c r="BQ167" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="168" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D168" t="s">
+        <v>91</v>
+      </c>
+      <c r="E168" t="s">
+        <v>2316</v>
+      </c>
+      <c r="F168" t="s">
+        <v>93</v>
+      </c>
+      <c r="G168" t="s">
+        <v>94</v>
+      </c>
+      <c r="H168" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I168" t="s">
+        <v>2317</v>
+      </c>
+      <c r="J168" t="s">
+        <v>2217</v>
+      </c>
+      <c r="K168" t="s">
+        <v>2218</v>
+      </c>
+      <c r="L168" t="s">
+        <v>2318</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R168" t="s">
+        <v>101</v>
+      </c>
+      <c r="S168" t="s">
+        <v>2319</v>
+      </c>
+      <c r="T168" t="s">
+        <v>2320</v>
+      </c>
+      <c r="U168" t="s">
+        <v>2318</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>2321</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>2322</v>
+      </c>
+      <c r="AU168" t="s">
+        <v>2323</v>
+      </c>
+      <c r="AW168" t="s">
+        <v>2324</v>
+      </c>
+      <c r="BI168" t="s">
+        <v>2325</v>
+      </c>
+      <c r="BJ168" t="s">
+        <v>2326</v>
+      </c>
+      <c r="BK168" t="s">
+        <v>2327</v>
+      </c>
+      <c r="BO168" t="s">
+        <v>2328</v>
+      </c>
+      <c r="BP168" t="s">
+        <v>2329</v>
+      </c>
+      <c r="BQ168" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="169" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D169" t="s">
+        <v>91</v>
+      </c>
+      <c r="E169" t="s">
+        <v>2332</v>
+      </c>
+      <c r="F169" t="s">
+        <v>93</v>
+      </c>
+      <c r="G169" t="s">
+        <v>94</v>
+      </c>
+      <c r="H169" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I169" t="s">
+        <v>2333</v>
+      </c>
+      <c r="J169" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K169" t="s">
+        <v>2334</v>
+      </c>
+      <c r="L169" t="s">
+        <v>2335</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R169" t="s">
+        <v>101</v>
+      </c>
+      <c r="S169" t="s">
+        <v>2336</v>
+      </c>
+      <c r="T169" t="s">
+        <v>2337</v>
+      </c>
+      <c r="U169" t="s">
+        <v>2335</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>2338</v>
+      </c>
+      <c r="Z169" t="s">
+        <v>2339</v>
+      </c>
+      <c r="AO169" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ169" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU169" t="s">
+        <v>2340</v>
+      </c>
+      <c r="AW169" t="s">
+        <v>2340</v>
+      </c>
+      <c r="BI169" t="s">
+        <v>2341</v>
+      </c>
+      <c r="BJ169" t="s">
+        <v>2341</v>
+      </c>
+      <c r="BK169" t="s">
+        <v>2342</v>
+      </c>
+      <c r="BO169" t="s">
+        <v>2343</v>
+      </c>
+      <c r="BP169" t="s">
+        <v>2343</v>
+      </c>
+      <c r="BQ169" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="170" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D170" t="s">
+        <v>91</v>
+      </c>
+      <c r="E170" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F170" t="s">
+        <v>93</v>
+      </c>
+      <c r="G170" t="s">
+        <v>94</v>
+      </c>
+      <c r="H170" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I170" t="s">
+        <v>2347</v>
+      </c>
+      <c r="J170" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K170" t="s">
+        <v>2134</v>
+      </c>
+      <c r="L170" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R170" t="s">
+        <v>101</v>
+      </c>
+      <c r="U170" t="s">
+        <v>703</v>
+      </c>
+      <c r="AO170" t="s">
+        <v>2348</v>
+      </c>
+      <c r="AQ170" t="s">
+        <v>2349</v>
+      </c>
+      <c r="AU170" t="s">
+        <v>2350</v>
+      </c>
+      <c r="AW170" t="s">
+        <v>2350</v>
+      </c>
+      <c r="BI170" t="s">
+        <v>2351</v>
+      </c>
+      <c r="BJ170" t="s">
+        <v>2352</v>
+      </c>
+      <c r="BK170" t="s">
+        <v>2353</v>
+      </c>
+      <c r="BO170" t="s">
+        <v>2351</v>
+      </c>
+      <c r="BP170" t="s">
+        <v>2352</v>
+      </c>
+      <c r="BQ170" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="171" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D171" t="s">
+        <v>91</v>
+      </c>
+      <c r="E171" t="s">
+        <v>2355</v>
+      </c>
+      <c r="F171" t="s">
+        <v>93</v>
+      </c>
+      <c r="G171" t="s">
+        <v>94</v>
+      </c>
+      <c r="H171" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I171" t="s">
+        <v>2356</v>
+      </c>
+      <c r="J171" t="s">
+        <v>2056</v>
+      </c>
+      <c r="K171" t="s">
+        <v>2134</v>
+      </c>
+      <c r="L171" t="s">
+        <v>2171</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R171" t="s">
+        <v>101</v>
+      </c>
+      <c r="U171" t="s">
+        <v>2171</v>
+      </c>
+      <c r="AO171" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AQ171" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AU171" t="s">
+        <v>2163</v>
+      </c>
+      <c r="AW171" t="s">
+        <v>2163</v>
+      </c>
+      <c r="BI171" t="s">
+        <v>2359</v>
+      </c>
+      <c r="BJ171" t="s">
+        <v>2360</v>
+      </c>
+      <c r="BK171" t="s">
+        <v>2361</v>
+      </c>
+      <c r="BO171" t="s">
+        <v>2359</v>
+      </c>
+      <c r="BP171" t="s">
+        <v>2360</v>
+      </c>
+      <c r="BQ171" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="172" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>2362</v>
+      </c>
+      <c r="D172" t="s">
+        <v>91</v>
+      </c>
+      <c r="E172" t="s">
+        <v>2363</v>
+      </c>
+      <c r="F172" t="s">
+        <v>93</v>
+      </c>
+      <c r="G172" t="s">
+        <v>94</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1996</v>
+      </c>
+      <c r="I172" t="s">
+        <v>2364</v>
+      </c>
+      <c r="J172" t="s">
+        <v>2277</v>
+      </c>
+      <c r="K172" t="s">
+        <v>2087</v>
+      </c>
+      <c r="L172" t="s">
+        <v>2365</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R172" t="s">
+        <v>101</v>
+      </c>
+      <c r="S172" t="s">
+        <v>2366</v>
+      </c>
+      <c r="T172" t="s">
+        <v>2367</v>
+      </c>
+      <c r="U172" t="s">
+        <v>2365</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>2368</v>
+      </c>
+      <c r="AC172" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD172" t="s">
+        <v>1919</v>
+      </c>
+      <c r="AE172" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AO172" t="s">
+        <v>2369</v>
+      </c>
+      <c r="AQ172" t="s">
+        <v>2370</v>
+      </c>
+      <c r="AU172" t="s">
+        <v>2153</v>
+      </c>
+      <c r="AW172" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="173" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D173" t="s">
+        <v>91</v>
+      </c>
+      <c r="E173" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F173" t="s">
+        <v>93</v>
+      </c>
+      <c r="G173" t="s">
+        <v>94</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1996</v>
+      </c>
+      <c r="I173" t="s">
+        <v>2373</v>
+      </c>
+      <c r="J173" t="s">
+        <v>2374</v>
+      </c>
+      <c r="K173" t="s">
+        <v>2087</v>
+      </c>
+      <c r="L173" t="s">
+        <v>2375</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R173" t="s">
+        <v>101</v>
+      </c>
+      <c r="S173" t="s">
+        <v>2376</v>
+      </c>
+      <c r="T173" t="s">
+        <v>2377</v>
+      </c>
+      <c r="U173" t="s">
+        <v>2375</v>
+      </c>
+      <c r="Y173" t="s">
+        <v>1278</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>2281</v>
+      </c>
+      <c r="AC173" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD173" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE173" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AO173" t="s">
+        <v>2378</v>
+      </c>
+      <c r="AQ173" t="s">
+        <v>2379</v>
+      </c>
+      <c r="AU173" t="s">
+        <v>2380</v>
+      </c>
+      <c r="AW173" t="s">
+        <v>2380</v>
+      </c>
+      <c r="BI173" t="s">
+        <v>2381</v>
+      </c>
+      <c r="BJ173" t="s">
+        <v>2382</v>
+      </c>
+      <c r="BK173" t="s">
+        <v>2383</v>
+      </c>
+      <c r="BO173" t="s">
+        <v>2384</v>
+      </c>
+      <c r="BP173" t="s">
+        <v>2385</v>
+      </c>
+      <c r="BQ173" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="174" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D174" t="s">
+        <v>91</v>
+      </c>
+      <c r="E174" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F174" t="s">
+        <v>93</v>
+      </c>
+      <c r="G174" t="s">
+        <v>94</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1996</v>
+      </c>
+      <c r="I174" t="s">
+        <v>2389</v>
+      </c>
+      <c r="J174" t="s">
+        <v>2390</v>
+      </c>
+      <c r="K174" t="s">
+        <v>2087</v>
+      </c>
+      <c r="L174" t="s">
+        <v>2391</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R174" t="s">
+        <v>101</v>
+      </c>
+      <c r="S174" t="s">
+        <v>2392</v>
+      </c>
+      <c r="T174" t="s">
+        <v>625</v>
+      </c>
+      <c r="U174" t="s">
+        <v>2391</v>
+      </c>
+      <c r="Z174" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AD174" t="s">
+        <v>533</v>
+      </c>
+      <c r="AE174" t="s">
+        <v>638</v>
+      </c>
+      <c r="AO174" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AQ174" t="s">
+        <v>2394</v>
+      </c>
+      <c r="AU174" t="s">
+        <v>2395</v>
+      </c>
+      <c r="AW174" t="s">
+        <v>2395</v>
+      </c>
+      <c r="BI174" t="s">
+        <v>1499</v>
+      </c>
+      <c r="BJ174" t="s">
+        <v>2396</v>
+      </c>
+      <c r="BK174" t="s">
+        <v>2397</v>
+      </c>
+      <c r="BO174" t="s">
+        <v>2398</v>
+      </c>
+      <c r="BP174" t="s">
+        <v>2399</v>
+      </c>
+      <c r="BQ174" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="175" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D175" t="s">
+        <v>91</v>
+      </c>
+      <c r="E175" t="s">
+        <v>2402</v>
+      </c>
+      <c r="F175" t="s">
+        <v>93</v>
+      </c>
+      <c r="G175" t="s">
+        <v>94</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1996</v>
+      </c>
+      <c r="I175" t="s">
+        <v>2403</v>
+      </c>
+      <c r="J175" t="s">
+        <v>2404</v>
+      </c>
+      <c r="K175" t="s">
+        <v>2192</v>
+      </c>
+      <c r="L175" t="s">
+        <v>2405</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R175" t="s">
+        <v>101</v>
+      </c>
+      <c r="S175" t="s">
+        <v>2406</v>
+      </c>
+      <c r="T175" t="s">
+        <v>2407</v>
+      </c>
+      <c r="U175" t="s">
+        <v>2405</v>
+      </c>
+      <c r="Y175" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>703</v>
+      </c>
+      <c r="AC175" t="s">
+        <v>976</v>
+      </c>
+      <c r="AD175" t="s">
+        <v>502</v>
+      </c>
+      <c r="AE175" t="s">
+        <v>2408</v>
+      </c>
+      <c r="AO175" t="s">
+        <v>2409</v>
+      </c>
+      <c r="AQ175" t="s">
+        <v>2410</v>
+      </c>
+      <c r="AU175" t="s">
+        <v>2163</v>
+      </c>
+      <c r="AW175" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="176" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D176" t="s">
+        <v>91</v>
+      </c>
+      <c r="E176" t="s">
+        <v>2412</v>
+      </c>
+      <c r="F176" t="s">
+        <v>93</v>
+      </c>
+      <c r="G176" t="s">
+        <v>94</v>
+      </c>
+      <c r="H176" t="s">
+        <v>2011</v>
+      </c>
+      <c r="I176" t="s">
+        <v>2413</v>
+      </c>
+      <c r="J176" t="s">
+        <v>2044</v>
+      </c>
+      <c r="K176" t="s">
+        <v>2098</v>
+      </c>
+      <c r="L176" t="s">
+        <v>2414</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R176" t="s">
+        <v>101</v>
+      </c>
+      <c r="S176" t="s">
+        <v>2415</v>
+      </c>
+      <c r="T176" t="s">
+        <v>2416</v>
+      </c>
+      <c r="U176" t="s">
+        <v>2414</v>
+      </c>
+      <c r="Y176" t="s">
+        <v>2048</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>2102</v>
+      </c>
+      <c r="AC176" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AD176" t="s">
+        <v>1766</v>
+      </c>
+      <c r="AE176" t="s">
+        <v>689</v>
+      </c>
+      <c r="AO176" t="s">
+        <v>2417</v>
+      </c>
+      <c r="AQ176" t="s">
+        <v>2418</v>
+      </c>
+      <c r="AU176" t="s">
+        <v>2207</v>
+      </c>
+      <c r="AW176" t="s">
+        <v>2207</v>
+      </c>
+      <c r="BI176" t="s">
+        <v>2419</v>
+      </c>
+      <c r="BJ176" t="s">
+        <v>2420</v>
+      </c>
+      <c r="BK176" t="s">
+        <v>2421</v>
+      </c>
+      <c r="BO176" t="s">
+        <v>2422</v>
+      </c>
+      <c r="BP176" t="s">
+        <v>2423</v>
+      </c>
+      <c r="BQ176" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="177" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D177" t="s">
+        <v>91</v>
+      </c>
+      <c r="E177" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F177" t="s">
+        <v>93</v>
+      </c>
+      <c r="G177" t="s">
+        <v>94</v>
+      </c>
+      <c r="H177" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I177" t="s">
+        <v>2427</v>
+      </c>
+      <c r="J177" t="s">
+        <v>1658</v>
+      </c>
+      <c r="K177" t="s">
+        <v>2057</v>
+      </c>
+      <c r="L177" t="s">
+        <v>2428</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R177" t="s">
+        <v>101</v>
+      </c>
+      <c r="S177" t="s">
+        <v>2429</v>
+      </c>
+      <c r="T177" t="s">
+        <v>2430</v>
+      </c>
+      <c r="U177" t="s">
+        <v>2428</v>
+      </c>
+      <c r="Y177" t="s">
+        <v>2431</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>1859</v>
+      </c>
+      <c r="AO177" t="s">
+        <v>2432</v>
+      </c>
+      <c r="AQ177" t="s">
+        <v>2433</v>
+      </c>
+      <c r="AU177" t="s">
+        <v>2207</v>
+      </c>
+      <c r="AW177" t="s">
+        <v>2207</v>
+      </c>
+      <c r="BI177" t="s">
+        <v>2434</v>
+      </c>
+      <c r="BJ177" t="s">
+        <v>2435</v>
+      </c>
+      <c r="BK177" t="s">
+        <v>1047</v>
+      </c>
+      <c r="BO177" t="s">
+        <v>2434</v>
+      </c>
+      <c r="BP177" t="s">
+        <v>1872</v>
+      </c>
+      <c r="BQ177" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="178" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D178" t="s">
+        <v>91</v>
+      </c>
+      <c r="E178" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F178" t="s">
+        <v>93</v>
+      </c>
+      <c r="G178" t="s">
+        <v>94</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1996</v>
+      </c>
+      <c r="I178" t="s">
+        <v>2438</v>
+      </c>
+      <c r="J178" t="s">
+        <v>2439</v>
+      </c>
+      <c r="K178" t="s">
+        <v>2440</v>
+      </c>
+      <c r="L178" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R178" t="s">
+        <v>101</v>
+      </c>
+      <c r="S178" t="s">
+        <v>2442</v>
+      </c>
+      <c r="T178" t="s">
+        <v>2443</v>
+      </c>
+      <c r="U178" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Y178" t="s">
+        <v>2444</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>1858</v>
+      </c>
+      <c r="AU178" t="s">
+        <v>2153</v>
+      </c>
+      <c r="AW178" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="179" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D179" t="s">
+        <v>91</v>
+      </c>
+      <c r="E179" t="s">
+        <v>2446</v>
+      </c>
+      <c r="F179" t="s">
+        <v>93</v>
+      </c>
+      <c r="G179" t="s">
+        <v>94</v>
+      </c>
+      <c r="H179" t="s">
+        <v>2011</v>
+      </c>
+      <c r="I179" t="s">
+        <v>2447</v>
+      </c>
+      <c r="J179" t="s">
+        <v>2390</v>
+      </c>
+      <c r="K179" t="s">
+        <v>2192</v>
+      </c>
+      <c r="L179" t="s">
+        <v>2448</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R179" t="s">
+        <v>101</v>
+      </c>
+      <c r="S179" t="s">
+        <v>2449</v>
+      </c>
+      <c r="T179" t="s">
+        <v>2450</v>
+      </c>
+      <c r="U179" t="s">
+        <v>2448</v>
+      </c>
+      <c r="Y179" t="s">
+        <v>2230</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AC179" t="s">
+        <v>1613</v>
+      </c>
+      <c r="AD179" t="s">
+        <v>673</v>
+      </c>
+      <c r="AE179" t="s">
+        <v>2451</v>
+      </c>
+      <c r="AO179" t="s">
+        <v>2452</v>
+      </c>
+      <c r="AQ179" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AU179" t="s">
+        <v>2454</v>
+      </c>
+      <c r="AW179" t="s">
+        <v>2454</v>
+      </c>
+      <c r="BI179" t="s">
+        <v>2455</v>
+      </c>
+      <c r="BJ179" t="s">
+        <v>2456</v>
+      </c>
+      <c r="BK179" t="s">
+        <v>2457</v>
+      </c>
+      <c r="BO179" t="s">
+        <v>2458</v>
+      </c>
+      <c r="BP179" t="s">
+        <v>2459</v>
+      </c>
+      <c r="BQ179" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="180" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D180" t="s">
+        <v>91</v>
+      </c>
+      <c r="E180" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F180" t="s">
+        <v>93</v>
+      </c>
+      <c r="G180" t="s">
+        <v>94</v>
+      </c>
+      <c r="H180" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I180" t="s">
+        <v>2463</v>
+      </c>
+      <c r="J180" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K180" t="s">
+        <v>2134</v>
+      </c>
+      <c r="L180" t="s">
+        <v>2464</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R180" t="s">
+        <v>101</v>
+      </c>
+      <c r="U180" t="s">
+        <v>2464</v>
+      </c>
+      <c r="AO180" t="s">
+        <v>2465</v>
+      </c>
+      <c r="AQ180" t="s">
+        <v>2466</v>
+      </c>
+      <c r="AU180" t="s">
+        <v>2233</v>
+      </c>
+      <c r="AW180" t="s">
+        <v>2233</v>
+      </c>
+      <c r="BI180" t="s">
+        <v>2467</v>
+      </c>
+      <c r="BJ180" t="s">
+        <v>2468</v>
+      </c>
+      <c r="BK180" t="s">
+        <v>2469</v>
+      </c>
+      <c r="BO180" t="s">
+        <v>2467</v>
+      </c>
+      <c r="BP180" t="s">
+        <v>2468</v>
+      </c>
+      <c r="BQ180" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="181" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D181" t="s">
+        <v>91</v>
+      </c>
+      <c r="E181" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F181" t="s">
+        <v>93</v>
+      </c>
+      <c r="G181" t="s">
+        <v>94</v>
+      </c>
+      <c r="H181" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I181" t="s">
+        <v>2472</v>
+      </c>
+      <c r="J181" t="s">
+        <v>2473</v>
+      </c>
+      <c r="K181" t="s">
+        <v>2134</v>
+      </c>
+      <c r="L181" t="s">
+        <v>2474</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R181" t="s">
+        <v>101</v>
+      </c>
+      <c r="T181" t="s">
+        <v>1856</v>
+      </c>
+      <c r="U181" t="s">
+        <v>2474</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>2475</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>2171</v>
+      </c>
+      <c r="AO181" t="s">
+        <v>2476</v>
+      </c>
+      <c r="AQ181" t="s">
+        <v>2477</v>
+      </c>
+      <c r="AU181" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AW181" t="s">
+        <v>2008</v>
+      </c>
+      <c r="BI181" t="s">
+        <v>2478</v>
+      </c>
+      <c r="BJ181" t="s">
+        <v>2479</v>
+      </c>
+      <c r="BK181" t="s">
+        <v>2480</v>
+      </c>
+      <c r="BO181" t="s">
+        <v>2481</v>
+      </c>
+      <c r="BP181" t="s">
+        <v>2482</v>
+      </c>
+      <c r="BQ181" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="182" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D182" t="s">
+        <v>91</v>
+      </c>
+      <c r="E182" t="s">
+        <v>2485</v>
+      </c>
+      <c r="F182" t="s">
+        <v>93</v>
+      </c>
+      <c r="G182" t="s">
+        <v>94</v>
+      </c>
+      <c r="H182" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I182" t="s">
+        <v>2486</v>
+      </c>
+      <c r="J182" t="s">
+        <v>1658</v>
+      </c>
+      <c r="K182" t="s">
+        <v>2057</v>
+      </c>
+      <c r="L182" t="s">
+        <v>2487</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R182" t="s">
+        <v>101</v>
+      </c>
+      <c r="S182" t="s">
+        <v>2488</v>
+      </c>
+      <c r="T182" t="s">
+        <v>2489</v>
+      </c>
+      <c r="U182" t="s">
+        <v>2487</v>
+      </c>
+      <c r="Y182" t="s">
+        <v>2490</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>2322</v>
+      </c>
+      <c r="AO182" t="s">
+        <v>2491</v>
+      </c>
+      <c r="AQ182" t="s">
+        <v>2492</v>
+      </c>
+      <c r="AU182" t="s">
+        <v>2175</v>
+      </c>
+      <c r="AW182" t="s">
+        <v>2175</v>
+      </c>
+      <c r="BI182" t="s">
+        <v>2493</v>
+      </c>
+      <c r="BJ182" t="s">
+        <v>2494</v>
+      </c>
+      <c r="BK182" t="s">
+        <v>2495</v>
+      </c>
+      <c r="BO182" t="s">
+        <v>2496</v>
+      </c>
+      <c r="BP182" t="s">
+        <v>2497</v>
+      </c>
+      <c r="BQ182" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="183" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D183" t="s">
+        <v>91</v>
+      </c>
+      <c r="E183" t="s">
+        <v>2500</v>
+      </c>
+      <c r="F183" t="s">
+        <v>93</v>
+      </c>
+      <c r="G183" t="s">
+        <v>94</v>
+      </c>
+      <c r="H183" t="s">
+        <v>2011</v>
+      </c>
+      <c r="I183" t="s">
+        <v>2501</v>
+      </c>
+      <c r="J183" t="s">
+        <v>2044</v>
+      </c>
+      <c r="K183" t="s">
+        <v>2098</v>
+      </c>
+      <c r="L183" t="s">
+        <v>2502</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R183" t="s">
+        <v>101</v>
+      </c>
+      <c r="S183" t="s">
+        <v>2503</v>
+      </c>
+      <c r="T183" t="s">
         <v>962</v>
       </c>
-      <c r="U167" t="s">
-        <v>2297</v>
-      </c>
-      <c r="Z167" t="s">
+      <c r="U183" t="s">
+        <v>2502</v>
+      </c>
+      <c r="Z183" t="s">
         <v>1066</v>
       </c>
-      <c r="AC167" t="s">
-        <v>2299</v>
-      </c>
-      <c r="AD167" t="s">
+      <c r="AC183" t="s">
+        <v>2504</v>
+      </c>
+      <c r="AD183" t="s">
         <v>294</v>
       </c>
-      <c r="AE167" t="s">
+      <c r="AE183" t="s">
         <v>1869</v>
       </c>
-      <c r="AO167" t="s">
-        <v>2300</v>
-      </c>
-      <c r="AQ167" t="s">
-        <v>2301</v>
-      </c>
-      <c r="AU167" t="s">
+      <c r="AO183" t="s">
+        <v>2505</v>
+      </c>
+      <c r="AQ183" t="s">
+        <v>2506</v>
+      </c>
+      <c r="AU183" t="s">
         <v>2008</v>
       </c>
-      <c r="AW167" t="s">
+      <c r="AW183" t="s">
         <v>2008</v>
       </c>
-      <c r="BI167" t="s">
-        <v>2302</v>
-      </c>
-      <c r="BJ167" t="s">
-        <v>2303</v>
-      </c>
-      <c r="BK167" t="s">
-        <v>2304</v>
-      </c>
-      <c r="BO167" t="s">
-        <v>2305</v>
-      </c>
-      <c r="BP167" t="s">
-        <v>2306</v>
-      </c>
-      <c r="BQ167" t="s">
-        <v>2307</v>
+      <c r="BI183" t="s">
+        <v>2507</v>
+      </c>
+      <c r="BJ183" t="s">
+        <v>2508</v>
+      </c>
+      <c r="BK183" t="s">
+        <v>2509</v>
+      </c>
+      <c r="BO183" t="s">
+        <v>2510</v>
+      </c>
+      <c r="BP183" t="s">
+        <v>2511</v>
+      </c>
+      <c r="BQ183" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="184" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D184" t="s">
+        <v>91</v>
+      </c>
+      <c r="E184" t="s">
+        <v>2514</v>
+      </c>
+      <c r="F184" t="s">
+        <v>93</v>
+      </c>
+      <c r="G184" t="s">
+        <v>94</v>
+      </c>
+      <c r="H184" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I184" t="s">
+        <v>2515</v>
+      </c>
+      <c r="J184" t="s">
+        <v>2516</v>
+      </c>
+      <c r="K184" t="s">
+        <v>2057</v>
+      </c>
+      <c r="L184" t="s">
+        <v>2517</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R184" t="s">
+        <v>101</v>
+      </c>
+      <c r="T184" t="s">
+        <v>2518</v>
+      </c>
+      <c r="U184" t="s">
+        <v>2517</v>
+      </c>
+      <c r="Y184" t="s">
+        <v>703</v>
+      </c>
+      <c r="Z184" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AO184" t="s">
+        <v>2520</v>
+      </c>
+      <c r="AQ184" t="s">
+        <v>2521</v>
+      </c>
+      <c r="AU184" t="s">
+        <v>2395</v>
+      </c>
+      <c r="AW184" t="s">
+        <v>2395</v>
+      </c>
+      <c r="BI184" t="s">
+        <v>2522</v>
+      </c>
+      <c r="BJ184" t="s">
+        <v>2523</v>
+      </c>
+      <c r="BK184" t="s">
+        <v>2524</v>
+      </c>
+      <c r="BO184" t="s">
+        <v>2525</v>
+      </c>
+      <c r="BP184" t="s">
+        <v>2526</v>
+      </c>
+      <c r="BQ184" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="185" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>2528</v>
+      </c>
+      <c r="D185" t="s">
+        <v>91</v>
+      </c>
+      <c r="E185" t="s">
+        <v>2529</v>
+      </c>
+      <c r="F185" t="s">
+        <v>93</v>
+      </c>
+      <c r="G185" t="s">
+        <v>94</v>
+      </c>
+      <c r="H185" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I185" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J185" t="s">
+        <v>2531</v>
+      </c>
+      <c r="K185" t="s">
+        <v>2134</v>
+      </c>
+      <c r="L185" t="s">
+        <v>2532</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R185" t="s">
+        <v>101</v>
+      </c>
+      <c r="T185" t="s">
+        <v>2533</v>
+      </c>
+      <c r="U185" t="s">
+        <v>2532</v>
+      </c>
+      <c r="Y185" t="s">
+        <v>2534</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>752</v>
+      </c>
+      <c r="AO185" t="s">
+        <v>2535</v>
+      </c>
+      <c r="AQ185" t="s">
+        <v>2536</v>
+      </c>
+      <c r="AU185" t="s">
+        <v>2207</v>
+      </c>
+      <c r="AW185" t="s">
+        <v>2207</v>
+      </c>
+      <c r="BI185" t="s">
+        <v>2537</v>
+      </c>
+      <c r="BJ185" t="s">
+        <v>2538</v>
+      </c>
+      <c r="BK185" t="s">
+        <v>2539</v>
+      </c>
+      <c r="BO185" t="s">
+        <v>2540</v>
+      </c>
+      <c r="BP185" t="s">
+        <v>2541</v>
+      </c>
+      <c r="BQ185" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="186" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D186" t="s">
+        <v>91</v>
+      </c>
+      <c r="E186" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F186" t="s">
+        <v>93</v>
+      </c>
+      <c r="G186" t="s">
+        <v>94</v>
+      </c>
+      <c r="H186" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I186" t="s">
+        <v>2545</v>
+      </c>
+      <c r="J186" t="s">
+        <v>2546</v>
+      </c>
+      <c r="K186" t="s">
+        <v>2057</v>
+      </c>
+      <c r="L186" t="s">
+        <v>2547</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R186" t="s">
+        <v>101</v>
+      </c>
+      <c r="S186" t="s">
+        <v>2548</v>
+      </c>
+      <c r="T186" t="s">
+        <v>2549</v>
+      </c>
+      <c r="U186" t="s">
+        <v>2547</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>2060</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>2550</v>
+      </c>
+      <c r="AO186" t="s">
+        <v>2551</v>
+      </c>
+      <c r="AQ186" t="s">
+        <v>2552</v>
+      </c>
+      <c r="AU186" t="s">
+        <v>2163</v>
+      </c>
+      <c r="AW186" t="s">
+        <v>2163</v>
+      </c>
+      <c r="BI186" t="s">
+        <v>2553</v>
+      </c>
+      <c r="BJ186" t="s">
+        <v>2554</v>
+      </c>
+      <c r="BK186" t="s">
+        <v>2555</v>
+      </c>
+      <c r="BO186" t="s">
+        <v>2556</v>
+      </c>
+      <c r="BP186" t="s">
+        <v>2557</v>
+      </c>
+      <c r="BQ186" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="187" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D187" t="s">
+        <v>91</v>
+      </c>
+      <c r="E187" t="s">
+        <v>2560</v>
+      </c>
+      <c r="F187" t="s">
+        <v>93</v>
+      </c>
+      <c r="G187" t="s">
+        <v>94</v>
+      </c>
+      <c r="H187" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I187" t="s">
+        <v>2561</v>
+      </c>
+      <c r="J187" t="s">
+        <v>2562</v>
+      </c>
+      <c r="K187" t="s">
+        <v>2134</v>
+      </c>
+      <c r="L187" t="s">
+        <v>2563</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R187" t="s">
+        <v>101</v>
+      </c>
+      <c r="T187" t="s">
+        <v>2564</v>
+      </c>
+      <c r="U187" t="s">
+        <v>2563</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>2195</v>
+      </c>
+      <c r="AO187" t="s">
+        <v>2565</v>
+      </c>
+      <c r="AQ187" t="s">
+        <v>2565</v>
+      </c>
+      <c r="AU187" t="s">
+        <v>2350</v>
+      </c>
+      <c r="AW187" t="s">
+        <v>2350</v>
+      </c>
+      <c r="BI187" t="s">
+        <v>2566</v>
+      </c>
+      <c r="BJ187" t="s">
+        <v>2567</v>
+      </c>
+      <c r="BK187" t="s">
+        <v>2568</v>
+      </c>
+      <c r="BO187" t="s">
+        <v>2569</v>
+      </c>
+      <c r="BP187" t="s">
+        <v>2570</v>
+      </c>
+      <c r="BQ187" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="188" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D188" t="s">
+        <v>91</v>
+      </c>
+      <c r="E188" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F188" t="s">
+        <v>93</v>
+      </c>
+      <c r="G188" t="s">
+        <v>94</v>
+      </c>
+      <c r="H188" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I188" t="s">
+        <v>2574</v>
+      </c>
+      <c r="J188" t="s">
+        <v>2575</v>
+      </c>
+      <c r="K188" t="s">
+        <v>2057</v>
+      </c>
+      <c r="L188" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R188" t="s">
+        <v>101</v>
+      </c>
+      <c r="S188" t="s">
+        <v>2576</v>
+      </c>
+      <c r="T188" t="s">
+        <v>420</v>
+      </c>
+      <c r="U188" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>2577</v>
+      </c>
+      <c r="AO188" t="s">
+        <v>2578</v>
+      </c>
+      <c r="AQ188" t="s">
+        <v>2579</v>
+      </c>
+      <c r="AU188" t="s">
+        <v>2233</v>
+      </c>
+      <c r="AW188" t="s">
+        <v>2233</v>
+      </c>
+      <c r="BI188" t="s">
+        <v>2580</v>
+      </c>
+      <c r="BJ188" t="s">
+        <v>2581</v>
+      </c>
+      <c r="BK188" t="s">
+        <v>2582</v>
+      </c>
+      <c r="BO188" t="s">
+        <v>2583</v>
+      </c>
+      <c r="BP188" t="s">
+        <v>2584</v>
+      </c>
+      <c r="BQ188" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="189" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D189" t="s">
+        <v>91</v>
+      </c>
+      <c r="E189" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F189" t="s">
+        <v>93</v>
+      </c>
+      <c r="G189" t="s">
+        <v>94</v>
+      </c>
+      <c r="H189" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I189" t="s">
+        <v>2588</v>
+      </c>
+      <c r="J189" t="s">
+        <v>1658</v>
+      </c>
+      <c r="K189" t="s">
+        <v>2057</v>
+      </c>
+      <c r="L189" t="s">
+        <v>2589</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>2001</v>
+      </c>
+      <c r="R189" t="s">
+        <v>101</v>
+      </c>
+      <c r="S189" t="s">
+        <v>2590</v>
+      </c>
+      <c r="T189" t="s">
+        <v>2591</v>
+      </c>
+      <c r="U189" t="s">
+        <v>2589</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>2592</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>2322</v>
+      </c>
+      <c r="AO189" t="s">
+        <v>2593</v>
+      </c>
+      <c r="AQ189" t="s">
+        <v>2594</v>
+      </c>
+      <c r="AU189" t="s">
+        <v>2175</v>
+      </c>
+      <c r="AW189" t="s">
+        <v>2175</v>
+      </c>
+      <c r="BI189" t="s">
+        <v>2595</v>
+      </c>
+      <c r="BJ189" t="s">
+        <v>2596</v>
+      </c>
+      <c r="BK189" t="s">
+        <v>2597</v>
+      </c>
+      <c r="BO189" t="s">
+        <v>2598</v>
+      </c>
+      <c r="BP189" t="s">
+        <v>2599</v>
+      </c>
+      <c r="BQ189" t="s">
+        <v>2600</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelResumenFactura.xlsx
+++ b/ExcelResumenFactura.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5799" uniqueCount="2892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5868" uniqueCount="2916">
   <si>
     <t>Factura</t>
   </si>
@@ -7126,6 +7126,9 @@
     <t>0,53</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
     <t>4,520</t>
   </si>
   <si>
@@ -7318,6 +7321,15 @@
     <t>0,40</t>
   </si>
   <si>
+    <t>57,38</t>
+  </si>
+  <si>
+    <t>57,29</t>
+  </si>
+  <si>
+    <t>84,63</t>
+  </si>
+  <si>
     <t>4,352</t>
   </si>
   <si>
@@ -7513,6 +7525,12 @@
     <t>0,89</t>
   </si>
   <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
     <t>6,056</t>
   </si>
   <si>
@@ -7567,6 +7585,15 @@
     <t>1,65</t>
   </si>
   <si>
+    <t>129,62</t>
+  </si>
+  <si>
+    <t>55,97</t>
+  </si>
+  <si>
+    <t>19,37</t>
+  </si>
+  <si>
     <t>3,328</t>
   </si>
   <si>
@@ -7591,6 +7618,15 @@
     <t>0,64</t>
   </si>
   <si>
+    <t>40,21</t>
+  </si>
+  <si>
+    <t>29,33</t>
+  </si>
+  <si>
+    <t>58,79</t>
+  </si>
+  <si>
     <t>4,768</t>
   </si>
   <si>
@@ -7660,6 +7696,12 @@
     <t>1,95</t>
   </si>
   <si>
+    <t>89,07</t>
+  </si>
+  <si>
+    <t>64,70</t>
+  </si>
+  <si>
     <t>10,392</t>
   </si>
   <si>
@@ -7792,6 +7834,9 @@
     <t>1,87</t>
   </si>
   <si>
+    <t>59</t>
+  </si>
+  <si>
     <t>2,932</t>
   </si>
   <si>
@@ -7867,6 +7912,15 @@
     <t>0,77</t>
   </si>
   <si>
+    <t>133,48</t>
+  </si>
+  <si>
+    <t>138,18</t>
+  </si>
+  <si>
+    <t>113,08</t>
+  </si>
+  <si>
     <t>14,4</t>
   </si>
   <si>
@@ -7918,6 +7972,12 @@
     <t>2,41</t>
   </si>
   <si>
+    <t>70,20</t>
+  </si>
+  <si>
+    <t>416,46</t>
+  </si>
+  <si>
     <t>6,928</t>
   </si>
   <si>
@@ -8326,6 +8386,15 @@
     <t>4,88</t>
   </si>
   <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>5,452</t>
   </si>
   <si>
@@ -8495,6 +8564,9 @@
   </si>
   <si>
     <t>2,31</t>
+  </si>
+  <si>
+    <t>125</t>
   </si>
   <si>
     <t>10,588</t>
@@ -24058,6 +24130,15 @@
       <c r="Z175" t="s">
         <v>2355</v>
       </c>
+      <c r="AC175" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD175" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE175" t="s">
+        <v>1802</v>
+      </c>
       <c r="AO175" t="s">
         <v>2356</v>
       </c>
@@ -24138,11 +24219,20 @@
       <c r="Z176" t="s">
         <v>2370</v>
       </c>
+      <c r="AC176" t="s">
+        <v>1944</v>
+      </c>
+      <c r="AD176" t="s">
+        <v>2371</v>
+      </c>
+      <c r="AE176" t="s">
+        <v>2371</v>
+      </c>
       <c r="AO176" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="AQ176" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="AU176" t="s">
         <v>2317</v>
@@ -24151,33 +24241,33 @@
         <v>2317</v>
       </c>
       <c r="BI176" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="BJ176" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="BK176" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="BO176" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="BP176" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="BQ176" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="177" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="D177" t="s">
         <v>91</v>
       </c>
       <c r="E177" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="F177" t="s">
         <v>93</v>
@@ -24189,16 +24279,16 @@
         <v>2293</v>
       </c>
       <c r="I177" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="J177" t="s">
         <v>2340</v>
       </c>
       <c r="K177" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="L177" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="Q177" t="s">
         <v>1955</v>
@@ -24207,13 +24297,13 @@
         <v>101</v>
       </c>
       <c r="S177" t="s">
+        <v>2385</v>
+      </c>
+      <c r="T177" t="s">
+        <v>2386</v>
+      </c>
+      <c r="U177" t="s">
         <v>2384</v>
-      </c>
-      <c r="T177" t="s">
-        <v>2385</v>
-      </c>
-      <c r="U177" t="s">
-        <v>2383</v>
       </c>
       <c r="Y177" t="s">
         <v>829</v>
@@ -24228,30 +24318,30 @@
         <v>2237</v>
       </c>
       <c r="AE177" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="AO177" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="AQ177" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="AU177" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="AW177" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="178" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="D178" t="s">
         <v>91</v>
       </c>
       <c r="E178" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="F178" t="s">
         <v>93</v>
@@ -24263,16 +24353,16 @@
         <v>2293</v>
       </c>
       <c r="I178" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="J178" t="s">
         <v>2340</v>
       </c>
       <c r="K178" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="L178" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="Q178" t="s">
         <v>1955</v>
@@ -24281,69 +24371,69 @@
         <v>101</v>
       </c>
       <c r="S178" t="s">
+        <v>2396</v>
+      </c>
+      <c r="T178" t="s">
+        <v>2397</v>
+      </c>
+      <c r="U178" t="s">
         <v>2395</v>
-      </c>
-      <c r="T178" t="s">
-        <v>2396</v>
-      </c>
-      <c r="U178" t="s">
-        <v>2394</v>
       </c>
       <c r="Y178" t="s">
         <v>2355</v>
       </c>
       <c r="Z178" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="AC178" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="AD178" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="AE178" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="AO178" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="AQ178" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="AU178" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="AW178" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="BI178" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="BJ178" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="BK178" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="BO178" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="BP178" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="BQ178" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="179" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="D179" t="s">
         <v>91</v>
       </c>
       <c r="E179" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="F179" t="s">
         <v>93</v>
@@ -24355,16 +24445,16 @@
         <v>2307</v>
       </c>
       <c r="I179" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="J179" t="s">
         <v>2340</v>
       </c>
       <c r="K179" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="L179" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="Q179" t="s">
         <v>1955</v>
@@ -24373,19 +24463,19 @@
         <v>101</v>
       </c>
       <c r="S179" t="s">
+        <v>2415</v>
+      </c>
+      <c r="T179" t="s">
+        <v>2416</v>
+      </c>
+      <c r="U179" t="s">
         <v>2414</v>
       </c>
-      <c r="T179" t="s">
-        <v>2415</v>
-      </c>
-      <c r="U179" t="s">
-        <v>2413</v>
-      </c>
       <c r="Y179" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="Z179" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="AC179" t="s">
         <v>860</v>
@@ -24397,45 +24487,45 @@
         <v>1082</v>
       </c>
       <c r="AO179" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="AQ179" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="AU179" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="AW179" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="BI179" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="BJ179" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="BK179" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="BO179" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="BP179" t="s">
         <v>1972</v>
       </c>
       <c r="BQ179" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="180" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="D180" t="s">
         <v>91</v>
       </c>
       <c r="E180" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="F180" t="s">
         <v>93</v>
@@ -24447,16 +24537,16 @@
         <v>2349</v>
       </c>
       <c r="I180" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="J180" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K180" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="L180" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="Q180" t="s">
         <v>1955</v>
@@ -24465,25 +24555,34 @@
         <v>101</v>
       </c>
       <c r="S180" t="s">
+        <v>2432</v>
+      </c>
+      <c r="T180" t="s">
+        <v>2433</v>
+      </c>
+      <c r="U180" t="s">
         <v>2431</v>
       </c>
-      <c r="T180" t="s">
-        <v>2432</v>
-      </c>
-      <c r="U180" t="s">
-        <v>2430</v>
-      </c>
       <c r="Y180" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="Z180" t="s">
-        <v>2434</v>
+        <v>2435</v>
+      </c>
+      <c r="AC180" t="s">
+        <v>2436</v>
+      </c>
+      <c r="AD180" t="s">
+        <v>2437</v>
+      </c>
+      <c r="AE180" t="s">
+        <v>2438</v>
       </c>
       <c r="AO180" t="s">
-        <v>2435</v>
+        <v>2439</v>
       </c>
       <c r="AQ180" t="s">
-        <v>2436</v>
+        <v>2440</v>
       </c>
       <c r="AU180" t="s">
         <v>2317</v>
@@ -24494,13 +24593,13 @@
     </row>
     <row r="181" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>2437</v>
+        <v>2441</v>
       </c>
       <c r="D181" t="s">
         <v>91</v>
       </c>
       <c r="E181" t="s">
-        <v>2438</v>
+        <v>2442</v>
       </c>
       <c r="F181" t="s">
         <v>93</v>
@@ -24512,16 +24611,16 @@
         <v>2307</v>
       </c>
       <c r="I181" t="s">
-        <v>2439</v>
+        <v>2443</v>
       </c>
       <c r="J181" t="s">
-        <v>2440</v>
+        <v>2444</v>
       </c>
       <c r="K181" t="s">
-        <v>2441</v>
+        <v>2445</v>
       </c>
       <c r="L181" t="s">
-        <v>2442</v>
+        <v>2446</v>
       </c>
       <c r="Q181" t="s">
         <v>1955</v>
@@ -24530,19 +24629,19 @@
         <v>101</v>
       </c>
       <c r="S181" t="s">
-        <v>2443</v>
+        <v>2447</v>
       </c>
       <c r="T181" t="s">
         <v>1067</v>
       </c>
       <c r="U181" t="s">
-        <v>2442</v>
+        <v>2446</v>
       </c>
       <c r="Y181" t="s">
-        <v>2444</v>
+        <v>2448</v>
       </c>
       <c r="Z181" t="s">
-        <v>2445</v>
+        <v>2449</v>
       </c>
       <c r="AC181" t="s">
         <v>565</v>
@@ -24554,27 +24653,27 @@
         <v>566</v>
       </c>
       <c r="AO181" t="s">
-        <v>2446</v>
+        <v>2450</v>
       </c>
       <c r="AQ181" t="s">
-        <v>2447</v>
+        <v>2451</v>
       </c>
       <c r="AU181" t="s">
-        <v>2448</v>
+        <v>2452</v>
       </c>
       <c r="AW181" t="s">
-        <v>2448</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="182" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="D182" t="s">
         <v>91</v>
       </c>
       <c r="E182" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="F182" t="s">
         <v>93</v>
@@ -24586,16 +24685,16 @@
         <v>2307</v>
       </c>
       <c r="I182" t="s">
-        <v>2451</v>
+        <v>2455</v>
       </c>
       <c r="J182" t="s">
         <v>2340</v>
       </c>
       <c r="K182" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="L182" t="s">
-        <v>2452</v>
+        <v>2456</v>
       </c>
       <c r="Q182" t="s">
         <v>1955</v>
@@ -24604,16 +24703,16 @@
         <v>101</v>
       </c>
       <c r="S182" t="s">
-        <v>2453</v>
+        <v>2457</v>
       </c>
       <c r="T182" t="s">
-        <v>2454</v>
+        <v>2458</v>
       </c>
       <c r="U182" t="s">
-        <v>2452</v>
+        <v>2456</v>
       </c>
       <c r="Y182" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="Z182" t="s">
         <v>1066</v>
@@ -24628,27 +24727,27 @@
         <v>107</v>
       </c>
       <c r="AO182" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="AQ182" t="s">
-        <v>2457</v>
+        <v>2461</v>
       </c>
       <c r="AU182" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="AW182" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="183" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>2459</v>
+        <v>2463</v>
       </c>
       <c r="D183" t="s">
         <v>91</v>
       </c>
       <c r="E183" t="s">
-        <v>2460</v>
+        <v>2464</v>
       </c>
       <c r="F183" t="s">
         <v>93</v>
@@ -24660,16 +24759,16 @@
         <v>2293</v>
       </c>
       <c r="I183" t="s">
-        <v>2461</v>
+        <v>2465</v>
       </c>
       <c r="J183" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="K183" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="L183" t="s">
-        <v>2463</v>
+        <v>2467</v>
       </c>
       <c r="Q183" t="s">
         <v>1955</v>
@@ -24678,16 +24777,16 @@
         <v>101</v>
       </c>
       <c r="S183" t="s">
-        <v>2464</v>
+        <v>2468</v>
       </c>
       <c r="T183" t="s">
-        <v>2465</v>
+        <v>2469</v>
       </c>
       <c r="U183" t="s">
-        <v>2463</v>
+        <v>2467</v>
       </c>
       <c r="Z183" t="s">
-        <v>2466</v>
+        <v>2470</v>
       </c>
       <c r="AC183" t="s">
         <v>1459</v>
@@ -24696,48 +24795,48 @@
         <v>1061</v>
       </c>
       <c r="AE183" t="s">
-        <v>2467</v>
+        <v>2471</v>
       </c>
       <c r="AO183" t="s">
-        <v>2468</v>
+        <v>2472</v>
       </c>
       <c r="AQ183" t="s">
-        <v>2469</v>
+        <v>2473</v>
       </c>
       <c r="AU183" t="s">
-        <v>2470</v>
+        <v>2474</v>
       </c>
       <c r="AW183" t="s">
-        <v>2470</v>
+        <v>2474</v>
       </c>
       <c r="BI183" t="s">
-        <v>2471</v>
+        <v>2475</v>
       </c>
       <c r="BJ183" t="s">
-        <v>2472</v>
+        <v>2476</v>
       </c>
       <c r="BK183" t="s">
-        <v>2473</v>
+        <v>2477</v>
       </c>
       <c r="BO183" t="s">
-        <v>2474</v>
+        <v>2478</v>
       </c>
       <c r="BP183" t="s">
-        <v>2475</v>
+        <v>2479</v>
       </c>
       <c r="BQ183" t="s">
-        <v>2476</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="184" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>2477</v>
+        <v>2481</v>
       </c>
       <c r="D184" t="s">
         <v>91</v>
       </c>
       <c r="E184" t="s">
-        <v>2478</v>
+        <v>2482</v>
       </c>
       <c r="F184" t="s">
         <v>93</v>
@@ -24749,7 +24848,7 @@
         <v>2307</v>
       </c>
       <c r="I184" t="s">
-        <v>2479</v>
+        <v>2483</v>
       </c>
       <c r="J184" t="s">
         <v>2340</v>
@@ -24767,7 +24866,7 @@
         <v>101</v>
       </c>
       <c r="S184" t="s">
-        <v>2480</v>
+        <v>2484</v>
       </c>
       <c r="T184" t="s">
         <v>105</v>
@@ -24776,7 +24875,7 @@
         <v>927</v>
       </c>
       <c r="Y184" t="s">
-        <v>2481</v>
+        <v>2485</v>
       </c>
       <c r="Z184" t="s">
         <v>123</v>
@@ -24791,10 +24890,10 @@
         <v>616</v>
       </c>
       <c r="AO184" t="s">
-        <v>2482</v>
+        <v>2486</v>
       </c>
       <c r="AQ184" t="s">
-        <v>2483</v>
+        <v>2487</v>
       </c>
       <c r="AU184" t="s">
         <v>2317</v>
@@ -24805,13 +24904,13 @@
     </row>
     <row r="185" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2484</v>
+        <v>2488</v>
       </c>
       <c r="D185" t="s">
         <v>91</v>
       </c>
       <c r="E185" t="s">
-        <v>2485</v>
+        <v>2489</v>
       </c>
       <c r="F185" t="s">
         <v>93</v>
@@ -24823,16 +24922,16 @@
         <v>2293</v>
       </c>
       <c r="I185" t="s">
-        <v>2486</v>
+        <v>2490</v>
       </c>
       <c r="J185" t="s">
         <v>2295</v>
       </c>
       <c r="K185" t="s">
-        <v>2487</v>
+        <v>2491</v>
       </c>
       <c r="L185" t="s">
-        <v>2488</v>
+        <v>2492</v>
       </c>
       <c r="Q185" t="s">
         <v>1955</v>
@@ -24841,16 +24940,16 @@
         <v>101</v>
       </c>
       <c r="S185" t="s">
-        <v>2489</v>
+        <v>2493</v>
       </c>
       <c r="T185" t="s">
         <v>1598</v>
       </c>
       <c r="U185" t="s">
-        <v>2488</v>
+        <v>2492</v>
       </c>
       <c r="Y185" t="s">
-        <v>2490</v>
+        <v>2494</v>
       </c>
       <c r="Z185" t="s">
         <v>1066</v>
@@ -24862,13 +24961,13 @@
         <v>2237</v>
       </c>
       <c r="AE185" t="s">
-        <v>2467</v>
+        <v>2471</v>
       </c>
       <c r="AO185" t="s">
-        <v>2491</v>
+        <v>2495</v>
       </c>
       <c r="AQ185" t="s">
-        <v>2492</v>
+        <v>2496</v>
       </c>
       <c r="AU185" t="s">
         <v>2304</v>
@@ -24879,13 +24978,13 @@
     </row>
     <row r="186" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>2493</v>
+        <v>2497</v>
       </c>
       <c r="D186" t="s">
         <v>91</v>
       </c>
       <c r="E186" t="s">
-        <v>2494</v>
+        <v>2498</v>
       </c>
       <c r="F186" t="s">
         <v>93</v>
@@ -24897,7 +24996,7 @@
         <v>2349</v>
       </c>
       <c r="I186" t="s">
-        <v>2495</v>
+        <v>2499</v>
       </c>
       <c r="J186" t="s">
         <v>2367</v>
@@ -24906,7 +25005,7 @@
         <v>2352</v>
       </c>
       <c r="L186" t="s">
-        <v>2496</v>
+        <v>2500</v>
       </c>
       <c r="Q186" t="s">
         <v>1955</v>
@@ -24915,57 +25014,66 @@
         <v>101</v>
       </c>
       <c r="T186" t="s">
-        <v>2497</v>
+        <v>2501</v>
       </c>
       <c r="U186" t="s">
-        <v>2496</v>
+        <v>2500</v>
       </c>
       <c r="Y186" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="Z186" t="s">
-        <v>2499</v>
+        <v>2503</v>
+      </c>
+      <c r="AC186" t="s">
+        <v>2504</v>
+      </c>
+      <c r="AD186" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AE186" t="s">
+        <v>2505</v>
       </c>
       <c r="AO186" t="s">
-        <v>2500</v>
+        <v>2506</v>
       </c>
       <c r="AQ186" t="s">
-        <v>2501</v>
+        <v>2507</v>
       </c>
       <c r="AU186" t="s">
-        <v>2502</v>
+        <v>2508</v>
       </c>
       <c r="AW186" t="s">
-        <v>2502</v>
+        <v>2508</v>
       </c>
       <c r="BI186" t="s">
-        <v>2503</v>
+        <v>2509</v>
       </c>
       <c r="BJ186" t="s">
-        <v>2504</v>
+        <v>2510</v>
       </c>
       <c r="BK186" t="s">
-        <v>2505</v>
+        <v>2511</v>
       </c>
       <c r="BO186" t="s">
-        <v>2506</v>
+        <v>2512</v>
       </c>
       <c r="BP186" t="s">
-        <v>2507</v>
+        <v>2513</v>
       </c>
       <c r="BQ186" t="s">
-        <v>2508</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="187" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>2509</v>
+        <v>2515</v>
       </c>
       <c r="D187" t="s">
         <v>91</v>
       </c>
       <c r="E187" t="s">
-        <v>2510</v>
+        <v>2516</v>
       </c>
       <c r="F187" t="s">
         <v>93</v>
@@ -24977,16 +25085,16 @@
         <v>2349</v>
       </c>
       <c r="I187" t="s">
-        <v>2511</v>
+        <v>2517</v>
       </c>
       <c r="J187" t="s">
-        <v>2512</v>
+        <v>2518</v>
       </c>
       <c r="K187" t="s">
-        <v>2513</v>
+        <v>2519</v>
       </c>
       <c r="L187" t="s">
-        <v>2514</v>
+        <v>2520</v>
       </c>
       <c r="Q187" t="s">
         <v>1955</v>
@@ -24995,42 +25103,51 @@
         <v>101</v>
       </c>
       <c r="S187" t="s">
-        <v>2515</v>
+        <v>2521</v>
       </c>
       <c r="T187" t="s">
-        <v>2516</v>
+        <v>2522</v>
       </c>
       <c r="U187" t="s">
-        <v>2514</v>
+        <v>2520</v>
       </c>
       <c r="Y187" t="s">
-        <v>2517</v>
+        <v>2523</v>
       </c>
       <c r="Z187" t="s">
         <v>2160</v>
       </c>
+      <c r="AC187" t="s">
+        <v>2524</v>
+      </c>
+      <c r="AD187" t="s">
+        <v>2525</v>
+      </c>
+      <c r="AE187" t="s">
+        <v>2526</v>
+      </c>
       <c r="AO187" t="s">
-        <v>2518</v>
+        <v>2527</v>
       </c>
       <c r="AQ187" t="s">
-        <v>2519</v>
+        <v>2528</v>
       </c>
       <c r="AU187" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="AW187" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="188" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>2520</v>
+        <v>2529</v>
       </c>
       <c r="D188" t="s">
         <v>91</v>
       </c>
       <c r="E188" t="s">
-        <v>2521</v>
+        <v>2530</v>
       </c>
       <c r="F188" t="s">
         <v>93</v>
@@ -25042,16 +25159,16 @@
         <v>2349</v>
       </c>
       <c r="I188" t="s">
-        <v>2522</v>
+        <v>2531</v>
       </c>
       <c r="J188" t="s">
         <v>2119</v>
       </c>
       <c r="K188" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="L188" t="s">
-        <v>2523</v>
+        <v>2532</v>
       </c>
       <c r="Q188" t="s">
         <v>1955</v>
@@ -25060,39 +25177,48 @@
         <v>101</v>
       </c>
       <c r="T188" t="s">
-        <v>2524</v>
+        <v>2533</v>
       </c>
       <c r="U188" t="s">
-        <v>2523</v>
+        <v>2532</v>
       </c>
       <c r="Y188" t="s">
         <v>1122</v>
       </c>
       <c r="Z188" t="s">
-        <v>2525</v>
+        <v>2534</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>2535</v>
+      </c>
+      <c r="AD188" t="s">
+        <v>2536</v>
+      </c>
+      <c r="AE188" t="s">
+        <v>2537</v>
       </c>
       <c r="AO188" t="s">
-        <v>2526</v>
+        <v>2538</v>
       </c>
       <c r="AQ188" t="s">
-        <v>2527</v>
+        <v>2539</v>
       </c>
       <c r="AU188" t="s">
-        <v>2528</v>
+        <v>2540</v>
       </c>
       <c r="AW188" t="s">
-        <v>2528</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="189" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>2529</v>
+        <v>2541</v>
       </c>
       <c r="D189" t="s">
         <v>91</v>
       </c>
       <c r="E189" t="s">
-        <v>2530</v>
+        <v>2542</v>
       </c>
       <c r="F189" t="s">
         <v>93</v>
@@ -25104,16 +25230,16 @@
         <v>2293</v>
       </c>
       <c r="I189" t="s">
-        <v>2531</v>
+        <v>2543</v>
       </c>
       <c r="J189" t="s">
-        <v>2532</v>
+        <v>2544</v>
       </c>
       <c r="K189" t="s">
-        <v>2533</v>
+        <v>2545</v>
       </c>
       <c r="L189" t="s">
-        <v>2534</v>
+        <v>2546</v>
       </c>
       <c r="Q189" t="s">
         <v>1955</v>
@@ -25122,13 +25248,13 @@
         <v>101</v>
       </c>
       <c r="S189" t="s">
-        <v>2535</v>
+        <v>2547</v>
       </c>
       <c r="T189" t="s">
         <v>1266</v>
       </c>
       <c r="U189" t="s">
-        <v>2534</v>
+        <v>2546</v>
       </c>
       <c r="AC189" t="s">
         <v>739</v>
@@ -25152,19 +25278,19 @@
         <v>2317</v>
       </c>
       <c r="BI189" t="s">
-        <v>2536</v>
+        <v>2548</v>
       </c>
       <c r="BJ189" t="s">
-        <v>2537</v>
+        <v>2549</v>
       </c>
       <c r="BK189" t="s">
-        <v>2538</v>
+        <v>2550</v>
       </c>
       <c r="BO189" t="s">
-        <v>2539</v>
+        <v>2551</v>
       </c>
       <c r="BP189" t="s">
-        <v>2540</v>
+        <v>2552</v>
       </c>
       <c r="BQ189" t="s">
         <v>1625</v>
@@ -25172,13 +25298,13 @@
     </row>
     <row r="190" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>2541</v>
+        <v>2553</v>
       </c>
       <c r="D190" t="s">
         <v>91</v>
       </c>
       <c r="E190" t="s">
-        <v>2542</v>
+        <v>2554</v>
       </c>
       <c r="F190" t="s">
         <v>93</v>
@@ -25190,16 +25316,16 @@
         <v>2349</v>
       </c>
       <c r="I190" t="s">
-        <v>2543</v>
+        <v>2555</v>
       </c>
       <c r="J190" t="s">
-        <v>2512</v>
+        <v>2518</v>
       </c>
       <c r="K190" t="s">
-        <v>2544</v>
+        <v>2556</v>
       </c>
       <c r="L190" t="s">
-        <v>2545</v>
+        <v>2557</v>
       </c>
       <c r="Q190" t="s">
         <v>1955</v>
@@ -25208,54 +25334,63 @@
         <v>101</v>
       </c>
       <c r="S190" t="s">
-        <v>2546</v>
+        <v>2558</v>
       </c>
       <c r="T190" t="s">
-        <v>2547</v>
+        <v>2559</v>
       </c>
       <c r="U190" t="s">
-        <v>2545</v>
+        <v>2557</v>
       </c>
       <c r="Y190" t="s">
-        <v>2548</v>
+        <v>2560</v>
       </c>
       <c r="Z190" t="s">
         <v>2235</v>
       </c>
+      <c r="AC190" t="s">
+        <v>2561</v>
+      </c>
+      <c r="AD190" t="s">
+        <v>1963</v>
+      </c>
+      <c r="AE190" t="s">
+        <v>2562</v>
+      </c>
       <c r="AU190" t="s">
-        <v>2549</v>
+        <v>2563</v>
       </c>
       <c r="AW190" t="s">
-        <v>2550</v>
+        <v>2564</v>
       </c>
       <c r="BI190" t="s">
-        <v>2551</v>
+        <v>2565</v>
       </c>
       <c r="BJ190" t="s">
-        <v>2552</v>
+        <v>2566</v>
       </c>
       <c r="BK190" t="s">
-        <v>2553</v>
+        <v>2567</v>
       </c>
       <c r="BO190" t="s">
-        <v>2554</v>
+        <v>2568</v>
       </c>
       <c r="BP190" t="s">
-        <v>2555</v>
+        <v>2569</v>
       </c>
       <c r="BQ190" t="s">
-        <v>2556</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="191" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>2557</v>
+        <v>2571</v>
       </c>
       <c r="D191" t="s">
         <v>91</v>
       </c>
       <c r="E191" t="s">
-        <v>2530</v>
+        <v>2542</v>
       </c>
       <c r="F191" t="s">
         <v>93</v>
@@ -25267,16 +25402,16 @@
         <v>2293</v>
       </c>
       <c r="I191" t="s">
-        <v>2558</v>
+        <v>2572</v>
       </c>
       <c r="J191" t="s">
         <v>2340</v>
       </c>
       <c r="K191" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="L191" t="s">
-        <v>2559</v>
+        <v>2573</v>
       </c>
       <c r="Q191" t="s">
         <v>1955</v>
@@ -25285,10 +25420,10 @@
         <v>101</v>
       </c>
       <c r="T191" t="s">
-        <v>2560</v>
+        <v>2574</v>
       </c>
       <c r="U191" t="s">
-        <v>2559</v>
+        <v>2573</v>
       </c>
       <c r="Z191" t="s">
         <v>1066</v>
@@ -25303,10 +25438,10 @@
         <v>1336</v>
       </c>
       <c r="AO191" t="s">
-        <v>2561</v>
+        <v>2575</v>
       </c>
       <c r="AQ191" t="s">
-        <v>2562</v>
+        <v>2576</v>
       </c>
       <c r="AU191" t="s">
         <v>2317</v>
@@ -25315,33 +25450,33 @@
         <v>2317</v>
       </c>
       <c r="BI191" t="s">
-        <v>2563</v>
+        <v>2577</v>
       </c>
       <c r="BJ191" t="s">
-        <v>2564</v>
+        <v>2578</v>
       </c>
       <c r="BK191" t="s">
-        <v>2565</v>
+        <v>2579</v>
       </c>
       <c r="BO191" t="s">
-        <v>2566</v>
+        <v>2580</v>
       </c>
       <c r="BP191" t="s">
-        <v>2567</v>
+        <v>2581</v>
       </c>
       <c r="BQ191" t="s">
-        <v>2568</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="192" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>2569</v>
+        <v>2583</v>
       </c>
       <c r="D192" t="s">
         <v>91</v>
       </c>
       <c r="E192" t="s">
-        <v>2570</v>
+        <v>2584</v>
       </c>
       <c r="F192" t="s">
         <v>93</v>
@@ -25353,16 +25488,16 @@
         <v>2307</v>
       </c>
       <c r="I192" t="s">
-        <v>2571</v>
+        <v>2585</v>
       </c>
       <c r="J192" t="s">
-        <v>2572</v>
+        <v>2586</v>
       </c>
       <c r="K192" t="s">
         <v>2341</v>
       </c>
       <c r="L192" t="s">
-        <v>2573</v>
+        <v>2587</v>
       </c>
       <c r="Q192" t="s">
         <v>1955</v>
@@ -25371,66 +25506,66 @@
         <v>101</v>
       </c>
       <c r="S192" t="s">
-        <v>2574</v>
+        <v>2588</v>
       </c>
       <c r="T192" t="s">
-        <v>2575</v>
+        <v>2589</v>
       </c>
       <c r="U192" t="s">
-        <v>2573</v>
+        <v>2587</v>
       </c>
       <c r="Z192" t="s">
-        <v>2576</v>
+        <v>2590</v>
       </c>
       <c r="AC192" t="s">
         <v>639</v>
       </c>
       <c r="AD192" t="s">
-        <v>2577</v>
+        <v>2591</v>
       </c>
       <c r="AE192" t="s">
-        <v>2578</v>
+        <v>2592</v>
       </c>
       <c r="AO192" t="s">
-        <v>2579</v>
+        <v>2593</v>
       </c>
       <c r="AQ192" t="s">
-        <v>2580</v>
+        <v>2594</v>
       </c>
       <c r="AU192" t="s">
-        <v>2549</v>
+        <v>2563</v>
       </c>
       <c r="AW192" t="s">
-        <v>2549</v>
+        <v>2563</v>
       </c>
       <c r="BI192" t="s">
-        <v>2581</v>
+        <v>2595</v>
       </c>
       <c r="BJ192" t="s">
-        <v>2582</v>
+        <v>2596</v>
       </c>
       <c r="BK192" t="s">
-        <v>2583</v>
+        <v>2597</v>
       </c>
       <c r="BO192" t="s">
-        <v>2584</v>
+        <v>2598</v>
       </c>
       <c r="BP192" t="s">
-        <v>2585</v>
+        <v>2599</v>
       </c>
       <c r="BQ192" t="s">
-        <v>2586</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="193" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>2587</v>
+        <v>2601</v>
       </c>
       <c r="D193" t="s">
         <v>91</v>
       </c>
       <c r="E193" t="s">
-        <v>2588</v>
+        <v>2602</v>
       </c>
       <c r="F193" t="s">
         <v>93</v>
@@ -25442,13 +25577,13 @@
         <v>2349</v>
       </c>
       <c r="I193" t="s">
-        <v>2589</v>
+        <v>2603</v>
       </c>
       <c r="J193" t="s">
-        <v>2590</v>
+        <v>2604</v>
       </c>
       <c r="K193" t="s">
-        <v>2513</v>
+        <v>2519</v>
       </c>
       <c r="L193" t="s">
         <v>855</v>
@@ -25460,7 +25595,7 @@
         <v>101</v>
       </c>
       <c r="S193" t="s">
-        <v>2591</v>
+        <v>2605</v>
       </c>
       <c r="T193" t="s">
         <v>1107</v>
@@ -25469,51 +25604,60 @@
         <v>855</v>
       </c>
       <c r="Y193" t="s">
-        <v>2592</v>
+        <v>2606</v>
       </c>
       <c r="Z193" t="s">
         <v>703</v>
       </c>
+      <c r="AC193" t="s">
+        <v>2607</v>
+      </c>
+      <c r="AD193" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE193" t="s">
+        <v>978</v>
+      </c>
       <c r="AO193" t="s">
-        <v>2593</v>
+        <v>2608</v>
       </c>
       <c r="AQ193" t="s">
-        <v>2594</v>
+        <v>2609</v>
       </c>
       <c r="AU193" t="s">
-        <v>2595</v>
+        <v>2610</v>
       </c>
       <c r="AW193" t="s">
-        <v>2595</v>
+        <v>2610</v>
       </c>
       <c r="BI193" t="s">
-        <v>2596</v>
+        <v>2611</v>
       </c>
       <c r="BJ193" t="s">
-        <v>2597</v>
+        <v>2612</v>
       </c>
       <c r="BK193" t="s">
-        <v>2598</v>
+        <v>2613</v>
       </c>
       <c r="BO193" t="s">
-        <v>2599</v>
+        <v>2614</v>
       </c>
       <c r="BP193" t="s">
-        <v>2600</v>
+        <v>2615</v>
       </c>
       <c r="BQ193" t="s">
-        <v>2601</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="194" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>2602</v>
+        <v>2617</v>
       </c>
       <c r="D194" t="s">
         <v>91</v>
       </c>
       <c r="E194" t="s">
-        <v>2603</v>
+        <v>2618</v>
       </c>
       <c r="F194" t="s">
         <v>93</v>
@@ -25522,10 +25666,10 @@
         <v>94</v>
       </c>
       <c r="H194" t="s">
-        <v>2604</v>
+        <v>2619</v>
       </c>
       <c r="I194" t="s">
-        <v>2605</v>
+        <v>2620</v>
       </c>
       <c r="J194" t="s">
         <v>2295</v>
@@ -25534,7 +25678,7 @@
         <v>2341</v>
       </c>
       <c r="L194" t="s">
-        <v>2606</v>
+        <v>2621</v>
       </c>
       <c r="Q194" t="s">
         <v>1955</v>
@@ -25543,16 +25687,16 @@
         <v>101</v>
       </c>
       <c r="S194" t="s">
-        <v>2607</v>
+        <v>2622</v>
       </c>
       <c r="T194" t="s">
         <v>721</v>
       </c>
       <c r="U194" t="s">
-        <v>2606</v>
+        <v>2621</v>
       </c>
       <c r="Z194" t="s">
-        <v>2608</v>
+        <v>2623</v>
       </c>
       <c r="AC194" t="s">
         <v>162</v>
@@ -25564,16 +25708,16 @@
         <v>162</v>
       </c>
       <c r="AO194" t="s">
-        <v>2609</v>
+        <v>2624</v>
       </c>
       <c r="AQ194" t="s">
-        <v>2519</v>
+        <v>2528</v>
       </c>
       <c r="AU194" t="s">
-        <v>2502</v>
+        <v>2508</v>
       </c>
       <c r="AW194" t="s">
-        <v>2502</v>
+        <v>2508</v>
       </c>
       <c r="BI194" t="s">
         <v>208</v>
@@ -25596,13 +25740,13 @@
     </row>
     <row r="195" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>2610</v>
+        <v>2625</v>
       </c>
       <c r="D195" t="s">
         <v>91</v>
       </c>
       <c r="E195" t="s">
-        <v>2611</v>
+        <v>2626</v>
       </c>
       <c r="F195" t="s">
         <v>93</v>
@@ -25614,16 +25758,16 @@
         <v>2349</v>
       </c>
       <c r="I195" t="s">
-        <v>2612</v>
+        <v>2627</v>
       </c>
       <c r="J195" t="s">
-        <v>2512</v>
+        <v>2518</v>
       </c>
       <c r="K195" t="s">
-        <v>2513</v>
+        <v>2519</v>
       </c>
       <c r="L195" t="s">
-        <v>2613</v>
+        <v>2628</v>
       </c>
       <c r="Q195" t="s">
         <v>1955</v>
@@ -25632,54 +25776,63 @@
         <v>101</v>
       </c>
       <c r="S195" t="s">
-        <v>2614</v>
+        <v>2629</v>
       </c>
       <c r="T195" t="s">
-        <v>2615</v>
+        <v>2630</v>
       </c>
       <c r="U195" t="s">
-        <v>2613</v>
+        <v>2628</v>
       </c>
       <c r="Y195" t="s">
-        <v>2616</v>
+        <v>2631</v>
       </c>
       <c r="Z195" t="s">
-        <v>2617</v>
+        <v>2632</v>
+      </c>
+      <c r="AC195" t="s">
+        <v>2633</v>
+      </c>
+      <c r="AD195" t="s">
+        <v>2634</v>
+      </c>
+      <c r="AE195" t="s">
+        <v>2635</v>
       </c>
       <c r="AU195" t="s">
-        <v>2618</v>
+        <v>2636</v>
       </c>
       <c r="AW195" t="s">
-        <v>2619</v>
+        <v>2637</v>
       </c>
       <c r="BI195" t="s">
-        <v>2620</v>
+        <v>2638</v>
       </c>
       <c r="BJ195" t="s">
-        <v>2621</v>
+        <v>2639</v>
       </c>
       <c r="BK195" t="s">
-        <v>2622</v>
+        <v>2640</v>
       </c>
       <c r="BO195" t="s">
-        <v>2623</v>
+        <v>2641</v>
       </c>
       <c r="BP195" t="s">
-        <v>2624</v>
+        <v>2642</v>
       </c>
       <c r="BQ195" t="s">
-        <v>2625</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="196" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>2626</v>
+        <v>2644</v>
       </c>
       <c r="D196" t="s">
         <v>91</v>
       </c>
       <c r="E196" t="s">
-        <v>2627</v>
+        <v>2645</v>
       </c>
       <c r="F196" t="s">
         <v>93</v>
@@ -25691,16 +25844,16 @@
         <v>2349</v>
       </c>
       <c r="I196" t="s">
-        <v>2628</v>
+        <v>2646</v>
       </c>
       <c r="J196" t="s">
         <v>2009</v>
       </c>
       <c r="K196" t="s">
-        <v>2629</v>
+        <v>2647</v>
       </c>
       <c r="L196" t="s">
-        <v>2630</v>
+        <v>2648</v>
       </c>
       <c r="Q196" t="s">
         <v>1955</v>
@@ -25709,19 +25862,28 @@
         <v>101</v>
       </c>
       <c r="S196" t="s">
-        <v>2631</v>
+        <v>2649</v>
       </c>
       <c r="T196" t="s">
-        <v>2632</v>
+        <v>2650</v>
       </c>
       <c r="U196" t="s">
-        <v>2630</v>
+        <v>2648</v>
       </c>
       <c r="Y196" t="s">
-        <v>2633</v>
+        <v>2651</v>
       </c>
       <c r="Z196" t="s">
-        <v>2634</v>
+        <v>2652</v>
+      </c>
+      <c r="AC196" t="s">
+        <v>2653</v>
+      </c>
+      <c r="AD196" t="s">
+        <v>2653</v>
+      </c>
+      <c r="AE196" t="s">
+        <v>2654</v>
       </c>
       <c r="AO196" t="s">
         <v>162</v>
@@ -25730,39 +25892,39 @@
         <v>162</v>
       </c>
       <c r="AU196" t="s">
-        <v>2635</v>
+        <v>2655</v>
       </c>
       <c r="AW196" t="s">
-        <v>2635</v>
+        <v>2655</v>
       </c>
       <c r="BI196" t="s">
-        <v>2636</v>
+        <v>2656</v>
       </c>
       <c r="BJ196" t="s">
-        <v>2636</v>
+        <v>2656</v>
       </c>
       <c r="BK196" t="s">
-        <v>2637</v>
+        <v>2657</v>
       </c>
       <c r="BO196" t="s">
-        <v>2638</v>
+        <v>2658</v>
       </c>
       <c r="BP196" t="s">
-        <v>2638</v>
+        <v>2658</v>
       </c>
       <c r="BQ196" t="s">
-        <v>2639</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="197" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>2640</v>
+        <v>2660</v>
       </c>
       <c r="D197" t="s">
         <v>91</v>
       </c>
       <c r="E197" t="s">
-        <v>2641</v>
+        <v>2661</v>
       </c>
       <c r="F197" t="s">
         <v>93</v>
@@ -25774,13 +25936,13 @@
         <v>2349</v>
       </c>
       <c r="I197" t="s">
-        <v>2642</v>
+        <v>2662</v>
       </c>
       <c r="J197" t="s">
         <v>2047</v>
       </c>
       <c r="K197" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="L197" t="s">
         <v>703</v>
@@ -25794,46 +25956,55 @@
       <c r="U197" t="s">
         <v>703</v>
       </c>
+      <c r="AC197" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD197" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE197" t="s">
+        <v>162</v>
+      </c>
       <c r="AO197" t="s">
-        <v>2643</v>
+        <v>2663</v>
       </c>
       <c r="AQ197" t="s">
-        <v>2644</v>
+        <v>2664</v>
       </c>
       <c r="AU197" t="s">
-        <v>2645</v>
+        <v>2665</v>
       </c>
       <c r="AW197" t="s">
-        <v>2645</v>
+        <v>2665</v>
       </c>
       <c r="BI197" t="s">
-        <v>2646</v>
+        <v>2666</v>
       </c>
       <c r="BJ197" t="s">
-        <v>2647</v>
+        <v>2667</v>
       </c>
       <c r="BK197" t="s">
-        <v>2648</v>
+        <v>2668</v>
       </c>
       <c r="BO197" t="s">
-        <v>2646</v>
+        <v>2666</v>
       </c>
       <c r="BP197" t="s">
-        <v>2647</v>
+        <v>2667</v>
       </c>
       <c r="BQ197" t="s">
-        <v>2648</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="198" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>2649</v>
+        <v>2669</v>
       </c>
       <c r="D198" t="s">
         <v>91</v>
       </c>
       <c r="E198" t="s">
-        <v>2650</v>
+        <v>2670</v>
       </c>
       <c r="F198" t="s">
         <v>93</v>
@@ -25845,16 +26016,16 @@
         <v>2349</v>
       </c>
       <c r="I198" t="s">
-        <v>2651</v>
+        <v>2671</v>
       </c>
       <c r="J198" t="s">
         <v>2351</v>
       </c>
       <c r="K198" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="L198" t="s">
-        <v>2466</v>
+        <v>2470</v>
       </c>
       <c r="Q198" t="s">
         <v>1955</v>
@@ -25863,48 +26034,57 @@
         <v>101</v>
       </c>
       <c r="U198" t="s">
-        <v>2466</v>
+        <v>2470</v>
+      </c>
+      <c r="AC198" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD198" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE198" t="s">
+        <v>162</v>
       </c>
       <c r="AO198" t="s">
-        <v>2652</v>
+        <v>2672</v>
       </c>
       <c r="AQ198" t="s">
-        <v>2653</v>
+        <v>2673</v>
       </c>
       <c r="AU198" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="AW198" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="BI198" t="s">
-        <v>2654</v>
+        <v>2674</v>
       </c>
       <c r="BJ198" t="s">
-        <v>2655</v>
+        <v>2675</v>
       </c>
       <c r="BK198" t="s">
-        <v>2656</v>
+        <v>2676</v>
       </c>
       <c r="BO198" t="s">
-        <v>2654</v>
+        <v>2674</v>
       </c>
       <c r="BP198" t="s">
-        <v>2655</v>
+        <v>2675</v>
       </c>
       <c r="BQ198" t="s">
-        <v>2656</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="199" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>2657</v>
+        <v>2677</v>
       </c>
       <c r="D199" t="s">
         <v>91</v>
       </c>
       <c r="E199" t="s">
-        <v>2658</v>
+        <v>2678</v>
       </c>
       <c r="F199" t="s">
         <v>93</v>
@@ -25916,16 +26096,16 @@
         <v>2293</v>
       </c>
       <c r="I199" t="s">
-        <v>2659</v>
+        <v>2679</v>
       </c>
       <c r="J199" t="s">
-        <v>2572</v>
+        <v>2586</v>
       </c>
       <c r="K199" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="L199" t="s">
-        <v>2660</v>
+        <v>2680</v>
       </c>
       <c r="Q199" t="s">
         <v>1955</v>
@@ -25934,16 +26114,16 @@
         <v>101</v>
       </c>
       <c r="S199" t="s">
-        <v>2661</v>
+        <v>2681</v>
       </c>
       <c r="T199" t="s">
-        <v>2662</v>
+        <v>2682</v>
       </c>
       <c r="U199" t="s">
-        <v>2660</v>
+        <v>2680</v>
       </c>
       <c r="Z199" t="s">
-        <v>2663</v>
+        <v>2683</v>
       </c>
       <c r="AC199" t="s">
         <v>127</v>
@@ -25955,27 +26135,27 @@
         <v>1337</v>
       </c>
       <c r="AO199" t="s">
-        <v>2664</v>
+        <v>2684</v>
       </c>
       <c r="AQ199" t="s">
-        <v>2665</v>
+        <v>2685</v>
       </c>
       <c r="AU199" t="s">
-        <v>2448</v>
+        <v>2452</v>
       </c>
       <c r="AW199" t="s">
-        <v>2448</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="200" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>2666</v>
+        <v>2686</v>
       </c>
       <c r="D200" t="s">
         <v>91</v>
       </c>
       <c r="E200" t="s">
-        <v>2667</v>
+        <v>2687</v>
       </c>
       <c r="F200" t="s">
         <v>93</v>
@@ -25987,16 +26167,16 @@
         <v>2293</v>
       </c>
       <c r="I200" t="s">
-        <v>2668</v>
+        <v>2688</v>
       </c>
       <c r="J200" t="s">
-        <v>2669</v>
+        <v>2689</v>
       </c>
       <c r="K200" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="L200" t="s">
-        <v>2670</v>
+        <v>2690</v>
       </c>
       <c r="Q200" t="s">
         <v>1955</v>
@@ -26005,19 +26185,19 @@
         <v>101</v>
       </c>
       <c r="S200" t="s">
-        <v>2671</v>
+        <v>2691</v>
       </c>
       <c r="T200" t="s">
-        <v>2672</v>
+        <v>2692</v>
       </c>
       <c r="U200" t="s">
-        <v>2670</v>
+        <v>2690</v>
       </c>
       <c r="Y200" t="s">
         <v>1278</v>
       </c>
       <c r="Z200" t="s">
-        <v>2576</v>
+        <v>2590</v>
       </c>
       <c r="AC200" t="s">
         <v>106</v>
@@ -26029,45 +26209,45 @@
         <v>1536</v>
       </c>
       <c r="AO200" t="s">
-        <v>2673</v>
+        <v>2693</v>
       </c>
       <c r="AQ200" t="s">
-        <v>2674</v>
+        <v>2694</v>
       </c>
       <c r="AU200" t="s">
-        <v>2675</v>
+        <v>2695</v>
       </c>
       <c r="AW200" t="s">
-        <v>2675</v>
+        <v>2695</v>
       </c>
       <c r="BI200" t="s">
-        <v>2676</v>
+        <v>2696</v>
       </c>
       <c r="BJ200" t="s">
-        <v>2677</v>
+        <v>2697</v>
       </c>
       <c r="BK200" t="s">
-        <v>2678</v>
+        <v>2698</v>
       </c>
       <c r="BO200" t="s">
-        <v>2679</v>
+        <v>2699</v>
       </c>
       <c r="BP200" t="s">
-        <v>2680</v>
+        <v>2700</v>
       </c>
       <c r="BQ200" t="s">
-        <v>2681</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="201" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>2682</v>
+        <v>2702</v>
       </c>
       <c r="D201" t="s">
         <v>91</v>
       </c>
       <c r="E201" t="s">
-        <v>2683</v>
+        <v>2703</v>
       </c>
       <c r="F201" t="s">
         <v>93</v>
@@ -26079,16 +26259,16 @@
         <v>2293</v>
       </c>
       <c r="I201" t="s">
-        <v>2684</v>
+        <v>2704</v>
       </c>
       <c r="J201" t="s">
-        <v>2685</v>
+        <v>2705</v>
       </c>
       <c r="K201" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="L201" t="s">
-        <v>2686</v>
+        <v>2706</v>
       </c>
       <c r="Q201" t="s">
         <v>1955</v>
@@ -26097,13 +26277,13 @@
         <v>101</v>
       </c>
       <c r="S201" t="s">
-        <v>2687</v>
+        <v>2707</v>
       </c>
       <c r="T201" t="s">
         <v>625</v>
       </c>
       <c r="U201" t="s">
-        <v>2686</v>
+        <v>2706</v>
       </c>
       <c r="Z201" t="s">
         <v>420</v>
@@ -26118,45 +26298,45 @@
         <v>638</v>
       </c>
       <c r="AO201" t="s">
-        <v>2688</v>
+        <v>2708</v>
       </c>
       <c r="AQ201" t="s">
-        <v>2689</v>
+        <v>2709</v>
       </c>
       <c r="AU201" t="s">
-        <v>2690</v>
+        <v>2710</v>
       </c>
       <c r="AW201" t="s">
-        <v>2690</v>
+        <v>2710</v>
       </c>
       <c r="BI201" t="s">
         <v>1499</v>
       </c>
       <c r="BJ201" t="s">
-        <v>2691</v>
+        <v>2711</v>
       </c>
       <c r="BK201" t="s">
-        <v>2692</v>
+        <v>2712</v>
       </c>
       <c r="BO201" t="s">
-        <v>2693</v>
+        <v>2713</v>
       </c>
       <c r="BP201" t="s">
-        <v>2694</v>
+        <v>2714</v>
       </c>
       <c r="BQ201" t="s">
-        <v>2695</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="202" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>2696</v>
+        <v>2716</v>
       </c>
       <c r="D202" t="s">
         <v>91</v>
       </c>
       <c r="E202" t="s">
-        <v>2697</v>
+        <v>2717</v>
       </c>
       <c r="F202" t="s">
         <v>93</v>
@@ -26168,16 +26348,16 @@
         <v>2293</v>
       </c>
       <c r="I202" t="s">
-        <v>2698</v>
+        <v>2718</v>
       </c>
       <c r="J202" t="s">
-        <v>2699</v>
+        <v>2719</v>
       </c>
       <c r="K202" t="s">
-        <v>2487</v>
+        <v>2491</v>
       </c>
       <c r="L202" t="s">
-        <v>2700</v>
+        <v>2720</v>
       </c>
       <c r="Q202" t="s">
         <v>1955</v>
@@ -26186,13 +26366,13 @@
         <v>101</v>
       </c>
       <c r="S202" t="s">
-        <v>2701</v>
+        <v>2721</v>
       </c>
       <c r="T202" t="s">
-        <v>2702</v>
+        <v>2722</v>
       </c>
       <c r="U202" t="s">
-        <v>2700</v>
+        <v>2720</v>
       </c>
       <c r="Y202" t="s">
         <v>342</v>
@@ -26207,30 +26387,30 @@
         <v>502</v>
       </c>
       <c r="AE202" t="s">
-        <v>2703</v>
+        <v>2723</v>
       </c>
       <c r="AO202" t="s">
-        <v>2704</v>
+        <v>2724</v>
       </c>
       <c r="AQ202" t="s">
-        <v>2705</v>
+        <v>2725</v>
       </c>
       <c r="AU202" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="AW202" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="203" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>2706</v>
+        <v>2726</v>
       </c>
       <c r="D203" t="s">
         <v>91</v>
       </c>
       <c r="E203" t="s">
-        <v>2707</v>
+        <v>2727</v>
       </c>
       <c r="F203" t="s">
         <v>93</v>
@@ -26242,16 +26422,16 @@
         <v>2307</v>
       </c>
       <c r="I203" t="s">
-        <v>2708</v>
+        <v>2728</v>
       </c>
       <c r="J203" t="s">
         <v>2340</v>
       </c>
       <c r="K203" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="L203" t="s">
-        <v>2709</v>
+        <v>2729</v>
       </c>
       <c r="Q203" t="s">
         <v>1955</v>
@@ -26260,19 +26440,19 @@
         <v>101</v>
       </c>
       <c r="S203" t="s">
-        <v>2710</v>
+        <v>2730</v>
       </c>
       <c r="T203" t="s">
-        <v>2711</v>
+        <v>2731</v>
       </c>
       <c r="U203" t="s">
-        <v>2709</v>
+        <v>2729</v>
       </c>
       <c r="Y203" t="s">
         <v>2344</v>
       </c>
       <c r="Z203" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="AC203" t="s">
         <v>1182</v>
@@ -26284,45 +26464,45 @@
         <v>689</v>
       </c>
       <c r="AO203" t="s">
-        <v>2712</v>
+        <v>2732</v>
       </c>
       <c r="AQ203" t="s">
-        <v>2713</v>
+        <v>2733</v>
       </c>
       <c r="AU203" t="s">
-        <v>2502</v>
+        <v>2508</v>
       </c>
       <c r="AW203" t="s">
-        <v>2502</v>
+        <v>2508</v>
       </c>
       <c r="BI203" t="s">
-        <v>2714</v>
+        <v>2734</v>
       </c>
       <c r="BJ203" t="s">
-        <v>2715</v>
+        <v>2735</v>
       </c>
       <c r="BK203" t="s">
-        <v>2716</v>
+        <v>2736</v>
       </c>
       <c r="BO203" t="s">
-        <v>2717</v>
+        <v>2737</v>
       </c>
       <c r="BP203" t="s">
-        <v>2718</v>
+        <v>2738</v>
       </c>
       <c r="BQ203" t="s">
-        <v>2719</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="204" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>2720</v>
+        <v>2740</v>
       </c>
       <c r="D204" t="s">
         <v>91</v>
       </c>
       <c r="E204" t="s">
-        <v>2721</v>
+        <v>2741</v>
       </c>
       <c r="F204" t="s">
         <v>93</v>
@@ -26334,7 +26514,7 @@
         <v>2349</v>
       </c>
       <c r="I204" t="s">
-        <v>2722</v>
+        <v>2742</v>
       </c>
       <c r="J204" t="s">
         <v>1962</v>
@@ -26343,7 +26523,7 @@
         <v>2352</v>
       </c>
       <c r="L204" t="s">
-        <v>2723</v>
+        <v>2743</v>
       </c>
       <c r="Q204" t="s">
         <v>1955</v>
@@ -26352,43 +26532,52 @@
         <v>101</v>
       </c>
       <c r="S204" t="s">
-        <v>2724</v>
+        <v>2744</v>
       </c>
       <c r="T204" t="s">
-        <v>2725</v>
+        <v>2745</v>
       </c>
       <c r="U204" t="s">
-        <v>2723</v>
+        <v>2743</v>
       </c>
       <c r="Y204" t="s">
-        <v>2726</v>
+        <v>2746</v>
       </c>
       <c r="Z204" t="s">
         <v>2160</v>
       </c>
+      <c r="AC204" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD204" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE204" t="s">
+        <v>162</v>
+      </c>
       <c r="AO204" t="s">
-        <v>2727</v>
+        <v>2747</v>
       </c>
       <c r="AQ204" t="s">
-        <v>2728</v>
+        <v>2748</v>
       </c>
       <c r="AU204" t="s">
-        <v>2502</v>
+        <v>2508</v>
       </c>
       <c r="AW204" t="s">
-        <v>2502</v>
+        <v>2508</v>
       </c>
       <c r="BI204" t="s">
-        <v>2729</v>
+        <v>2749</v>
       </c>
       <c r="BJ204" t="s">
-        <v>2730</v>
+        <v>2750</v>
       </c>
       <c r="BK204" t="s">
         <v>1047</v>
       </c>
       <c r="BO204" t="s">
-        <v>2729</v>
+        <v>2749</v>
       </c>
       <c r="BP204" t="s">
         <v>2172</v>
@@ -26399,13 +26588,13 @@
     </row>
     <row r="205" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>2731</v>
+        <v>2751</v>
       </c>
       <c r="D205" t="s">
         <v>91</v>
       </c>
       <c r="E205" t="s">
-        <v>2732</v>
+        <v>2752</v>
       </c>
       <c r="F205" t="s">
         <v>93</v>
@@ -26417,16 +26606,16 @@
         <v>2293</v>
       </c>
       <c r="I205" t="s">
-        <v>2733</v>
+        <v>2753</v>
       </c>
       <c r="J205" t="s">
-        <v>2734</v>
+        <v>2754</v>
       </c>
       <c r="K205" t="s">
-        <v>2735</v>
+        <v>2755</v>
       </c>
       <c r="L205" t="s">
-        <v>2736</v>
+        <v>2756</v>
       </c>
       <c r="Q205" t="s">
         <v>1955</v>
@@ -26435,36 +26624,45 @@
         <v>101</v>
       </c>
       <c r="S205" t="s">
-        <v>2737</v>
+        <v>2757</v>
       </c>
       <c r="T205" t="s">
-        <v>2738</v>
+        <v>2758</v>
       </c>
       <c r="U205" t="s">
-        <v>2736</v>
+        <v>2756</v>
       </c>
       <c r="Y205" t="s">
-        <v>2739</v>
+        <v>2759</v>
       </c>
       <c r="Z205" t="s">
         <v>1786</v>
       </c>
+      <c r="AC205" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AD205" t="s">
+        <v>706</v>
+      </c>
+      <c r="AE205" t="s">
+        <v>1678</v>
+      </c>
       <c r="AU205" t="s">
-        <v>2448</v>
+        <v>2452</v>
       </c>
       <c r="AW205" t="s">
-        <v>2448</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="206" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>2740</v>
+        <v>2760</v>
       </c>
       <c r="D206" t="s">
         <v>91</v>
       </c>
       <c r="E206" t="s">
-        <v>2741</v>
+        <v>2761</v>
       </c>
       <c r="F206" t="s">
         <v>93</v>
@@ -26476,16 +26674,16 @@
         <v>2307</v>
       </c>
       <c r="I206" t="s">
-        <v>2742</v>
+        <v>2762</v>
       </c>
       <c r="J206" t="s">
-        <v>2685</v>
+        <v>2705</v>
       </c>
       <c r="K206" t="s">
-        <v>2487</v>
+        <v>2491</v>
       </c>
       <c r="L206" t="s">
-        <v>2743</v>
+        <v>2763</v>
       </c>
       <c r="Q206" t="s">
         <v>1955</v>
@@ -26494,16 +26692,16 @@
         <v>101</v>
       </c>
       <c r="S206" t="s">
-        <v>2744</v>
+        <v>2764</v>
       </c>
       <c r="T206" t="s">
-        <v>2745</v>
+        <v>2765</v>
       </c>
       <c r="U206" t="s">
-        <v>2743</v>
+        <v>2763</v>
       </c>
       <c r="Y206" t="s">
-        <v>2525</v>
+        <v>2534</v>
       </c>
       <c r="Z206" t="s">
         <v>1080</v>
@@ -26515,48 +26713,48 @@
         <v>673</v>
       </c>
       <c r="AE206" t="s">
-        <v>2746</v>
+        <v>2766</v>
       </c>
       <c r="AO206" t="s">
-        <v>2747</v>
+        <v>2767</v>
       </c>
       <c r="AQ206" t="s">
-        <v>2748</v>
+        <v>2768</v>
       </c>
       <c r="AU206" t="s">
-        <v>2749</v>
+        <v>2769</v>
       </c>
       <c r="AW206" t="s">
-        <v>2749</v>
+        <v>2769</v>
       </c>
       <c r="BI206" t="s">
-        <v>2750</v>
+        <v>2770</v>
       </c>
       <c r="BJ206" t="s">
-        <v>2751</v>
+        <v>2771</v>
       </c>
       <c r="BK206" t="s">
-        <v>2752</v>
+        <v>2772</v>
       </c>
       <c r="BO206" t="s">
-        <v>2753</v>
+        <v>2773</v>
       </c>
       <c r="BP206" t="s">
-        <v>2754</v>
+        <v>2774</v>
       </c>
       <c r="BQ206" t="s">
-        <v>2755</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="207" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>2756</v>
+        <v>2776</v>
       </c>
       <c r="D207" t="s">
         <v>91</v>
       </c>
       <c r="E207" t="s">
-        <v>2757</v>
+        <v>2777</v>
       </c>
       <c r="F207" t="s">
         <v>93</v>
@@ -26568,16 +26766,16 @@
         <v>2349</v>
       </c>
       <c r="I207" t="s">
-        <v>2758</v>
+        <v>2778</v>
       </c>
       <c r="J207" t="s">
         <v>2010</v>
       </c>
       <c r="K207" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="L207" t="s">
-        <v>2759</v>
+        <v>2779</v>
       </c>
       <c r="Q207" t="s">
         <v>1955</v>
@@ -26586,48 +26784,57 @@
         <v>101</v>
       </c>
       <c r="U207" t="s">
-        <v>2759</v>
+        <v>2779</v>
+      </c>
+      <c r="AC207" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD207" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE207" t="s">
+        <v>162</v>
       </c>
       <c r="AO207" t="s">
-        <v>2760</v>
+        <v>2780</v>
       </c>
       <c r="AQ207" t="s">
-        <v>2761</v>
+        <v>2781</v>
       </c>
       <c r="AU207" t="s">
-        <v>2528</v>
+        <v>2540</v>
       </c>
       <c r="AW207" t="s">
-        <v>2528</v>
+        <v>2540</v>
       </c>
       <c r="BI207" t="s">
-        <v>2762</v>
+        <v>2782</v>
       </c>
       <c r="BJ207" t="s">
-        <v>2763</v>
+        <v>2783</v>
       </c>
       <c r="BK207" t="s">
-        <v>2764</v>
+        <v>2784</v>
       </c>
       <c r="BO207" t="s">
-        <v>2762</v>
+        <v>2782</v>
       </c>
       <c r="BP207" t="s">
-        <v>2763</v>
+        <v>2783</v>
       </c>
       <c r="BQ207" t="s">
-        <v>2764</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="208" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>2765</v>
+        <v>2785</v>
       </c>
       <c r="D208" t="s">
         <v>91</v>
       </c>
       <c r="E208" t="s">
-        <v>2766</v>
+        <v>2786</v>
       </c>
       <c r="F208" t="s">
         <v>93</v>
@@ -26639,16 +26846,16 @@
         <v>2349</v>
       </c>
       <c r="I208" t="s">
-        <v>2767</v>
+        <v>2787</v>
       </c>
       <c r="J208" t="s">
-        <v>2768</v>
+        <v>2788</v>
       </c>
       <c r="K208" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="L208" t="s">
-        <v>2769</v>
+        <v>2789</v>
       </c>
       <c r="Q208" t="s">
         <v>1955</v>
@@ -26660,19 +26867,28 @@
         <v>2158</v>
       </c>
       <c r="U208" t="s">
-        <v>2769</v>
+        <v>2789</v>
       </c>
       <c r="Y208" t="s">
-        <v>2770</v>
+        <v>2790</v>
       </c>
       <c r="Z208" t="s">
-        <v>2466</v>
+        <v>2470</v>
+      </c>
+      <c r="AC208" t="s">
+        <v>2791</v>
+      </c>
+      <c r="AD208" t="s">
+        <v>2792</v>
+      </c>
+      <c r="AE208" t="s">
+        <v>2793</v>
       </c>
       <c r="AO208" t="s">
-        <v>2771</v>
+        <v>2794</v>
       </c>
       <c r="AQ208" t="s">
-        <v>2772</v>
+        <v>2795</v>
       </c>
       <c r="AU208" t="s">
         <v>2304</v>
@@ -26681,33 +26897,33 @@
         <v>2304</v>
       </c>
       <c r="BI208" t="s">
-        <v>2773</v>
+        <v>2796</v>
       </c>
       <c r="BJ208" t="s">
-        <v>2774</v>
+        <v>2797</v>
       </c>
       <c r="BK208" t="s">
-        <v>2775</v>
+        <v>2798</v>
       </c>
       <c r="BO208" t="s">
-        <v>2776</v>
+        <v>2799</v>
       </c>
       <c r="BP208" t="s">
-        <v>2777</v>
+        <v>2800</v>
       </c>
       <c r="BQ208" t="s">
-        <v>2778</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="209" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>2779</v>
+        <v>2802</v>
       </c>
       <c r="D209" t="s">
         <v>91</v>
       </c>
       <c r="E209" t="s">
-        <v>2780</v>
+        <v>2803</v>
       </c>
       <c r="F209" t="s">
         <v>93</v>
@@ -26719,7 +26935,7 @@
         <v>2349</v>
       </c>
       <c r="I209" t="s">
-        <v>2781</v>
+        <v>2804</v>
       </c>
       <c r="J209" t="s">
         <v>1962</v>
@@ -26728,7 +26944,7 @@
         <v>2352</v>
       </c>
       <c r="L209" t="s">
-        <v>2782</v>
+        <v>2805</v>
       </c>
       <c r="Q209" t="s">
         <v>1955</v>
@@ -26740,57 +26956,66 @@
         <v>1706</v>
       </c>
       <c r="T209" t="s">
-        <v>2783</v>
+        <v>2806</v>
       </c>
       <c r="U209" t="s">
-        <v>2782</v>
+        <v>2805</v>
       </c>
       <c r="Y209" t="s">
-        <v>2784</v>
+        <v>2807</v>
       </c>
       <c r="Z209" t="s">
-        <v>2617</v>
+        <v>2632</v>
+      </c>
+      <c r="AC209" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD209" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AE209" t="s">
+        <v>260</v>
       </c>
       <c r="AO209" t="s">
-        <v>2785</v>
+        <v>2808</v>
       </c>
       <c r="AQ209" t="s">
-        <v>2786</v>
+        <v>2809</v>
       </c>
       <c r="AU209" t="s">
-        <v>2470</v>
+        <v>2474</v>
       </c>
       <c r="AW209" t="s">
-        <v>2470</v>
+        <v>2474</v>
       </c>
       <c r="BI209" t="s">
-        <v>2787</v>
+        <v>2810</v>
       </c>
       <c r="BJ209" t="s">
-        <v>2788</v>
+        <v>2811</v>
       </c>
       <c r="BK209" t="s">
-        <v>2789</v>
+        <v>2812</v>
       </c>
       <c r="BO209" t="s">
-        <v>2790</v>
+        <v>2813</v>
       </c>
       <c r="BP209" t="s">
-        <v>2791</v>
+        <v>2814</v>
       </c>
       <c r="BQ209" t="s">
-        <v>2792</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="210" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>2793</v>
+        <v>2816</v>
       </c>
       <c r="D210" t="s">
         <v>91</v>
       </c>
       <c r="E210" t="s">
-        <v>2794</v>
+        <v>2817</v>
       </c>
       <c r="F210" t="s">
         <v>93</v>
@@ -26802,16 +27027,16 @@
         <v>2307</v>
       </c>
       <c r="I210" t="s">
-        <v>2795</v>
+        <v>2818</v>
       </c>
       <c r="J210" t="s">
         <v>2340</v>
       </c>
       <c r="K210" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="L210" t="s">
-        <v>2796</v>
+        <v>2819</v>
       </c>
       <c r="Q210" t="s">
         <v>1955</v>
@@ -26820,19 +27045,19 @@
         <v>101</v>
       </c>
       <c r="S210" t="s">
-        <v>2797</v>
+        <v>2820</v>
       </c>
       <c r="T210" t="s">
         <v>962</v>
       </c>
       <c r="U210" t="s">
-        <v>2796</v>
+        <v>2819</v>
       </c>
       <c r="Z210" t="s">
         <v>1066</v>
       </c>
       <c r="AC210" t="s">
-        <v>2798</v>
+        <v>2821</v>
       </c>
       <c r="AD210" t="s">
         <v>294</v>
@@ -26841,10 +27066,10 @@
         <v>1721</v>
       </c>
       <c r="AO210" t="s">
-        <v>2799</v>
+        <v>2822</v>
       </c>
       <c r="AQ210" t="s">
-        <v>2800</v>
+        <v>2823</v>
       </c>
       <c r="AU210" t="s">
         <v>2304</v>
@@ -26853,33 +27078,33 @@
         <v>2304</v>
       </c>
       <c r="BI210" t="s">
-        <v>2801</v>
+        <v>2824</v>
       </c>
       <c r="BJ210" t="s">
-        <v>2802</v>
+        <v>2825</v>
       </c>
       <c r="BK210" t="s">
-        <v>2803</v>
+        <v>2826</v>
       </c>
       <c r="BO210" t="s">
-        <v>2804</v>
+        <v>2827</v>
       </c>
       <c r="BP210" t="s">
-        <v>2805</v>
+        <v>2828</v>
       </c>
       <c r="BQ210" t="s">
-        <v>2806</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="211" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>2807</v>
+        <v>2830</v>
       </c>
       <c r="D211" t="s">
         <v>91</v>
       </c>
       <c r="E211" t="s">
-        <v>2808</v>
+        <v>2831</v>
       </c>
       <c r="F211" t="s">
         <v>93</v>
@@ -26891,16 +27116,16 @@
         <v>2349</v>
       </c>
       <c r="I211" t="s">
-        <v>2809</v>
+        <v>2832</v>
       </c>
       <c r="J211" t="s">
-        <v>2810</v>
+        <v>2833</v>
       </c>
       <c r="K211" t="s">
         <v>2352</v>
       </c>
       <c r="L211" t="s">
-        <v>2811</v>
+        <v>2834</v>
       </c>
       <c r="Q211" t="s">
         <v>1955</v>
@@ -26909,43 +27134,52 @@
         <v>101</v>
       </c>
       <c r="T211" t="s">
-        <v>2812</v>
+        <v>2835</v>
       </c>
       <c r="U211" t="s">
-        <v>2811</v>
+        <v>2834</v>
       </c>
       <c r="Y211" t="s">
         <v>703</v>
       </c>
       <c r="Z211" t="s">
-        <v>2813</v>
+        <v>2836</v>
+      </c>
+      <c r="AC211" t="s">
+        <v>2108</v>
+      </c>
+      <c r="AD211" t="s">
+        <v>2314</v>
+      </c>
+      <c r="AE211" t="s">
+        <v>533</v>
       </c>
       <c r="AO211" t="s">
-        <v>2814</v>
+        <v>2837</v>
       </c>
       <c r="AQ211" t="s">
-        <v>2815</v>
+        <v>2838</v>
       </c>
       <c r="AU211" t="s">
-        <v>2690</v>
+        <v>2710</v>
       </c>
       <c r="AW211" t="s">
-        <v>2690</v>
+        <v>2710</v>
       </c>
       <c r="BI211" t="s">
-        <v>2816</v>
+        <v>2839</v>
       </c>
       <c r="BJ211" t="s">
-        <v>2817</v>
+        <v>2840</v>
       </c>
       <c r="BK211" t="s">
-        <v>2818</v>
+        <v>2841</v>
       </c>
       <c r="BO211" t="s">
-        <v>2819</v>
+        <v>2842</v>
       </c>
       <c r="BP211" t="s">
-        <v>2820</v>
+        <v>2843</v>
       </c>
       <c r="BQ211" t="s">
         <v>1872</v>
@@ -26953,13 +27187,13 @@
     </row>
     <row r="212" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>2821</v>
+        <v>2844</v>
       </c>
       <c r="D212" t="s">
         <v>91</v>
       </c>
       <c r="E212" t="s">
-        <v>2822</v>
+        <v>2845</v>
       </c>
       <c r="F212" t="s">
         <v>93</v>
@@ -26971,16 +27205,16 @@
         <v>2349</v>
       </c>
       <c r="I212" t="s">
-        <v>2823</v>
+        <v>2846</v>
       </c>
       <c r="J212" t="s">
-        <v>2824</v>
+        <v>2847</v>
       </c>
       <c r="K212" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="L212" t="s">
-        <v>2825</v>
+        <v>2848</v>
       </c>
       <c r="Q212" t="s">
         <v>1955</v>
@@ -26989,57 +27223,66 @@
         <v>101</v>
       </c>
       <c r="T212" t="s">
-        <v>2826</v>
+        <v>2849</v>
       </c>
       <c r="U212" t="s">
-        <v>2825</v>
+        <v>2848</v>
       </c>
       <c r="Y212" t="s">
-        <v>2827</v>
+        <v>2850</v>
       </c>
       <c r="Z212" t="s">
         <v>752</v>
       </c>
+      <c r="AC212" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AD212" t="s">
+        <v>2255</v>
+      </c>
+      <c r="AE212" t="s">
+        <v>2851</v>
+      </c>
       <c r="AO212" t="s">
-        <v>2828</v>
+        <v>2852</v>
       </c>
       <c r="AQ212" t="s">
-        <v>2829</v>
+        <v>2853</v>
       </c>
       <c r="AU212" t="s">
-        <v>2502</v>
+        <v>2508</v>
       </c>
       <c r="AW212" t="s">
-        <v>2502</v>
+        <v>2508</v>
       </c>
       <c r="BI212" t="s">
-        <v>2830</v>
+        <v>2854</v>
       </c>
       <c r="BJ212" t="s">
-        <v>2831</v>
+        <v>2855</v>
       </c>
       <c r="BK212" t="s">
-        <v>2832</v>
+        <v>2856</v>
       </c>
       <c r="BO212" t="s">
-        <v>2833</v>
+        <v>2857</v>
       </c>
       <c r="BP212" t="s">
-        <v>2834</v>
+        <v>2858</v>
       </c>
       <c r="BQ212" t="s">
-        <v>2835</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="213" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>2836</v>
+        <v>2860</v>
       </c>
       <c r="D213" t="s">
         <v>91</v>
       </c>
       <c r="E213" t="s">
-        <v>2837</v>
+        <v>2861</v>
       </c>
       <c r="F213" t="s">
         <v>93</v>
@@ -27051,16 +27294,16 @@
         <v>2349</v>
       </c>
       <c r="I213" t="s">
-        <v>2838</v>
+        <v>2862</v>
       </c>
       <c r="J213" t="s">
-        <v>2839</v>
+        <v>2863</v>
       </c>
       <c r="K213" t="s">
         <v>2352</v>
       </c>
       <c r="L213" t="s">
-        <v>2840</v>
+        <v>2864</v>
       </c>
       <c r="Q213" t="s">
         <v>1955</v>
@@ -27069,13 +27312,13 @@
         <v>101</v>
       </c>
       <c r="S213" t="s">
-        <v>2841</v>
+        <v>2865</v>
       </c>
       <c r="T213" t="s">
-        <v>2842</v>
+        <v>2866</v>
       </c>
       <c r="U213" t="s">
-        <v>2840</v>
+        <v>2864</v>
       </c>
       <c r="Y213" t="s">
         <v>2355</v>
@@ -27083,46 +27326,55 @@
       <c r="Z213" t="s">
         <v>1675</v>
       </c>
+      <c r="AC213" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>747</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>2314</v>
+      </c>
       <c r="AO213" t="s">
-        <v>2843</v>
+        <v>2867</v>
       </c>
       <c r="AQ213" t="s">
-        <v>2844</v>
+        <v>2868</v>
       </c>
       <c r="AU213" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="AW213" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="BI213" t="s">
-        <v>2845</v>
+        <v>2869</v>
       </c>
       <c r="BJ213" t="s">
-        <v>2846</v>
+        <v>2870</v>
       </c>
       <c r="BK213" t="s">
-        <v>2847</v>
+        <v>2871</v>
       </c>
       <c r="BO213" t="s">
-        <v>2848</v>
+        <v>2872</v>
       </c>
       <c r="BP213" t="s">
-        <v>2849</v>
+        <v>2873</v>
       </c>
       <c r="BQ213" t="s">
-        <v>2850</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="214" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>2851</v>
+        <v>2875</v>
       </c>
       <c r="D214" t="s">
         <v>91</v>
       </c>
       <c r="E214" t="s">
-        <v>2852</v>
+        <v>2876</v>
       </c>
       <c r="F214" t="s">
         <v>93</v>
@@ -27134,16 +27386,16 @@
         <v>2349</v>
       </c>
       <c r="I214" t="s">
-        <v>2853</v>
+        <v>2877</v>
       </c>
       <c r="J214" t="s">
-        <v>2854</v>
+        <v>2878</v>
       </c>
       <c r="K214" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="L214" t="s">
-        <v>2855</v>
+        <v>2879</v>
       </c>
       <c r="Q214" t="s">
         <v>1955</v>
@@ -27152,57 +27404,66 @@
         <v>101</v>
       </c>
       <c r="T214" t="s">
-        <v>2856</v>
+        <v>2880</v>
       </c>
       <c r="U214" t="s">
-        <v>2855</v>
+        <v>2879</v>
       </c>
       <c r="Y214" t="s">
         <v>143</v>
       </c>
       <c r="Z214" t="s">
-        <v>2490</v>
+        <v>2494</v>
+      </c>
+      <c r="AC214" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>502</v>
+      </c>
+      <c r="AE214" t="s">
+        <v>278</v>
       </c>
       <c r="AO214" t="s">
-        <v>2857</v>
+        <v>2881</v>
       </c>
       <c r="AQ214" t="s">
-        <v>2857</v>
+        <v>2881</v>
       </c>
       <c r="AU214" t="s">
-        <v>2645</v>
+        <v>2665</v>
       </c>
       <c r="AW214" t="s">
-        <v>2645</v>
+        <v>2665</v>
       </c>
       <c r="BI214" t="s">
-        <v>2858</v>
+        <v>2882</v>
       </c>
       <c r="BJ214" t="s">
-        <v>2859</v>
+        <v>2883</v>
       </c>
       <c r="BK214" t="s">
-        <v>2860</v>
+        <v>2884</v>
       </c>
       <c r="BO214" t="s">
-        <v>2861</v>
+        <v>2885</v>
       </c>
       <c r="BP214" t="s">
-        <v>2862</v>
+        <v>2886</v>
       </c>
       <c r="BQ214" t="s">
-        <v>2863</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="215" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>2864</v>
+        <v>2888</v>
       </c>
       <c r="D215" t="s">
         <v>91</v>
       </c>
       <c r="E215" t="s">
-        <v>2865</v>
+        <v>2889</v>
       </c>
       <c r="F215" t="s">
         <v>93</v>
@@ -27214,10 +27475,10 @@
         <v>2349</v>
       </c>
       <c r="I215" t="s">
-        <v>2866</v>
+        <v>2890</v>
       </c>
       <c r="J215" t="s">
-        <v>2867</v>
+        <v>2891</v>
       </c>
       <c r="K215" t="s">
         <v>2352</v>
@@ -27232,7 +27493,7 @@
         <v>101</v>
       </c>
       <c r="S215" t="s">
-        <v>2868</v>
+        <v>2892</v>
       </c>
       <c r="T215" t="s">
         <v>420</v>
@@ -27244,48 +27505,57 @@
         <v>310</v>
       </c>
       <c r="Z215" t="s">
-        <v>2869</v>
+        <v>2893</v>
+      </c>
+      <c r="AC215" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE215" t="s">
+        <v>517</v>
       </c>
       <c r="AO215" t="s">
-        <v>2870</v>
+        <v>2894</v>
       </c>
       <c r="AQ215" t="s">
-        <v>2871</v>
+        <v>2895</v>
       </c>
       <c r="AU215" t="s">
-        <v>2528</v>
+        <v>2540</v>
       </c>
       <c r="AW215" t="s">
-        <v>2528</v>
+        <v>2540</v>
       </c>
       <c r="BI215" t="s">
-        <v>2872</v>
+        <v>2896</v>
       </c>
       <c r="BJ215" t="s">
-        <v>2873</v>
+        <v>2897</v>
       </c>
       <c r="BK215" t="s">
-        <v>2874</v>
+        <v>2898</v>
       </c>
       <c r="BO215" t="s">
-        <v>2875</v>
+        <v>2899</v>
       </c>
       <c r="BP215" t="s">
-        <v>2876</v>
+        <v>2900</v>
       </c>
       <c r="BQ215" t="s">
-        <v>2877</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="216" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>2878</v>
+        <v>2902</v>
       </c>
       <c r="D216" t="s">
         <v>91</v>
       </c>
       <c r="E216" t="s">
-        <v>2879</v>
+        <v>2903</v>
       </c>
       <c r="F216" t="s">
         <v>93</v>
@@ -27297,7 +27567,7 @@
         <v>2349</v>
       </c>
       <c r="I216" t="s">
-        <v>2880</v>
+        <v>2904</v>
       </c>
       <c r="J216" t="s">
         <v>1962</v>
@@ -27315,49 +27585,58 @@
         <v>101</v>
       </c>
       <c r="S216" t="s">
-        <v>2881</v>
+        <v>2905</v>
       </c>
       <c r="T216" t="s">
-        <v>2882</v>
+        <v>2906</v>
       </c>
       <c r="U216" t="s">
         <v>1818</v>
       </c>
       <c r="Y216" t="s">
-        <v>2883</v>
+        <v>2907</v>
       </c>
       <c r="Z216" t="s">
-        <v>2617</v>
+        <v>2632</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE216" t="s">
+        <v>206</v>
       </c>
       <c r="AO216" t="s">
-        <v>2884</v>
+        <v>2908</v>
       </c>
       <c r="AQ216" t="s">
-        <v>2885</v>
+        <v>2909</v>
       </c>
       <c r="AU216" t="s">
-        <v>2470</v>
+        <v>2474</v>
       </c>
       <c r="AW216" t="s">
-        <v>2470</v>
+        <v>2474</v>
       </c>
       <c r="BI216" t="s">
-        <v>2886</v>
+        <v>2910</v>
       </c>
       <c r="BJ216" t="s">
-        <v>2887</v>
+        <v>2911</v>
       </c>
       <c r="BK216" t="s">
-        <v>2888</v>
+        <v>2912</v>
       </c>
       <c r="BO216" t="s">
-        <v>2889</v>
+        <v>2913</v>
       </c>
       <c r="BP216" t="s">
-        <v>2890</v>
+        <v>2914</v>
       </c>
       <c r="BQ216" t="s">
-        <v>2891</v>
+        <v>2915</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelResumenFactura.xlsx
+++ b/ExcelResumenFactura.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6515" uniqueCount="3209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7350" uniqueCount="3470">
   <si>
     <t>Factura</t>
   </si>
@@ -7783,12 +7783,807 @@
     <t>nexus_91F85ADBB83B1EDEB9C1142056401358_20240319_1_1.PDF</t>
   </si>
   <si>
+    <t>nexus_A55EB7F3F7931EDF84D71FA0AC60D514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>14/05/2024</t>
+  </si>
+  <si>
+    <t>YE2405EL00049207</t>
+  </si>
+  <si>
+    <t>140,60</t>
+  </si>
+  <si>
+    <t>24,40</t>
+  </si>
+  <si>
+    <t>4,12</t>
+  </si>
+  <si>
+    <t>3,55</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>17.716</t>
+  </si>
+  <si>
+    <t>6.994</t>
+  </si>
+  <si>
+    <t>6.390</t>
+  </si>
+  <si>
+    <t>3.622</t>
+  </si>
+  <si>
+    <t>9.678</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D71FA0AC613514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>ES0021000011854022XA</t>
+  </si>
+  <si>
+    <t>YE2405EL00049208</t>
+  </si>
+  <si>
+    <t>16,64</t>
+  </si>
+  <si>
+    <t>2,89</t>
+  </si>
+  <si>
+    <t>1,88</t>
+  </si>
+  <si>
+    <t>10,62</t>
+  </si>
+  <si>
+    <t>14.370</t>
+  </si>
+  <si>
+    <t>15.098</t>
+  </si>
+  <si>
+    <t>16.457</t>
+  </si>
+  <si>
+    <t>14.246</t>
+  </si>
+  <si>
+    <t>3.612</t>
+  </si>
+  <si>
+    <t>41.772</t>
+  </si>
+  <si>
+    <t>14.287</t>
+  </si>
+  <si>
+    <t>3.634</t>
+  </si>
+  <si>
+    <t>41.783</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D71FA0AC619514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>ES0022000008317149QZ</t>
+  </si>
+  <si>
+    <t>YE2405EL00049209</t>
+  </si>
+  <si>
+    <t>43,83</t>
+  </si>
+  <si>
+    <t>10,30</t>
+  </si>
+  <si>
+    <t>23,54</t>
+  </si>
+  <si>
+    <t>2.843</t>
+  </si>
+  <si>
+    <t>6.858</t>
+  </si>
+  <si>
+    <t>3.778</t>
+  </si>
+  <si>
+    <t>1.995</t>
+  </si>
+  <si>
+    <t>5.145</t>
+  </si>
+  <si>
+    <t>2.732</t>
+  </si>
+  <si>
+    <t>5.213</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D71FCFB6DC1514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>ES0022000008461465NM</t>
+  </si>
+  <si>
+    <t>YE2405EL00049210</t>
+  </si>
+  <si>
+    <t>17,38</t>
+  </si>
+  <si>
+    <t>4,73</t>
+  </si>
+  <si>
+    <t>8,05</t>
+  </si>
+  <si>
+    <t>0,49</t>
+  </si>
+  <si>
+    <t>4.141</t>
+  </si>
+  <si>
+    <t>3.027</t>
+  </si>
+  <si>
+    <t>1.084</t>
+  </si>
+  <si>
+    <t>1.741</t>
+  </si>
+  <si>
+    <t>3.632</t>
+  </si>
+  <si>
+    <t>1.101</t>
+  </si>
+  <si>
+    <t>1.755</t>
+  </si>
+  <si>
+    <t>3.657</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D71FCFB6DC7514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>ES0022000008461438BR</t>
+  </si>
+  <si>
+    <t>YE2405EL00049211</t>
+  </si>
+  <si>
+    <t>18,48</t>
+  </si>
+  <si>
+    <t>3,21</t>
+  </si>
+  <si>
+    <t>8,93</t>
+  </si>
+  <si>
+    <t>4.071</t>
+  </si>
+  <si>
+    <t>2.982</t>
+  </si>
+  <si>
+    <t>1.052</t>
+  </si>
+  <si>
+    <t>1.689</t>
+  </si>
+  <si>
+    <t>3.505</t>
+  </si>
+  <si>
+    <t>1.070</t>
+  </si>
+  <si>
+    <t>1.704</t>
+  </si>
+  <si>
+    <t>3.534</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D71FEEA5741514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>ES0021000011854023XG</t>
+  </si>
+  <si>
+    <t>YE2405EL00049212</t>
+  </si>
+  <si>
+    <t>4,02</t>
+  </si>
+  <si>
+    <t>0,70</t>
+  </si>
+  <si>
+    <t>1,00</t>
+  </si>
+  <si>
+    <t>11.330</t>
+  </si>
+  <si>
+    <t>20.159</t>
+  </si>
+  <si>
+    <t>5.649</t>
+  </si>
+  <si>
+    <t>7.349</t>
+  </si>
+  <si>
+    <t>7.199</t>
+  </si>
+  <si>
+    <t>14.099</t>
+  </si>
+  <si>
+    <t>7.352</t>
+  </si>
+  <si>
+    <t>7.201</t>
+  </si>
+  <si>
+    <t>14.101</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D71FEEA5747514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>ES0021000001896982RP</t>
+  </si>
+  <si>
+    <t>YE2405EL00049213</t>
+  </si>
+  <si>
+    <t>53,41</t>
+  </si>
+  <si>
+    <t>9,27</t>
+  </si>
+  <si>
+    <t>20,83</t>
+  </si>
+  <si>
+    <t>16,38</t>
+  </si>
+  <si>
+    <t>4,34</t>
+  </si>
+  <si>
+    <t>3.754</t>
+  </si>
+  <si>
+    <t>5.851</t>
+  </si>
+  <si>
+    <t>1.916</t>
+  </si>
+  <si>
+    <t>1.182</t>
+  </si>
+  <si>
+    <t>2.252</t>
+  </si>
+  <si>
+    <t>1.209</t>
+  </si>
+  <si>
+    <t>1.214</t>
+  </si>
+  <si>
+    <t>2.279</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D71FEEA574D514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>ES0021000017110601YR</t>
+  </si>
+  <si>
+    <t>YE2405EL00049214</t>
+  </si>
+  <si>
+    <t>48,22</t>
+  </si>
+  <si>
+    <t>8,37</t>
+  </si>
+  <si>
+    <t>15,45</t>
+  </si>
+  <si>
+    <t>19,19</t>
+  </si>
+  <si>
+    <t>1,33</t>
+  </si>
+  <si>
+    <t>4.767</t>
+  </si>
+  <si>
+    <t>5.950</t>
+  </si>
+  <si>
+    <t>1.282</t>
+  </si>
+  <si>
+    <t>1.333</t>
+  </si>
+  <si>
+    <t>2.515</t>
+  </si>
+  <si>
+    <t>1.347</t>
+  </si>
+  <si>
+    <t>1.353</t>
+  </si>
+  <si>
+    <t>2.562</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D7201F440CD514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>ES0021000003952368XE</t>
+  </si>
+  <si>
+    <t>YE2405EL00049215</t>
+  </si>
+  <si>
+    <t>576,50</t>
+  </si>
+  <si>
+    <t>100,05</t>
+  </si>
+  <si>
+    <t>61,50</t>
+  </si>
+  <si>
+    <t>394,09</t>
+  </si>
+  <si>
+    <t>17,31</t>
+  </si>
+  <si>
+    <t>1.529</t>
+  </si>
+  <si>
+    <t>1.093</t>
+  </si>
+  <si>
+    <t>71.223</t>
+  </si>
+  <si>
+    <t>150.972</t>
+  </si>
+  <si>
+    <t>37.791</t>
+  </si>
+  <si>
+    <t>28.905</t>
+  </si>
+  <si>
+    <t>13.926</t>
+  </si>
+  <si>
+    <t>11.890</t>
+  </si>
+  <si>
+    <t>30.434</t>
+  </si>
+  <si>
+    <t>15.019</t>
+  </si>
+  <si>
+    <t>12.037</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D7201F440D3514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>ES0021000015750838HK</t>
+  </si>
+  <si>
+    <t>YE2405EL00049216</t>
+  </si>
+  <si>
+    <t>58,76</t>
+  </si>
+  <si>
+    <t>10,20</t>
+  </si>
+  <si>
+    <t>6,52</t>
+  </si>
+  <si>
+    <t>35,49</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D7203D6067F514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>ES0021000010280863JK</t>
+  </si>
+  <si>
+    <t>YE2405EL00049231</t>
+  </si>
+  <si>
+    <t>165,30</t>
+  </si>
+  <si>
+    <t>28,69</t>
+  </si>
+  <si>
+    <t>10,12</t>
+  </si>
+  <si>
+    <t>121,03</t>
+  </si>
+  <si>
+    <t>0,48</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D7203D60685514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>YE2405EL00049232</t>
+  </si>
+  <si>
+    <t>1.264,86</t>
+  </si>
+  <si>
+    <t>219,52</t>
+  </si>
+  <si>
+    <t>179,99</t>
+  </si>
+  <si>
+    <t>807,59</t>
+  </si>
+  <si>
+    <t>3,01</t>
+  </si>
+  <si>
+    <t>37,64</t>
+  </si>
+  <si>
+    <t>17,11</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D7206E51D7D514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>ES0022000008671467BV</t>
+  </si>
+  <si>
+    <t>YE2405EL00049233</t>
+  </si>
+  <si>
+    <t>64,14</t>
+  </si>
+  <si>
+    <t>11,13</t>
+  </si>
+  <si>
+    <t>3,83</t>
+  </si>
+  <si>
+    <t>44,15</t>
+  </si>
+  <si>
+    <t>1,90</t>
+  </si>
+  <si>
+    <t>2,04</t>
+  </si>
+  <si>
+    <t>3.989</t>
+  </si>
+  <si>
+    <t>7.801</t>
+  </si>
+  <si>
+    <t>5.466</t>
+  </si>
+  <si>
+    <t>3.265</t>
+  </si>
+  <si>
+    <t>3.314</t>
+  </si>
+  <si>
+    <t>3.364</t>
+  </si>
+  <si>
+    <t>3.386</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D7206E51D83514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>ES0021000010998899KC</t>
+  </si>
+  <si>
+    <t>YE2405EL00049234</t>
+  </si>
+  <si>
+    <t>232,08</t>
+  </si>
+  <si>
+    <t>40,28</t>
+  </si>
+  <si>
+    <t>30,29</t>
+  </si>
+  <si>
+    <t>151,07</t>
+  </si>
+  <si>
+    <t>6,89</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D7208DB91C5514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>YE2405EL00049235</t>
+  </si>
+  <si>
+    <t>36,08</t>
+  </si>
+  <si>
+    <t>7.606</t>
+  </si>
+  <si>
+    <t>4.337</t>
+  </si>
+  <si>
+    <t>5.483</t>
+  </si>
+  <si>
+    <t>2.148</t>
+  </si>
+  <si>
+    <t>2.937</t>
+  </si>
+  <si>
+    <t>5.549</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D7208DB91CB514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>YE2405EL00049236</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>29,60</t>
+  </si>
+  <si>
+    <t>5,14</t>
+  </si>
+  <si>
+    <t>18,43</t>
+  </si>
+  <si>
+    <t>5.779</t>
+  </si>
+  <si>
+    <t>5.040</t>
+  </si>
+  <si>
+    <t>1.814</t>
+  </si>
+  <si>
+    <t>2.301</t>
+  </si>
+  <si>
+    <t>5.093</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D720AD8F751514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>YE2405EL00049237</t>
+  </si>
+  <si>
+    <t>71,69</t>
+  </si>
+  <si>
+    <t>12,44</t>
+  </si>
+  <si>
+    <t>18,78</t>
+  </si>
+  <si>
+    <t>1.061</t>
+  </si>
+  <si>
+    <t>2.443</t>
+  </si>
+  <si>
+    <t>879</t>
+  </si>
+  <si>
+    <t>2.532</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D720AD8F757514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>ES0021000011211569ED</t>
+  </si>
+  <si>
+    <t>YE2405EL00049238</t>
+  </si>
+  <si>
+    <t>87,57</t>
+  </si>
+  <si>
+    <t>15,20</t>
+  </si>
+  <si>
+    <t>15,33</t>
+  </si>
+  <si>
+    <t>53,62</t>
+  </si>
+  <si>
+    <t>2,62</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D720AD8F75D514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>YE2405EL00049244</t>
+  </si>
+  <si>
+    <t>30,44</t>
+  </si>
+  <si>
+    <t>5,28</t>
+  </si>
+  <si>
+    <t>17,48</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D720DCEB15D514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>YE2405EL00049245</t>
+  </si>
+  <si>
+    <t>40,17</t>
+  </si>
+  <si>
+    <t>6,97</t>
+  </si>
+  <si>
+    <t>24,21</t>
+  </si>
+  <si>
+    <t>1,18</t>
+  </si>
+  <si>
+    <t>7.098</t>
+  </si>
+  <si>
+    <t>4.275</t>
+  </si>
+  <si>
+    <t>6.140</t>
+  </si>
+  <si>
+    <t>2.981</t>
+  </si>
+  <si>
+    <t>6.210</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D720DCEB163514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>ES0022000008671464BZ</t>
+  </si>
+  <si>
+    <t>YE2405EL00049246</t>
+  </si>
+  <si>
+    <t>30,09</t>
+  </si>
+  <si>
+    <t>5,22</t>
+  </si>
+  <si>
+    <t>18,18</t>
+  </si>
+  <si>
+    <t>3.167</t>
+  </si>
+  <si>
+    <t>7.725</t>
+  </si>
+  <si>
+    <t>4.427</t>
+  </si>
+  <si>
+    <t>1.941</t>
+  </si>
+  <si>
+    <t>3.160</t>
+  </si>
+  <si>
+    <t>5.146</t>
+  </si>
+  <si>
+    <t>1.981</t>
+  </si>
+  <si>
+    <t>3.189</t>
+  </si>
+  <si>
+    <t>5.200</t>
+  </si>
+  <si>
+    <t>nexus_A55EB7F3F7931EDF84D720FA198C9514_20240515_1_1.PDF</t>
+  </si>
+  <si>
+    <t>YE2405EL00049247</t>
+  </si>
+  <si>
+    <t>29,85</t>
+  </si>
+  <si>
+    <t>17,29</t>
+  </si>
+  <si>
+    <t>2,50</t>
+  </si>
+  <si>
+    <t>3.303</t>
+  </si>
+  <si>
+    <t>4.450</t>
+  </si>
+  <si>
+    <t>1.643</t>
+  </si>
+  <si>
+    <t>2.345</t>
+  </si>
+  <si>
+    <t>4.501</t>
+  </si>
+  <si>
     <t>nexus_A7F84F0951111EDEB3F90EF960B3B32B_20240220_1_1.PDF</t>
   </si>
   <si>
-    <t>ES0021000015750838HK</t>
-  </si>
-  <si>
     <t>YE2402EL00021578</t>
   </si>
   <si>
@@ -8293,9 +9088,6 @@
     <t>38,04</t>
   </si>
   <si>
-    <t>1,90</t>
-  </si>
-  <si>
     <t>2,474</t>
   </si>
   <si>
@@ -8344,9 +9136,6 @@
     <t>2.853</t>
   </si>
   <si>
-    <t>3.657</t>
-  </si>
-  <si>
     <t>2.897</t>
   </si>
   <si>
@@ -9232,9 +10021,6 @@
     <t>80001038943</t>
   </si>
   <si>
-    <t>3,21</t>
-  </si>
-  <si>
     <t>4,576</t>
   </si>
   <si>
@@ -9596,9 +10382,6 @@
   </si>
   <si>
     <t>6.845</t>
-  </si>
-  <si>
-    <t>4.275</t>
   </si>
   <si>
     <t>repsol_f190fc03a8b29d99971fd4a24911c527.pdf</t>
@@ -10014,7 +10797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM246"/>
+  <dimension ref="A1:CM268"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:90" x14ac:dyDescent="0.25">
@@ -26546,7 +27329,7 @@
         <v>100</v>
       </c>
       <c r="S190">
-        <f>W190+X190+Y190+Z190+AA190+AB190+AC190</f>
+        <f>W190+Z190+AA190+AB190+AC190+V190+Y190</f>
       </c>
       <c r="T190" t="s">
         <v>696</v>
@@ -26608,7 +27391,7 @@
         <v>100</v>
       </c>
       <c r="S191">
-        <f>W191+X191+Y191+Z191+AA191+AB191+AC191</f>
+        <f>W191+Z191+AA191+AB191+AC191+V191+Y191</f>
       </c>
       <c r="T191" t="s">
         <v>2471</v>
@@ -26673,7 +27456,7 @@
         <v>100</v>
       </c>
       <c r="S192">
-        <f>W192+X192+Y192+Z192+AA192+AB192+AC192</f>
+        <f>W192+Z192+AA192+AB192+AC192+V192+Y192</f>
       </c>
       <c r="T192" t="s">
         <v>2480</v>
@@ -26807,7 +27590,7 @@
         <v>100</v>
       </c>
       <c r="S193">
-        <f>W193+X193+Y193+Z193+AA193+AB193+AC193</f>
+        <f>W193+Z193+AA193+AB193+AC193+V193+Y193</f>
       </c>
       <c r="T193" t="s">
         <v>2497</v>
@@ -26941,7 +27724,7 @@
         <v>100</v>
       </c>
       <c r="S194">
-        <f>W194+X194+Y194+Z194+AA194+AB194+AC194</f>
+        <f>W194+Z194+AA194+AB194+AC194+V194+Y194</f>
       </c>
       <c r="T194" t="s">
         <v>2519</v>
@@ -27006,7 +27789,7 @@
         <v>100</v>
       </c>
       <c r="S195">
-        <f>W195+X195+Y195+Z195+AA195+AB195+AC195</f>
+        <f>W195+Z195+AA195+AB195+AC195+V195+Y195</f>
       </c>
       <c r="T195" t="s">
         <v>594</v>
@@ -27140,7 +27923,7 @@
         <v>100</v>
       </c>
       <c r="S196">
-        <f>W196+X196+Y196+Z196+AA196+AB196+AC196</f>
+        <f>W196+Z196+AA196+AB196+AC196+V196+Y196</f>
       </c>
       <c r="T196" t="s">
         <v>2545</v>
@@ -27274,7 +28057,7 @@
         <v>100</v>
       </c>
       <c r="S197">
-        <f>W197+X197+Y197+Z197+AA197+AB197+AC197</f>
+        <f>W197+Z197+AA197+AB197+AC197+V197+Y197</f>
       </c>
       <c r="T197" t="s">
         <v>2561</v>
@@ -27411,7 +28194,7 @@
         <v>100</v>
       </c>
       <c r="S198">
-        <f>W198+X198+Y198+Z198+AA198+AB198+AC198</f>
+        <f>W198+Z198+AA198+AB198+AC198+V198+Y198</f>
       </c>
       <c r="T198" t="s">
         <v>2578</v>
@@ -27548,7 +28331,7 @@
         <v>100</v>
       </c>
       <c r="S199">
-        <f>W199+X199+Y199+Z199+AA199+AB199+AC199</f>
+        <f>W199+Z199+AA199+AB199+AC199+V199+Y199</f>
       </c>
       <c r="T199" t="s">
         <v>2480</v>
@@ -27652,7 +28435,7 @@
         <v>91</v>
       </c>
       <c r="E200" t="s">
-        <v>2591</v>
+        <v>2494</v>
       </c>
       <c r="F200" t="s">
         <v>2477</v>
@@ -27661,19 +28444,19 @@
         <v>94</v>
       </c>
       <c r="H200" t="s">
-        <v>164</v>
+        <v>2591</v>
       </c>
       <c r="I200" t="s">
         <v>2592</v>
       </c>
       <c r="J200" t="s">
+        <v>1429</v>
+      </c>
+      <c r="K200" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L200" t="s">
         <v>2593</v>
-      </c>
-      <c r="K200" t="s">
-        <v>592</v>
-      </c>
-      <c r="L200" t="s">
-        <v>2594</v>
       </c>
       <c r="Q200" t="s">
         <v>2463</v>
@@ -27682,927 +28465,1380 @@
         <v>100</v>
       </c>
       <c r="S200">
-        <f>W200+X200+Y200+Z200+AA200+AB200+AC200</f>
+        <f>W200+Z200+AA200+AB200+AC200+V200+Y200</f>
       </c>
       <c r="T200" t="s">
+        <v>2594</v>
+      </c>
+      <c r="U200" t="s">
+        <v>2593</v>
+      </c>
+      <c r="V200" t="s">
+        <v>1302</v>
+      </c>
+      <c r="W200" t="s">
+        <v>1360</v>
+      </c>
+      <c r="Y200" t="s">
         <v>2595</v>
       </c>
-      <c r="U200" t="s">
-        <v>2594</v>
-      </c>
-      <c r="V200" t="s">
+      <c r="Z200" t="s">
         <v>2596</v>
       </c>
-      <c r="W200" t="s">
-        <v>2597</v>
-      </c>
-      <c r="X200" t="s">
-        <v>951</v>
-      </c>
-      <c r="Y200" t="s">
-        <v>2598</v>
-      </c>
-      <c r="Z200" t="s">
-        <v>2599</v>
-      </c>
       <c r="AA200" t="s">
-        <v>951</v>
+        <v>2464</v>
       </c>
       <c r="AC200" t="s">
-        <v>565</v>
+        <v>160</v>
       </c>
       <c r="AD200" t="s">
-        <v>316</v>
+        <v>160</v>
       </c>
       <c r="AE200" t="s">
         <v>160</v>
       </c>
       <c r="AF200" t="s">
-        <v>160</v>
+        <v>2369</v>
       </c>
       <c r="AG200" t="s">
-        <v>160</v>
+        <v>723</v>
       </c>
       <c r="AH200" t="s">
-        <v>239</v>
+        <v>2597</v>
       </c>
       <c r="BI200" t="s">
-        <v>160</v>
+        <v>2512</v>
       </c>
       <c r="BJ200" t="s">
-        <v>160</v>
+        <v>2598</v>
       </c>
       <c r="BK200" t="s">
-        <v>160</v>
+        <v>2599</v>
       </c>
       <c r="BL200" t="s">
-        <v>160</v>
+        <v>2509</v>
       </c>
       <c r="BM200" t="s">
-        <v>160</v>
+        <v>2510</v>
       </c>
       <c r="BN200" t="s">
-        <v>160</v>
+        <v>1716</v>
       </c>
       <c r="BO200" t="s">
-        <v>565</v>
+        <v>2512</v>
       </c>
       <c r="BP200" t="s">
-        <v>316</v>
+        <v>2598</v>
       </c>
       <c r="BQ200" t="s">
-        <v>160</v>
+        <v>2599</v>
       </c>
       <c r="BR200" t="s">
-        <v>160</v>
+        <v>2600</v>
       </c>
       <c r="BS200" t="s">
-        <v>160</v>
+        <v>2601</v>
       </c>
       <c r="BT200" t="s">
-        <v>239</v>
+        <v>2602</v>
       </c>
       <c r="CA200" t="s">
-        <v>565</v>
+        <v>2512</v>
       </c>
       <c r="CB200" t="s">
-        <v>316</v>
+        <v>2598</v>
       </c>
       <c r="CC200" t="s">
-        <v>160</v>
+        <v>2599</v>
       </c>
       <c r="CD200" t="s">
-        <v>160</v>
+        <v>2600</v>
       </c>
       <c r="CE200" t="s">
-        <v>160</v>
+        <v>2601</v>
       </c>
       <c r="CF200" t="s">
-        <v>239</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="201" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>2600</v>
+        <v>2603</v>
       </c>
       <c r="D201" t="s">
         <v>91</v>
       </c>
       <c r="E201" t="s">
-        <v>2601</v>
+        <v>2604</v>
       </c>
       <c r="F201" t="s">
-        <v>93</v>
+        <v>2477</v>
       </c>
       <c r="G201" t="s">
         <v>94</v>
       </c>
       <c r="H201" t="s">
-        <v>2602</v>
+        <v>2591</v>
       </c>
       <c r="I201" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="J201" t="s">
-        <v>2604</v>
+        <v>1429</v>
       </c>
       <c r="K201" t="s">
-        <v>2605</v>
+        <v>1213</v>
       </c>
       <c r="L201" t="s">
         <v>2606</v>
       </c>
       <c r="Q201" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R201" t="s">
         <v>100</v>
       </c>
-      <c r="S201" t="s">
+      <c r="S201">
+        <f>W201+Z201+AA201+AB201+AC201+V201+Y201</f>
+      </c>
+      <c r="T201" t="s">
         <v>2607</v>
-      </c>
-      <c r="T201" t="s">
-        <v>2608</v>
       </c>
       <c r="U201" t="s">
         <v>2606</v>
       </c>
+      <c r="V201" t="s">
+        <v>2608</v>
+      </c>
+      <c r="W201" t="s">
+        <v>2609</v>
+      </c>
+      <c r="X201" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y201" t="s">
+        <v>713</v>
+      </c>
       <c r="Z201" t="s">
-        <v>697</v>
+        <v>2464</v>
+      </c>
+      <c r="AA201" t="s">
+        <v>169</v>
       </c>
       <c r="AC201" t="s">
-        <v>2609</v>
+        <v>160</v>
       </c>
       <c r="AD201" t="s">
-        <v>347</v>
+        <v>160</v>
       </c>
       <c r="AE201" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF201" t="s">
+        <v>953</v>
+      </c>
+      <c r="AG201" t="s">
+        <v>888</v>
+      </c>
+      <c r="AH201" t="s">
+        <v>206</v>
+      </c>
+      <c r="BI201" t="s">
         <v>2610</v>
       </c>
-      <c r="AO201" t="s">
+      <c r="BJ201" t="s">
         <v>2611</v>
       </c>
-      <c r="AQ201" t="s">
+      <c r="BK201" t="s">
         <v>2612</v>
       </c>
-      <c r="AU201" t="s">
+      <c r="BL201" t="s">
         <v>2613</v>
       </c>
-      <c r="AW201" t="s">
-        <v>2613</v>
+      <c r="BM201" t="s">
+        <v>2614</v>
+      </c>
+      <c r="BN201" t="s">
+        <v>2615</v>
+      </c>
+      <c r="BO201" t="s">
+        <v>2610</v>
+      </c>
+      <c r="BP201" t="s">
+        <v>2611</v>
+      </c>
+      <c r="BQ201" t="s">
+        <v>2612</v>
+      </c>
+      <c r="BR201" t="s">
+        <v>2616</v>
+      </c>
+      <c r="BS201" t="s">
+        <v>2617</v>
+      </c>
+      <c r="BT201" t="s">
+        <v>2618</v>
+      </c>
+      <c r="CA201" t="s">
+        <v>2610</v>
+      </c>
+      <c r="CB201" t="s">
+        <v>2611</v>
+      </c>
+      <c r="CC201" t="s">
+        <v>2612</v>
+      </c>
+      <c r="CD201" t="s">
+        <v>2616</v>
+      </c>
+      <c r="CE201" t="s">
+        <v>2617</v>
+      </c>
+      <c r="CF201" t="s">
+        <v>2618</v>
       </c>
     </row>
     <row r="202" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>2614</v>
+        <v>2619</v>
       </c>
       <c r="D202" t="s">
         <v>91</v>
       </c>
       <c r="E202" t="s">
-        <v>2615</v>
+        <v>2620</v>
       </c>
       <c r="F202" t="s">
-        <v>93</v>
+        <v>2477</v>
       </c>
       <c r="G202" t="s">
         <v>94</v>
       </c>
       <c r="H202" t="s">
-        <v>2616</v>
+        <v>2591</v>
       </c>
       <c r="I202" t="s">
-        <v>2617</v>
+        <v>2621</v>
       </c>
       <c r="J202" t="s">
-        <v>2618</v>
+        <v>1429</v>
       </c>
       <c r="K202" t="s">
-        <v>2619</v>
+        <v>1952</v>
       </c>
       <c r="L202" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="Q202" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R202" t="s">
         <v>100</v>
       </c>
-      <c r="S202" t="s">
-        <v>2621</v>
+      <c r="S202">
+        <f>W202+Z202+AA202+AB202+AC202+V202+Y202</f>
       </c>
       <c r="T202" t="s">
+        <v>1755</v>
+      </c>
+      <c r="U202" t="s">
         <v>2622</v>
       </c>
-      <c r="U202" t="s">
-        <v>2620</v>
+      <c r="V202" t="s">
+        <v>2623</v>
+      </c>
+      <c r="W202" t="s">
+        <v>2624</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>2474</v>
       </c>
       <c r="Z202" t="s">
-        <v>1127</v>
+        <v>2029</v>
+      </c>
+      <c r="AA202" t="s">
+        <v>2464</v>
       </c>
       <c r="AC202" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="AD202" t="s">
-        <v>1989</v>
+        <v>160</v>
       </c>
       <c r="AE202" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO202" t="s">
-        <v>2623</v>
-      </c>
-      <c r="AQ202" t="s">
-        <v>2624</v>
-      </c>
-      <c r="AU202" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF202" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG202" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AH202" t="s">
+        <v>170</v>
+      </c>
+      <c r="BI202" t="s">
         <v>2625</v>
       </c>
-      <c r="AW202" t="s">
-        <v>2625</v>
-      </c>
-      <c r="BI202" t="s">
+      <c r="BJ202" t="s">
         <v>2626</v>
-      </c>
-      <c r="BJ202" t="s">
-        <v>1219</v>
       </c>
       <c r="BK202" t="s">
         <v>2627</v>
       </c>
+      <c r="BL202" t="s">
+        <v>2628</v>
+      </c>
+      <c r="BM202" t="s">
+        <v>1008</v>
+      </c>
+      <c r="BN202" t="s">
+        <v>2629</v>
+      </c>
       <c r="BO202" t="s">
-        <v>2628</v>
+        <v>2625</v>
       </c>
       <c r="BP202" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="BQ202" t="s">
-        <v>1396</v>
+        <v>2627</v>
+      </c>
+      <c r="BR202" t="s">
+        <v>285</v>
+      </c>
+      <c r="BS202" t="s">
+        <v>2630</v>
+      </c>
+      <c r="BT202" t="s">
+        <v>2631</v>
+      </c>
+      <c r="CA202" t="s">
+        <v>2625</v>
+      </c>
+      <c r="CB202" t="s">
+        <v>2626</v>
+      </c>
+      <c r="CC202" t="s">
+        <v>2627</v>
+      </c>
+      <c r="CD202" t="s">
+        <v>285</v>
+      </c>
+      <c r="CE202" t="s">
+        <v>2630</v>
+      </c>
+      <c r="CF202" t="s">
+        <v>2631</v>
       </c>
     </row>
     <row r="203" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="D203" t="s">
         <v>91</v>
       </c>
       <c r="E203" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="F203" t="s">
-        <v>93</v>
+        <v>2477</v>
       </c>
       <c r="G203" t="s">
         <v>94</v>
       </c>
       <c r="H203" t="s">
-        <v>2602</v>
+        <v>2591</v>
       </c>
       <c r="I203" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="J203" t="s">
-        <v>2604</v>
+        <v>1429</v>
       </c>
       <c r="K203" t="s">
-        <v>2605</v>
+        <v>1952</v>
       </c>
       <c r="L203" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="Q203" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R203" t="s">
         <v>100</v>
       </c>
-      <c r="S203" t="s">
-        <v>2634</v>
+      <c r="S203">
+        <f>W203+Z203+AA203+AB203+AC203+V203+Y203</f>
       </c>
       <c r="T203" t="s">
+        <v>785</v>
+      </c>
+      <c r="U203" t="s">
         <v>2635</v>
       </c>
-      <c r="U203" t="s">
-        <v>2633</v>
+      <c r="V203" t="s">
+        <v>2636</v>
+      </c>
+      <c r="W203" t="s">
+        <v>2637</v>
+      </c>
+      <c r="Y203" t="s">
+        <v>2638</v>
       </c>
       <c r="Z203" t="s">
-        <v>697</v>
-      </c>
-      <c r="AO203" t="s">
-        <v>2636</v>
-      </c>
-      <c r="AQ203" t="s">
-        <v>2637</v>
-      </c>
-      <c r="AU203" t="s">
-        <v>2638</v>
-      </c>
-      <c r="AW203" t="s">
-        <v>2638</v>
+        <v>2029</v>
+      </c>
+      <c r="AA203" t="s">
+        <v>2464</v>
+      </c>
+      <c r="AC203" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD203" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE203" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF203" t="s">
+        <v>332</v>
+      </c>
+      <c r="AG203" t="s">
+        <v>356</v>
+      </c>
+      <c r="AH203" t="s">
+        <v>739</v>
       </c>
       <c r="BI203" t="s">
+        <v>1475</v>
+      </c>
+      <c r="BJ203" t="s">
         <v>2639</v>
       </c>
-      <c r="BJ203" t="s">
+      <c r="BK203" t="s">
         <v>2640</v>
       </c>
-      <c r="BK203" t="s">
+      <c r="BL203" t="s">
         <v>2641</v>
       </c>
+      <c r="BM203" t="s">
+        <v>2642</v>
+      </c>
+      <c r="BN203" t="s">
+        <v>2643</v>
+      </c>
       <c r="BO203" t="s">
-        <v>2642</v>
+        <v>1475</v>
       </c>
       <c r="BP203" t="s">
-        <v>2643</v>
+        <v>2639</v>
       </c>
       <c r="BQ203" t="s">
+        <v>2640</v>
+      </c>
+      <c r="BR203" t="s">
         <v>2644</v>
+      </c>
+      <c r="BS203" t="s">
+        <v>2645</v>
+      </c>
+      <c r="BT203" t="s">
+        <v>2646</v>
+      </c>
+      <c r="CA203" t="s">
+        <v>1475</v>
+      </c>
+      <c r="CB203" t="s">
+        <v>2639</v>
+      </c>
+      <c r="CC203" t="s">
+        <v>2640</v>
+      </c>
+      <c r="CD203" t="s">
+        <v>2644</v>
+      </c>
+      <c r="CE203" t="s">
+        <v>2645</v>
+      </c>
+      <c r="CF203" t="s">
+        <v>2646</v>
       </c>
     </row>
     <row r="204" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>2645</v>
+        <v>2647</v>
       </c>
       <c r="D204" t="s">
         <v>91</v>
       </c>
       <c r="E204" t="s">
-        <v>2646</v>
+        <v>2648</v>
       </c>
       <c r="F204" t="s">
-        <v>93</v>
+        <v>2477</v>
       </c>
       <c r="G204" t="s">
         <v>94</v>
       </c>
       <c r="H204" t="s">
-        <v>2602</v>
+        <v>2591</v>
       </c>
       <c r="I204" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c r="J204" t="s">
-        <v>2648</v>
+        <v>1429</v>
       </c>
       <c r="K204" t="s">
-        <v>2649</v>
+        <v>1952</v>
       </c>
       <c r="L204" t="s">
         <v>2650</v>
       </c>
       <c r="Q204" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R204" t="s">
         <v>100</v>
       </c>
-      <c r="S204" t="s">
+      <c r="S204">
+        <f>W204+Z204+AA204+AB204+AC204+V204+Y204</f>
+      </c>
+      <c r="T204" t="s">
         <v>2651</v>
-      </c>
-      <c r="T204" t="s">
-        <v>337</v>
       </c>
       <c r="U204" t="s">
         <v>2650</v>
       </c>
+      <c r="V204" t="s">
+        <v>2636</v>
+      </c>
+      <c r="W204" t="s">
+        <v>2652</v>
+      </c>
       <c r="Y204" t="s">
-        <v>2652</v>
+        <v>987</v>
       </c>
       <c r="Z204" t="s">
-        <v>123</v>
+        <v>2029</v>
+      </c>
+      <c r="AA204" t="s">
+        <v>2464</v>
       </c>
       <c r="AC204" t="s">
-        <v>1794</v>
+        <v>160</v>
       </c>
       <c r="AD204" t="s">
-        <v>1161</v>
+        <v>160</v>
       </c>
       <c r="AE204" t="s">
-        <v>1363</v>
-      </c>
-      <c r="AO204" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF204" t="s">
+        <v>791</v>
+      </c>
+      <c r="AG204" t="s">
+        <v>564</v>
+      </c>
+      <c r="AH204" t="s">
+        <v>314</v>
+      </c>
+      <c r="BI204" t="s">
+        <v>1994</v>
+      </c>
+      <c r="BJ204" t="s">
         <v>2653</v>
       </c>
-      <c r="AQ204" t="s">
+      <c r="BK204" t="s">
         <v>2654</v>
       </c>
-      <c r="AU204" t="s">
-        <v>2613</v>
-      </c>
-      <c r="AW204" t="s">
-        <v>2613</v>
+      <c r="BL204" t="s">
+        <v>2655</v>
+      </c>
+      <c r="BM204" t="s">
+        <v>2656</v>
+      </c>
+      <c r="BN204" t="s">
+        <v>2657</v>
+      </c>
+      <c r="BO204" t="s">
+        <v>1994</v>
+      </c>
+      <c r="BP204" t="s">
+        <v>2653</v>
+      </c>
+      <c r="BQ204" t="s">
+        <v>2654</v>
+      </c>
+      <c r="BR204" t="s">
+        <v>2658</v>
+      </c>
+      <c r="BS204" t="s">
+        <v>2659</v>
+      </c>
+      <c r="BT204" t="s">
+        <v>2660</v>
+      </c>
+      <c r="CA204" t="s">
+        <v>1994</v>
+      </c>
+      <c r="CB204" t="s">
+        <v>2653</v>
+      </c>
+      <c r="CC204" t="s">
+        <v>2654</v>
+      </c>
+      <c r="CD204" t="s">
+        <v>2658</v>
+      </c>
+      <c r="CE204" t="s">
+        <v>2659</v>
+      </c>
+      <c r="CF204" t="s">
+        <v>2660</v>
       </c>
     </row>
     <row r="205" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>2655</v>
+        <v>2661</v>
       </c>
       <c r="D205" t="s">
         <v>91</v>
       </c>
       <c r="E205" t="s">
-        <v>2656</v>
+        <v>2662</v>
       </c>
       <c r="F205" t="s">
-        <v>93</v>
+        <v>2477</v>
       </c>
       <c r="G205" t="s">
         <v>94</v>
       </c>
       <c r="H205" t="s">
-        <v>2657</v>
+        <v>2591</v>
       </c>
       <c r="I205" t="s">
-        <v>2658</v>
+        <v>2663</v>
       </c>
       <c r="J205" t="s">
-        <v>2659</v>
+        <v>1429</v>
       </c>
       <c r="K205" t="s">
-        <v>2660</v>
+        <v>1213</v>
       </c>
       <c r="L205" t="s">
-        <v>2661</v>
+        <v>2664</v>
       </c>
       <c r="Q205" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R205" t="s">
         <v>100</v>
       </c>
+      <c r="S205">
+        <f>W205+Z205+AA205+AB205+AC205+V205+Y205</f>
+      </c>
       <c r="T205" t="s">
-        <v>2662</v>
+        <v>2665</v>
       </c>
       <c r="U205" t="s">
-        <v>2661</v>
+        <v>2664</v>
+      </c>
+      <c r="V205" t="s">
+        <v>2530</v>
+      </c>
+      <c r="W205" t="s">
+        <v>2666</v>
       </c>
       <c r="Y205" t="s">
-        <v>450</v>
+        <v>2145</v>
       </c>
       <c r="Z205" t="s">
-        <v>354</v>
+        <v>789</v>
+      </c>
+      <c r="AA205" t="s">
+        <v>2464</v>
       </c>
       <c r="AC205" t="s">
-        <v>241</v>
+        <v>160</v>
       </c>
       <c r="AD205" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="AE205" t="s">
-        <v>1794</v>
-      </c>
-      <c r="AO205" t="s">
-        <v>2663</v>
-      </c>
-      <c r="AQ205" t="s">
-        <v>2664</v>
-      </c>
-      <c r="AU205" t="s">
-        <v>2613</v>
-      </c>
-      <c r="AW205" t="s">
-        <v>2613</v>
+        <v>160</v>
+      </c>
+      <c r="AF205" t="s">
+        <v>732</v>
+      </c>
+      <c r="AG205" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH205" t="s">
+        <v>328</v>
       </c>
       <c r="BI205" t="s">
-        <v>2665</v>
+        <v>2667</v>
       </c>
       <c r="BJ205" t="s">
-        <v>2666</v>
+        <v>2668</v>
       </c>
       <c r="BK205" t="s">
+        <v>2669</v>
+      </c>
+      <c r="BL205" t="s">
+        <v>2670</v>
+      </c>
+      <c r="BM205" t="s">
+        <v>2671</v>
+      </c>
+      <c r="BN205" t="s">
+        <v>2672</v>
+      </c>
+      <c r="BO205" t="s">
         <v>2667</v>
       </c>
-      <c r="BO205" t="s">
+      <c r="BP205" t="s">
         <v>2668</v>
       </c>
-      <c r="BP205" t="s">
+      <c r="BQ205" t="s">
         <v>2669</v>
       </c>
-      <c r="BQ205" t="s">
-        <v>2670</v>
+      <c r="BR205" t="s">
+        <v>2673</v>
+      </c>
+      <c r="BS205" t="s">
+        <v>2674</v>
+      </c>
+      <c r="BT205" t="s">
+        <v>2675</v>
+      </c>
+      <c r="CA205" t="s">
+        <v>2667</v>
+      </c>
+      <c r="CB205" t="s">
+        <v>2668</v>
+      </c>
+      <c r="CC205" t="s">
+        <v>2669</v>
+      </c>
+      <c r="CD205" t="s">
+        <v>2673</v>
+      </c>
+      <c r="CE205" t="s">
+        <v>2674</v>
+      </c>
+      <c r="CF205" t="s">
+        <v>2675</v>
       </c>
     </row>
     <row r="206" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>2671</v>
+        <v>2676</v>
       </c>
       <c r="D206" t="s">
         <v>91</v>
       </c>
       <c r="E206" t="s">
-        <v>2672</v>
+        <v>2677</v>
       </c>
       <c r="F206" t="s">
-        <v>93</v>
+        <v>2477</v>
       </c>
       <c r="G206" t="s">
         <v>94</v>
       </c>
       <c r="H206" t="s">
-        <v>2657</v>
+        <v>2591</v>
       </c>
       <c r="I206" t="s">
-        <v>2673</v>
+        <v>2678</v>
       </c>
       <c r="J206" t="s">
-        <v>2674</v>
+        <v>1429</v>
       </c>
       <c r="K206" t="s">
-        <v>2660</v>
+        <v>1965</v>
       </c>
       <c r="L206" t="s">
-        <v>2675</v>
+        <v>2679</v>
       </c>
       <c r="Q206" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R206" t="s">
         <v>100</v>
       </c>
+      <c r="S206">
+        <f>W206+Z206+AA206+AB206+AC206+V206+Y206</f>
+      </c>
       <c r="T206" t="s">
-        <v>2676</v>
+        <v>2680</v>
       </c>
       <c r="U206" t="s">
-        <v>2675</v>
+        <v>2679</v>
+      </c>
+      <c r="V206" t="s">
+        <v>2681</v>
+      </c>
+      <c r="W206" t="s">
+        <v>2682</v>
+      </c>
+      <c r="X206" t="s">
+        <v>681</v>
       </c>
       <c r="Y206" t="s">
-        <v>869</v>
+        <v>1978</v>
       </c>
       <c r="Z206" t="s">
-        <v>2677</v>
+        <v>2683</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>681</v>
       </c>
       <c r="AC206" t="s">
-        <v>1942</v>
+        <v>160</v>
       </c>
       <c r="AD206" t="s">
-        <v>1957</v>
+        <v>160</v>
       </c>
       <c r="AE206" t="s">
-        <v>1957</v>
-      </c>
-      <c r="AO206" t="s">
-        <v>2678</v>
-      </c>
-      <c r="AQ206" t="s">
-        <v>2679</v>
-      </c>
-      <c r="AU206" t="s">
-        <v>2625</v>
-      </c>
-      <c r="AW206" t="s">
-        <v>2625</v>
+        <v>160</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AG206" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH206" t="s">
+        <v>189</v>
       </c>
       <c r="BI206" t="s">
-        <v>2680</v>
+        <v>2684</v>
       </c>
       <c r="BJ206" t="s">
-        <v>2681</v>
+        <v>2685</v>
       </c>
       <c r="BK206" t="s">
-        <v>2682</v>
+        <v>2686</v>
+      </c>
+      <c r="BL206" t="s">
+        <v>1700</v>
+      </c>
+      <c r="BM206" t="s">
+        <v>2687</v>
+      </c>
+      <c r="BN206" t="s">
+        <v>2688</v>
       </c>
       <c r="BO206" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="BP206" t="s">
+        <v>2685</v>
+      </c>
+      <c r="BQ206" t="s">
+        <v>2686</v>
+      </c>
+      <c r="BR206" t="s">
+        <v>2689</v>
+      </c>
+      <c r="BS206" t="s">
+        <v>2690</v>
+      </c>
+      <c r="BT206" t="s">
+        <v>2691</v>
+      </c>
+      <c r="CA206" t="s">
         <v>2684</v>
       </c>
-      <c r="BQ206" t="s">
+      <c r="CB206" t="s">
         <v>2685</v>
+      </c>
+      <c r="CC206" t="s">
+        <v>2686</v>
+      </c>
+      <c r="CD206" t="s">
+        <v>2689</v>
+      </c>
+      <c r="CE206" t="s">
+        <v>2690</v>
+      </c>
+      <c r="CF206" t="s">
+        <v>2691</v>
       </c>
     </row>
     <row r="207" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>2686</v>
+        <v>2692</v>
       </c>
       <c r="D207" t="s">
         <v>91</v>
       </c>
       <c r="E207" t="s">
-        <v>2687</v>
+        <v>2693</v>
       </c>
       <c r="F207" t="s">
-        <v>93</v>
+        <v>2477</v>
       </c>
       <c r="G207" t="s">
         <v>94</v>
       </c>
       <c r="H207" t="s">
-        <v>2602</v>
+        <v>2591</v>
       </c>
       <c r="I207" t="s">
-        <v>2688</v>
+        <v>2694</v>
       </c>
       <c r="J207" t="s">
-        <v>2648</v>
+        <v>1429</v>
       </c>
       <c r="K207" t="s">
-        <v>2689</v>
+        <v>1952</v>
       </c>
       <c r="L207" t="s">
-        <v>2690</v>
+        <v>2695</v>
       </c>
       <c r="Q207" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R207" t="s">
         <v>100</v>
       </c>
-      <c r="S207" t="s">
-        <v>2691</v>
+      <c r="S207">
+        <f>W207+Z207+AA207+AB207+AC207+V207+Y207</f>
       </c>
       <c r="T207" t="s">
-        <v>2692</v>
+        <v>2696</v>
       </c>
       <c r="U207" t="s">
-        <v>2690</v>
+        <v>2695</v>
+      </c>
+      <c r="V207" t="s">
+        <v>2697</v>
+      </c>
+      <c r="W207" t="s">
+        <v>2698</v>
+      </c>
+      <c r="X207" t="s">
+        <v>1891</v>
       </c>
       <c r="Y207" t="s">
-        <v>819</v>
+        <v>2699</v>
       </c>
       <c r="Z207" t="s">
-        <v>159</v>
+        <v>2596</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>1891</v>
       </c>
       <c r="AC207" t="s">
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="AD207" t="s">
-        <v>2548</v>
+        <v>160</v>
       </c>
       <c r="AE207" t="s">
-        <v>2693</v>
-      </c>
-      <c r="AO207" t="s">
-        <v>2694</v>
-      </c>
-      <c r="AQ207" t="s">
-        <v>2695</v>
-      </c>
-      <c r="AU207" t="s">
-        <v>2696</v>
-      </c>
-      <c r="AW207" t="s">
-        <v>2696</v>
+        <v>160</v>
+      </c>
+      <c r="AF207" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AG207" t="s">
+        <v>517</v>
+      </c>
+      <c r="AH207" t="s">
+        <v>502</v>
+      </c>
+      <c r="BI207" t="s">
+        <v>2700</v>
+      </c>
+      <c r="BJ207" t="s">
+        <v>2701</v>
+      </c>
+      <c r="BK207" t="s">
+        <v>175</v>
+      </c>
+      <c r="BL207" t="s">
+        <v>2702</v>
+      </c>
+      <c r="BM207" t="s">
+        <v>2703</v>
+      </c>
+      <c r="BN207" t="s">
+        <v>2704</v>
+      </c>
+      <c r="BO207" t="s">
+        <v>2700</v>
+      </c>
+      <c r="BP207" t="s">
+        <v>2701</v>
+      </c>
+      <c r="BQ207" t="s">
+        <v>175</v>
+      </c>
+      <c r="BR207" t="s">
+        <v>2705</v>
+      </c>
+      <c r="BS207" t="s">
+        <v>2706</v>
+      </c>
+      <c r="BT207" t="s">
+        <v>2707</v>
+      </c>
+      <c r="CA207" t="s">
+        <v>2700</v>
+      </c>
+      <c r="CB207" t="s">
+        <v>2701</v>
+      </c>
+      <c r="CC207" t="s">
+        <v>175</v>
+      </c>
+      <c r="CD207" t="s">
+        <v>2705</v>
+      </c>
+      <c r="CE207" t="s">
+        <v>2706</v>
+      </c>
+      <c r="CF207" t="s">
+        <v>2707</v>
       </c>
     </row>
     <row r="208" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>2697</v>
+        <v>2708</v>
       </c>
       <c r="D208" t="s">
         <v>91</v>
       </c>
       <c r="E208" t="s">
-        <v>2698</v>
+        <v>2709</v>
       </c>
       <c r="F208" t="s">
-        <v>93</v>
+        <v>2477</v>
       </c>
       <c r="G208" t="s">
         <v>94</v>
       </c>
       <c r="H208" t="s">
-        <v>2602</v>
+        <v>2591</v>
       </c>
       <c r="I208" t="s">
-        <v>2699</v>
+        <v>2710</v>
       </c>
       <c r="J208" t="s">
-        <v>2648</v>
+        <v>1429</v>
       </c>
       <c r="K208" t="s">
-        <v>2700</v>
+        <v>1952</v>
       </c>
       <c r="L208" t="s">
-        <v>2701</v>
+        <v>2711</v>
       </c>
       <c r="Q208" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R208" t="s">
         <v>100</v>
       </c>
-      <c r="S208" t="s">
-        <v>2702</v>
+      <c r="S208">
+        <f>W208+Z208+AA208+AB208+AC208+V208+Y208</f>
       </c>
       <c r="T208" t="s">
-        <v>2703</v>
+        <v>2712</v>
       </c>
       <c r="U208" t="s">
-        <v>2701</v>
+        <v>2711</v>
+      </c>
+      <c r="V208" t="s">
+        <v>2713</v>
+      </c>
+      <c r="W208" t="s">
+        <v>2714</v>
       </c>
       <c r="Y208" t="s">
-        <v>354</v>
+        <v>2715</v>
       </c>
       <c r="Z208" t="s">
-        <v>2704</v>
+        <v>2596</v>
+      </c>
+      <c r="AA208" t="s">
+        <v>2464</v>
       </c>
       <c r="AC208" t="s">
-        <v>2705</v>
+        <v>160</v>
       </c>
       <c r="AD208" t="s">
-        <v>2706</v>
+        <v>160</v>
       </c>
       <c r="AE208" t="s">
-        <v>2707</v>
-      </c>
-      <c r="AO208" t="s">
-        <v>2708</v>
-      </c>
-      <c r="AQ208" t="s">
-        <v>2709</v>
-      </c>
-      <c r="AU208" t="s">
-        <v>2710</v>
-      </c>
-      <c r="AW208" t="s">
-        <v>2710</v>
+        <v>160</v>
+      </c>
+      <c r="AF208" t="s">
+        <v>2716</v>
+      </c>
+      <c r="AG208" t="s">
+        <v>2717</v>
+      </c>
+      <c r="AH208" t="s">
+        <v>2080</v>
       </c>
       <c r="BI208" t="s">
-        <v>2711</v>
+        <v>2718</v>
       </c>
       <c r="BJ208" t="s">
-        <v>2712</v>
+        <v>2719</v>
       </c>
       <c r="BK208" t="s">
-        <v>2713</v>
+        <v>2720</v>
+      </c>
+      <c r="BL208" t="s">
+        <v>2721</v>
+      </c>
+      <c r="BM208" t="s">
+        <v>2722</v>
+      </c>
+      <c r="BN208" t="s">
+        <v>2723</v>
       </c>
       <c r="BO208" t="s">
-        <v>2714</v>
+        <v>2718</v>
       </c>
       <c r="BP208" t="s">
-        <v>2715</v>
+        <v>2719</v>
       </c>
       <c r="BQ208" t="s">
-        <v>2716</v>
+        <v>2720</v>
+      </c>
+      <c r="BR208" t="s">
+        <v>2724</v>
+      </c>
+      <c r="BS208" t="s">
+        <v>2725</v>
+      </c>
+      <c r="BT208" t="s">
+        <v>2726</v>
+      </c>
+      <c r="CA208" t="s">
+        <v>2718</v>
+      </c>
+      <c r="CB208" t="s">
+        <v>2719</v>
+      </c>
+      <c r="CC208" t="s">
+        <v>2720</v>
+      </c>
+      <c r="CD208" t="s">
+        <v>2724</v>
+      </c>
+      <c r="CE208" t="s">
+        <v>2725</v>
+      </c>
+      <c r="CF208" t="s">
+        <v>2726</v>
       </c>
     </row>
     <row r="209" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>2717</v>
+        <v>2727</v>
       </c>
       <c r="D209" t="s">
         <v>91</v>
       </c>
       <c r="E209" t="s">
-        <v>2718</v>
+        <v>2728</v>
       </c>
       <c r="F209" t="s">
-        <v>93</v>
+        <v>2477</v>
       </c>
       <c r="G209" t="s">
         <v>94</v>
       </c>
       <c r="H209" t="s">
-        <v>2616</v>
+        <v>2591</v>
       </c>
       <c r="I209" t="s">
-        <v>2719</v>
+        <v>2729</v>
       </c>
       <c r="J209" t="s">
-        <v>2648</v>
+        <v>1429</v>
       </c>
       <c r="K209" t="s">
-        <v>2700</v>
+        <v>1952</v>
       </c>
       <c r="L209" t="s">
-        <v>2720</v>
+        <v>2730</v>
       </c>
       <c r="Q209" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R209" t="s">
         <v>100</v>
       </c>
-      <c r="S209" t="s">
-        <v>2721</v>
+      <c r="S209">
+        <f>W209+Z209+AA209+AB209+AC209+V209+Y209</f>
       </c>
       <c r="T209" t="s">
-        <v>2722</v>
+        <v>2731</v>
       </c>
       <c r="U209" t="s">
-        <v>2720</v>
+        <v>2730</v>
+      </c>
+      <c r="V209" t="s">
+        <v>2732</v>
+      </c>
+      <c r="W209" t="s">
+        <v>2733</v>
+      </c>
+      <c r="X209" t="s">
+        <v>1125</v>
       </c>
       <c r="Y209" t="s">
-        <v>2723</v>
+        <v>1610</v>
       </c>
       <c r="Z209" t="s">
-        <v>2704</v>
+        <v>2596</v>
+      </c>
+      <c r="AA209" t="s">
+        <v>1125</v>
       </c>
       <c r="AC209" t="s">
-        <v>850</v>
+        <v>160</v>
       </c>
       <c r="AD209" t="s">
-        <v>931</v>
+        <v>160</v>
       </c>
       <c r="AE209" t="s">
-        <v>1062</v>
-      </c>
-      <c r="AO209" t="s">
-        <v>2724</v>
-      </c>
-      <c r="AQ209" t="s">
-        <v>2725</v>
-      </c>
-      <c r="AU209" t="s">
-        <v>2726</v>
-      </c>
-      <c r="AW209" t="s">
-        <v>2726</v>
+        <v>160</v>
+      </c>
+      <c r="AF209" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG209" t="s">
+        <v>582</v>
+      </c>
+      <c r="AH209" t="s">
+        <v>1016</v>
       </c>
       <c r="BI209" t="s">
-        <v>2727</v>
+        <v>1668</v>
       </c>
       <c r="BJ209" t="s">
-        <v>2728</v>
+        <v>2734</v>
       </c>
       <c r="BK209" t="s">
-        <v>2729</v>
+        <v>533</v>
+      </c>
+      <c r="BL209" t="s">
+        <v>160</v>
+      </c>
+      <c r="BM209" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN209" t="s">
+        <v>2735</v>
       </c>
       <c r="BO209" t="s">
-        <v>2730</v>
+        <v>1668</v>
       </c>
       <c r="BP209" t="s">
-        <v>2289</v>
+        <v>2734</v>
       </c>
       <c r="BQ209" t="s">
-        <v>2731</v>
+        <v>533</v>
+      </c>
+      <c r="BR209" t="s">
+        <v>170</v>
+      </c>
+      <c r="BS209" t="s">
+        <v>582</v>
+      </c>
+      <c r="BT209" t="s">
+        <v>2736</v>
+      </c>
+      <c r="CA209" t="s">
+        <v>1668</v>
+      </c>
+      <c r="CB209" t="s">
+        <v>2734</v>
+      </c>
+      <c r="CC209" t="s">
+        <v>533</v>
+      </c>
+      <c r="CD209" t="s">
+        <v>170</v>
+      </c>
+      <c r="CE209" t="s">
+        <v>582</v>
+      </c>
+      <c r="CF209" t="s">
+        <v>2736</v>
       </c>
     </row>
     <row r="210" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>2732</v>
+        <v>2737</v>
       </c>
       <c r="D210" t="s">
         <v>91</v>
       </c>
       <c r="E210" t="s">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="F210" t="s">
-        <v>93</v>
+        <v>2460</v>
       </c>
       <c r="G210" t="s">
         <v>94</v>
       </c>
       <c r="H210" t="s">
-        <v>2657</v>
+        <v>2591</v>
       </c>
       <c r="I210" t="s">
-        <v>2734</v>
+        <v>2739</v>
       </c>
       <c r="J210" t="s">
-        <v>2735</v>
+        <v>1429</v>
       </c>
       <c r="K210" t="s">
-        <v>2736</v>
+        <v>1952</v>
       </c>
       <c r="L210" t="s">
-        <v>2737</v>
+        <v>2740</v>
       </c>
       <c r="Q210" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R210" t="s">
         <v>100</v>
       </c>
-      <c r="S210" t="s">
-        <v>2738</v>
+      <c r="S210">
+        <f>W210+Z210+AA210+AB210+AC210+V210+Y210</f>
       </c>
       <c r="T210" t="s">
-        <v>2739</v>
+        <v>2741</v>
       </c>
       <c r="U210" t="s">
-        <v>2737</v>
+        <v>2740</v>
+      </c>
+      <c r="V210" t="s">
+        <v>2742</v>
+      </c>
+      <c r="W210" t="s">
+        <v>2743</v>
       </c>
       <c r="Y210" t="s">
-        <v>1552</v>
+        <v>2107</v>
       </c>
       <c r="Z210" t="s">
-        <v>2101</v>
-      </c>
-      <c r="AC210" t="s">
-        <v>2740</v>
-      </c>
-      <c r="AD210" t="s">
-        <v>2741</v>
-      </c>
-      <c r="AE210" t="s">
-        <v>2742</v>
-      </c>
-      <c r="AO210" t="s">
-        <v>2743</v>
-      </c>
-      <c r="AQ210" t="s">
         <v>2744</v>
       </c>
-      <c r="AU210" t="s">
-        <v>2625</v>
-      </c>
-      <c r="AW210" t="s">
-        <v>2625</v>
+      <c r="AA210" t="s">
+        <v>2464</v>
       </c>
     </row>
     <row r="211" spans="1:91" x14ac:dyDescent="0.25">
@@ -28613,973 +29849,1345 @@
         <v>91</v>
       </c>
       <c r="E211" t="s">
-        <v>2746</v>
+        <v>2516</v>
       </c>
       <c r="F211" t="s">
-        <v>93</v>
+        <v>2460</v>
       </c>
       <c r="G211" t="s">
         <v>94</v>
       </c>
       <c r="H211" t="s">
-        <v>2616</v>
+        <v>2591</v>
       </c>
       <c r="I211" t="s">
+        <v>2746</v>
+      </c>
+      <c r="J211" t="s">
+        <v>1429</v>
+      </c>
+      <c r="K211" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L211" t="s">
         <v>2747</v>
       </c>
-      <c r="J211" t="s">
-        <v>2748</v>
-      </c>
-      <c r="K211" t="s">
-        <v>2749</v>
-      </c>
-      <c r="L211" t="s">
-        <v>2750</v>
-      </c>
       <c r="Q211" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R211" t="s">
         <v>100</v>
       </c>
-      <c r="S211" t="s">
+      <c r="S211">
+        <f>W211+Z211+AA211+AB211+AC211+V211+Y211</f>
+      </c>
+      <c r="T211" t="s">
+        <v>2748</v>
+      </c>
+      <c r="U211" t="s">
+        <v>2747</v>
+      </c>
+      <c r="V211" t="s">
+        <v>2749</v>
+      </c>
+      <c r="W211" t="s">
+        <v>2750</v>
+      </c>
+      <c r="X211" t="s">
         <v>2751</v>
-      </c>
-      <c r="T211" t="s">
-        <v>951</v>
-      </c>
-      <c r="U211" t="s">
-        <v>2750</v>
       </c>
       <c r="Y211" t="s">
         <v>2752</v>
       </c>
       <c r="Z211" t="s">
-        <v>1851</v>
-      </c>
-      <c r="AC211" t="s">
-        <v>564</v>
-      </c>
-      <c r="AD211" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE211" t="s">
-        <v>565</v>
-      </c>
-      <c r="AO211" t="s">
         <v>2753</v>
       </c>
-      <c r="AQ211" t="s">
-        <v>2754</v>
-      </c>
-      <c r="AU211" t="s">
-        <v>1432</v>
-      </c>
-      <c r="AW211" t="s">
-        <v>1432</v>
+      <c r="AA211" t="s">
+        <v>2751</v>
       </c>
     </row>
     <row r="212" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D212" t="s">
         <v>91</v>
       </c>
       <c r="E212" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="F212" t="s">
-        <v>93</v>
+        <v>2477</v>
       </c>
       <c r="G212" t="s">
         <v>94</v>
       </c>
       <c r="H212" t="s">
-        <v>2616</v>
+        <v>2591</v>
       </c>
       <c r="I212" t="s">
+        <v>2756</v>
+      </c>
+      <c r="J212" t="s">
+        <v>1429</v>
+      </c>
+      <c r="K212" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L212" t="s">
         <v>2757</v>
       </c>
-      <c r="J212" t="s">
-        <v>2648</v>
-      </c>
-      <c r="K212" t="s">
-        <v>2700</v>
-      </c>
-      <c r="L212" t="s">
-        <v>2758</v>
-      </c>
       <c r="Q212" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R212" t="s">
         <v>100</v>
       </c>
-      <c r="S212" t="s">
+      <c r="S212">
+        <f>W212+Z212+AA212+AB212+AC212+V212+Y212</f>
+      </c>
+      <c r="T212" t="s">
+        <v>2758</v>
+      </c>
+      <c r="U212" t="s">
+        <v>2757</v>
+      </c>
+      <c r="V212" t="s">
         <v>2759</v>
       </c>
-      <c r="T212" t="s">
+      <c r="W212" t="s">
         <v>2760</v>
       </c>
-      <c r="U212" t="s">
-        <v>2758</v>
+      <c r="X212" t="s">
+        <v>1677</v>
       </c>
       <c r="Y212" t="s">
-        <v>743</v>
+        <v>2761</v>
       </c>
       <c r="Z212" t="s">
-        <v>1303</v>
+        <v>2029</v>
+      </c>
+      <c r="AA212" t="s">
+        <v>2762</v>
       </c>
       <c r="AC212" t="s">
-        <v>1348</v>
+        <v>160</v>
       </c>
       <c r="AD212" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="AE212" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO212" t="s">
-        <v>2761</v>
-      </c>
-      <c r="AQ212" t="s">
-        <v>2762</v>
-      </c>
-      <c r="AU212" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF212" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG212" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH212" t="s">
+        <v>1288</v>
+      </c>
+      <c r="BI212" t="s">
         <v>2763</v>
       </c>
-      <c r="AW212" t="s">
+      <c r="BJ212" t="s">
+        <v>2764</v>
+      </c>
+      <c r="BK212" t="s">
+        <v>2765</v>
+      </c>
+      <c r="BL212" t="s">
+        <v>2766</v>
+      </c>
+      <c r="BM212" t="s">
+        <v>2767</v>
+      </c>
+      <c r="BN212" t="s">
+        <v>459</v>
+      </c>
+      <c r="BO212" t="s">
         <v>2763</v>
+      </c>
+      <c r="BP212" t="s">
+        <v>2764</v>
+      </c>
+      <c r="BQ212" t="s">
+        <v>2765</v>
+      </c>
+      <c r="BR212" t="s">
+        <v>2768</v>
+      </c>
+      <c r="BS212" t="s">
+        <v>2769</v>
+      </c>
+      <c r="BT212" t="s">
+        <v>1906</v>
+      </c>
+      <c r="CA212" t="s">
+        <v>2763</v>
+      </c>
+      <c r="CB212" t="s">
+        <v>2764</v>
+      </c>
+      <c r="CC212" t="s">
+        <v>2765</v>
+      </c>
+      <c r="CD212" t="s">
+        <v>2768</v>
+      </c>
+      <c r="CE212" t="s">
+        <v>2769</v>
+      </c>
+      <c r="CF212" t="s">
+        <v>1906</v>
       </c>
     </row>
     <row r="213" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>2764</v>
+        <v>2770</v>
       </c>
       <c r="D213" t="s">
         <v>91</v>
       </c>
       <c r="E213" t="s">
-        <v>2765</v>
+        <v>2771</v>
       </c>
       <c r="F213" t="s">
-        <v>93</v>
+        <v>2460</v>
       </c>
       <c r="G213" t="s">
         <v>94</v>
       </c>
       <c r="H213" t="s">
-        <v>2602</v>
+        <v>2591</v>
       </c>
       <c r="I213" t="s">
-        <v>2766</v>
+        <v>2772</v>
       </c>
       <c r="J213" t="s">
-        <v>2767</v>
+        <v>1429</v>
       </c>
       <c r="K213" t="s">
-        <v>2689</v>
+        <v>1952</v>
       </c>
       <c r="L213" t="s">
-        <v>2768</v>
+        <v>2773</v>
       </c>
       <c r="Q213" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R213" t="s">
         <v>100</v>
       </c>
-      <c r="S213" t="s">
-        <v>2769</v>
+      <c r="S213">
+        <f>W213+Z213+AA213+AB213+AC213+V213+Y213</f>
       </c>
       <c r="T213" t="s">
-        <v>2770</v>
+        <v>2774</v>
       </c>
       <c r="U213" t="s">
-        <v>2768</v>
+        <v>2773</v>
+      </c>
+      <c r="V213" t="s">
+        <v>2775</v>
+      </c>
+      <c r="W213" t="s">
+        <v>2776</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>2777</v>
       </c>
       <c r="Z213" t="s">
-        <v>578</v>
-      </c>
-      <c r="AC213" t="s">
-        <v>1450</v>
-      </c>
-      <c r="AD213" t="s">
-        <v>1043</v>
-      </c>
-      <c r="AE213" t="s">
-        <v>2771</v>
-      </c>
-      <c r="AO213" t="s">
-        <v>2772</v>
-      </c>
-      <c r="AQ213" t="s">
-        <v>2773</v>
-      </c>
-      <c r="AU213" t="s">
-        <v>2774</v>
-      </c>
-      <c r="AW213" t="s">
-        <v>2774</v>
-      </c>
-      <c r="BI213" t="s">
-        <v>2775</v>
-      </c>
-      <c r="BJ213" t="s">
-        <v>2776</v>
-      </c>
-      <c r="BK213" t="s">
-        <v>2777</v>
-      </c>
-      <c r="BO213" t="s">
-        <v>2778</v>
-      </c>
-      <c r="BP213" t="s">
-        <v>2779</v>
-      </c>
-      <c r="BQ213" t="s">
-        <v>2780</v>
+        <v>2596</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>2464</v>
       </c>
     </row>
     <row r="214" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="D214" t="s">
         <v>91</v>
       </c>
       <c r="E214" t="s">
-        <v>2782</v>
+        <v>2526</v>
       </c>
       <c r="F214" t="s">
-        <v>93</v>
+        <v>2477</v>
       </c>
       <c r="G214" t="s">
         <v>94</v>
       </c>
       <c r="H214" t="s">
-        <v>2616</v>
+        <v>2591</v>
       </c>
       <c r="I214" t="s">
-        <v>2783</v>
+        <v>2779</v>
       </c>
       <c r="J214" t="s">
-        <v>2648</v>
+        <v>1429</v>
       </c>
       <c r="K214" t="s">
-        <v>2649</v>
+        <v>1952</v>
       </c>
       <c r="L214" t="s">
-        <v>916</v>
+        <v>2780</v>
       </c>
       <c r="Q214" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R214" t="s">
         <v>100</v>
       </c>
-      <c r="S214" t="s">
+      <c r="S214">
+        <f>W214+Z214+AA214+AB214+AC214+V214+Y214</f>
+      </c>
+      <c r="T214" t="s">
+        <v>771</v>
+      </c>
+      <c r="U214" t="s">
+        <v>2780</v>
+      </c>
+      <c r="V214" t="s">
+        <v>2636</v>
+      </c>
+      <c r="W214" t="s">
+        <v>2229</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>2029</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC214" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE214" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF214" t="s">
+        <v>582</v>
+      </c>
+      <c r="AG214" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>331</v>
+      </c>
+      <c r="BI214" t="s">
+        <v>2538</v>
+      </c>
+      <c r="BJ214" t="s">
+        <v>2781</v>
+      </c>
+      <c r="BK214" t="s">
+        <v>2782</v>
+      </c>
+      <c r="BL214" t="s">
+        <v>2535</v>
+      </c>
+      <c r="BM214" t="s">
+        <v>2536</v>
+      </c>
+      <c r="BN214" t="s">
+        <v>2783</v>
+      </c>
+      <c r="BO214" t="s">
+        <v>2538</v>
+      </c>
+      <c r="BP214" t="s">
+        <v>2781</v>
+      </c>
+      <c r="BQ214" t="s">
+        <v>2782</v>
+      </c>
+      <c r="BR214" t="s">
         <v>2784</v>
       </c>
-      <c r="T214" t="s">
-        <v>105</v>
-      </c>
-      <c r="U214" t="s">
-        <v>916</v>
-      </c>
-      <c r="Y214" t="s">
+      <c r="BS214" t="s">
         <v>2785</v>
       </c>
-      <c r="Z214" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC214" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD214" t="s">
-        <v>328</v>
-      </c>
-      <c r="AE214" t="s">
-        <v>613</v>
-      </c>
-      <c r="AO214" t="s">
+      <c r="BT214" t="s">
         <v>2786</v>
       </c>
-      <c r="AQ214" t="s">
-        <v>2787</v>
-      </c>
-      <c r="AU214" t="s">
-        <v>2625</v>
-      </c>
-      <c r="AW214" t="s">
-        <v>2625</v>
+      <c r="CA214" t="s">
+        <v>2538</v>
+      </c>
+      <c r="CB214" t="s">
+        <v>2781</v>
+      </c>
+      <c r="CC214" t="s">
+        <v>2782</v>
+      </c>
+      <c r="CD214" t="s">
+        <v>2784</v>
+      </c>
+      <c r="CE214" t="s">
+        <v>2785</v>
+      </c>
+      <c r="CF214" t="s">
+        <v>2786</v>
       </c>
     </row>
     <row r="215" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="D215" t="s">
         <v>91</v>
       </c>
       <c r="E215" t="s">
-        <v>2789</v>
+        <v>2542</v>
       </c>
       <c r="F215" t="s">
-        <v>93</v>
+        <v>2477</v>
       </c>
       <c r="G215" t="s">
         <v>94</v>
       </c>
       <c r="H215" t="s">
-        <v>2602</v>
+        <v>2591</v>
       </c>
       <c r="I215" t="s">
+        <v>2788</v>
+      </c>
+      <c r="J215" t="s">
+        <v>1429</v>
+      </c>
+      <c r="K215" t="s">
+        <v>2789</v>
+      </c>
+      <c r="L215" t="s">
         <v>2790</v>
       </c>
-      <c r="J215" t="s">
-        <v>2604</v>
-      </c>
-      <c r="K215" t="s">
-        <v>2791</v>
-      </c>
-      <c r="L215" t="s">
-        <v>2792</v>
-      </c>
       <c r="Q215" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R215" t="s">
         <v>100</v>
       </c>
-      <c r="S215" t="s">
+      <c r="S215">
+        <f>W215+Z215+AA215+AB215+AC215+V215+Y215</f>
+      </c>
+      <c r="T215" t="s">
+        <v>2791</v>
+      </c>
+      <c r="U215" t="s">
+        <v>2790</v>
+      </c>
+      <c r="V215" t="s">
+        <v>512</v>
+      </c>
+      <c r="W215" t="s">
+        <v>2792</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>697</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>2244</v>
+      </c>
+      <c r="AA215" t="s">
+        <v>2464</v>
+      </c>
+      <c r="AC215" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE215" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF215" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG215" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>259</v>
+      </c>
+      <c r="BI215" t="s">
+        <v>2554</v>
+      </c>
+      <c r="BJ215" t="s">
         <v>2793</v>
       </c>
-      <c r="T215" t="s">
-        <v>466</v>
-      </c>
-      <c r="U215" t="s">
-        <v>2792</v>
-      </c>
-      <c r="Y215" t="s">
+      <c r="BK215" t="s">
+        <v>2768</v>
+      </c>
+      <c r="BL215" t="s">
+        <v>2552</v>
+      </c>
+      <c r="BM215" t="s">
+        <v>904</v>
+      </c>
+      <c r="BN215" t="s">
         <v>2794</v>
       </c>
-      <c r="Z215" t="s">
-        <v>1303</v>
-      </c>
-      <c r="AC215" t="s">
-        <v>700</v>
-      </c>
-      <c r="AD215" t="s">
-        <v>2548</v>
-      </c>
-      <c r="AE215" t="s">
-        <v>2771</v>
-      </c>
-      <c r="AO215" t="s">
+      <c r="BO215" t="s">
+        <v>2554</v>
+      </c>
+      <c r="BP215" t="s">
+        <v>2793</v>
+      </c>
+      <c r="BQ215" t="s">
+        <v>2768</v>
+      </c>
+      <c r="BR215" t="s">
         <v>2795</v>
       </c>
-      <c r="AQ215" t="s">
+      <c r="BS215" t="s">
         <v>2796</v>
       </c>
-      <c r="AU215" t="s">
-        <v>2613</v>
-      </c>
-      <c r="AW215" t="s">
-        <v>2613</v>
+      <c r="BT215" t="s">
+        <v>2797</v>
+      </c>
+      <c r="CA215" t="s">
+        <v>2554</v>
+      </c>
+      <c r="CB215" t="s">
+        <v>2793</v>
+      </c>
+      <c r="CC215" t="s">
+        <v>2768</v>
+      </c>
+      <c r="CD215" t="s">
+        <v>2795</v>
+      </c>
+      <c r="CE215" t="s">
+        <v>2796</v>
+      </c>
+      <c r="CF215" t="s">
+        <v>2797</v>
       </c>
     </row>
     <row r="216" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="D216" t="s">
         <v>91</v>
       </c>
       <c r="E216" t="s">
-        <v>2798</v>
+        <v>2476</v>
       </c>
       <c r="F216" t="s">
-        <v>93</v>
+        <v>2477</v>
       </c>
       <c r="G216" t="s">
         <v>94</v>
       </c>
       <c r="H216" t="s">
-        <v>2657</v>
+        <v>2591</v>
       </c>
       <c r="I216" t="s">
         <v>2799</v>
       </c>
       <c r="J216" t="s">
-        <v>2674</v>
+        <v>1429</v>
       </c>
       <c r="K216" t="s">
-        <v>2660</v>
+        <v>2144</v>
       </c>
       <c r="L216" t="s">
         <v>2800</v>
       </c>
       <c r="Q216" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R216" t="s">
         <v>100</v>
       </c>
+      <c r="S216">
+        <f>W216+Z216+AA216+AB216+AC216+V216+Y216</f>
+      </c>
       <c r="T216" t="s">
         <v>2801</v>
       </c>
       <c r="U216" t="s">
         <v>2800</v>
       </c>
+      <c r="V216" t="s">
+        <v>2802</v>
+      </c>
+      <c r="W216" t="s">
+        <v>927</v>
+      </c>
       <c r="Y216" t="s">
-        <v>2802</v>
+        <v>157</v>
       </c>
       <c r="Z216" t="s">
-        <v>2078</v>
+        <v>255</v>
+      </c>
+      <c r="AA216" t="s">
+        <v>2464</v>
       </c>
       <c r="AC216" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE216" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF216" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AG216" t="s">
+        <v>1803</v>
+      </c>
+      <c r="AH216" t="s">
+        <v>965</v>
+      </c>
+      <c r="BI216" t="s">
+        <v>2490</v>
+      </c>
+      <c r="BJ216" t="s">
+        <v>1408</v>
+      </c>
+      <c r="BK216" t="s">
         <v>2803</v>
       </c>
-      <c r="AD216" t="s">
-        <v>2693</v>
-      </c>
-      <c r="AE216" t="s">
+      <c r="BL216" t="s">
+        <v>2487</v>
+      </c>
+      <c r="BM216" t="s">
+        <v>2488</v>
+      </c>
+      <c r="BN216" t="s">
         <v>2804</v>
       </c>
-      <c r="AO216" t="s">
+      <c r="BO216" t="s">
+        <v>2490</v>
+      </c>
+      <c r="BP216" t="s">
+        <v>1408</v>
+      </c>
+      <c r="BQ216" t="s">
+        <v>2803</v>
+      </c>
+      <c r="BR216" t="s">
         <v>2805</v>
       </c>
-      <c r="AQ216" t="s">
+      <c r="BS216" t="s">
+        <v>2235</v>
+      </c>
+      <c r="BT216" t="s">
         <v>2806</v>
       </c>
-      <c r="AU216" t="s">
-        <v>2807</v>
-      </c>
-      <c r="AW216" t="s">
-        <v>2807</v>
-      </c>
-      <c r="BI216" t="s">
-        <v>2808</v>
-      </c>
-      <c r="BJ216" t="s">
-        <v>2809</v>
-      </c>
-      <c r="BK216" t="s">
-        <v>2810</v>
-      </c>
-      <c r="BO216" t="s">
-        <v>2811</v>
-      </c>
-      <c r="BP216" t="s">
-        <v>2812</v>
-      </c>
-      <c r="BQ216" t="s">
-        <v>2813</v>
+      <c r="CA216" t="s">
+        <v>2490</v>
+      </c>
+      <c r="CB216" t="s">
+        <v>1408</v>
+      </c>
+      <c r="CC216" t="s">
+        <v>2803</v>
+      </c>
+      <c r="CD216" t="s">
+        <v>2805</v>
+      </c>
+      <c r="CE216" t="s">
+        <v>2235</v>
+      </c>
+      <c r="CF216" t="s">
+        <v>2806</v>
       </c>
     </row>
     <row r="217" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>2814</v>
+        <v>2807</v>
       </c>
       <c r="D217" t="s">
         <v>91</v>
       </c>
       <c r="E217" t="s">
-        <v>2815</v>
+        <v>2808</v>
       </c>
       <c r="F217" t="s">
-        <v>93</v>
+        <v>2460</v>
       </c>
       <c r="G217" t="s">
         <v>94</v>
       </c>
       <c r="H217" t="s">
-        <v>2657</v>
+        <v>2591</v>
       </c>
       <c r="I217" t="s">
-        <v>2816</v>
+        <v>2809</v>
       </c>
       <c r="J217" t="s">
-        <v>2817</v>
+        <v>1429</v>
       </c>
       <c r="K217" t="s">
-        <v>2818</v>
+        <v>1952</v>
       </c>
       <c r="L217" t="s">
-        <v>2819</v>
+        <v>2810</v>
       </c>
       <c r="Q217" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R217" t="s">
         <v>100</v>
       </c>
-      <c r="S217" t="s">
-        <v>2820</v>
+      <c r="S217">
+        <f>W217+Z217+AA217+AB217+AC217+V217+Y217</f>
       </c>
       <c r="T217" t="s">
-        <v>1749</v>
+        <v>2811</v>
       </c>
       <c r="U217" t="s">
-        <v>2819</v>
+        <v>2810</v>
+      </c>
+      <c r="V217" t="s">
+        <v>2812</v>
+      </c>
+      <c r="W217" t="s">
+        <v>2813</v>
       </c>
       <c r="Y217" t="s">
-        <v>1610</v>
+        <v>2814</v>
       </c>
       <c r="Z217" t="s">
-        <v>2474</v>
-      </c>
-      <c r="AC217" t="s">
-        <v>2821</v>
-      </c>
-      <c r="AD217" t="s">
-        <v>2822</v>
-      </c>
-      <c r="AE217" t="s">
-        <v>2823</v>
-      </c>
-      <c r="AO217" t="s">
-        <v>2824</v>
-      </c>
-      <c r="AQ217" t="s">
-        <v>2825</v>
-      </c>
-      <c r="AU217" t="s">
-        <v>2763</v>
-      </c>
-      <c r="AW217" t="s">
-        <v>2763</v>
+        <v>1074</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>2464</v>
       </c>
     </row>
     <row r="218" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>2826</v>
+        <v>2815</v>
       </c>
       <c r="D218" t="s">
         <v>91</v>
       </c>
       <c r="E218" t="s">
-        <v>2827</v>
+        <v>2459</v>
       </c>
       <c r="F218" t="s">
-        <v>93</v>
+        <v>2460</v>
       </c>
       <c r="G218" t="s">
         <v>94</v>
       </c>
       <c r="H218" t="s">
-        <v>2657</v>
+        <v>2591</v>
       </c>
       <c r="I218" t="s">
-        <v>2828</v>
+        <v>2816</v>
       </c>
       <c r="J218" t="s">
-        <v>2433</v>
+        <v>1429</v>
       </c>
       <c r="K218" t="s">
-        <v>2736</v>
+        <v>1952</v>
       </c>
       <c r="L218" t="s">
-        <v>2829</v>
+        <v>2817</v>
       </c>
       <c r="Q218" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R218" t="s">
         <v>100</v>
       </c>
+      <c r="S218">
+        <f>W218+Z218+AA218+AB218+AC218+V218+Y218</f>
+      </c>
       <c r="T218" t="s">
-        <v>2830</v>
+        <v>2818</v>
       </c>
       <c r="U218" t="s">
-        <v>2829</v>
+        <v>2817</v>
+      </c>
+      <c r="V218" t="s">
+        <v>2819</v>
+      </c>
+      <c r="W218" t="s">
+        <v>2818</v>
+      </c>
+      <c r="X218" t="s">
+        <v>696</v>
       </c>
       <c r="Y218" t="s">
-        <v>1102</v>
+        <v>2078</v>
       </c>
       <c r="Z218" t="s">
-        <v>978</v>
-      </c>
-      <c r="AC218" t="s">
-        <v>2831</v>
-      </c>
-      <c r="AD218" t="s">
-        <v>2832</v>
-      </c>
-      <c r="AE218" t="s">
-        <v>2833</v>
-      </c>
-      <c r="AO218" t="s">
-        <v>2834</v>
-      </c>
-      <c r="AQ218" t="s">
-        <v>2835</v>
-      </c>
-      <c r="AU218" t="s">
-        <v>2836</v>
-      </c>
-      <c r="AW218" t="s">
-        <v>2836</v>
+        <v>1074</v>
+      </c>
+      <c r="AA218" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="219" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>2837</v>
+        <v>2820</v>
       </c>
       <c r="D219" t="s">
         <v>91</v>
       </c>
       <c r="E219" t="s">
-        <v>2838</v>
+        <v>2558</v>
       </c>
       <c r="F219" t="s">
-        <v>93</v>
+        <v>2477</v>
       </c>
       <c r="G219" t="s">
         <v>94</v>
       </c>
       <c r="H219" t="s">
-        <v>2602</v>
+        <v>2591</v>
       </c>
       <c r="I219" t="s">
-        <v>2839</v>
+        <v>2821</v>
       </c>
       <c r="J219" t="s">
-        <v>2840</v>
+        <v>1429</v>
       </c>
       <c r="K219" t="s">
-        <v>2841</v>
+        <v>1952</v>
       </c>
       <c r="L219" t="s">
-        <v>2842</v>
+        <v>2822</v>
       </c>
       <c r="Q219" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R219" t="s">
         <v>100</v>
       </c>
-      <c r="S219" t="s">
-        <v>2843</v>
+      <c r="S219">
+        <f>W219+Z219+AA219+AB219+AC219+V219+Y219</f>
       </c>
       <c r="T219" t="s">
-        <v>1244</v>
+        <v>2823</v>
       </c>
       <c r="U219" t="s">
-        <v>2842</v>
+        <v>2822</v>
+      </c>
+      <c r="V219" t="s">
+        <v>2732</v>
+      </c>
+      <c r="W219" t="s">
+        <v>2824</v>
+      </c>
+      <c r="X219" t="s">
+        <v>2243</v>
+      </c>
+      <c r="Y219" t="s">
+        <v>2825</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>2029</v>
+      </c>
+      <c r="AA219" t="s">
+        <v>2243</v>
       </c>
       <c r="AC219" t="s">
-        <v>2844</v>
+        <v>160</v>
       </c>
       <c r="AD219" t="s">
-        <v>2845</v>
+        <v>160</v>
       </c>
       <c r="AE219" t="s">
-        <v>2846</v>
-      </c>
-      <c r="AO219" t="s">
         <v>160</v>
       </c>
-      <c r="AQ219" t="s">
-        <v>160</v>
-      </c>
-      <c r="AU219" t="s">
-        <v>2625</v>
-      </c>
-      <c r="AW219" t="s">
-        <v>2625</v>
+      <c r="AF219" t="s">
+        <v>582</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AH219" t="s">
+        <v>108</v>
       </c>
       <c r="BI219" t="s">
-        <v>2847</v>
+        <v>2572</v>
       </c>
       <c r="BJ219" t="s">
-        <v>2848</v>
+        <v>2826</v>
       </c>
       <c r="BK219" t="s">
-        <v>2849</v>
+        <v>2827</v>
+      </c>
+      <c r="BL219" t="s">
+        <v>2569</v>
+      </c>
+      <c r="BM219" t="s">
+        <v>2570</v>
+      </c>
+      <c r="BN219" t="s">
+        <v>2828</v>
       </c>
       <c r="BO219" t="s">
-        <v>2850</v>
+        <v>2572</v>
       </c>
       <c r="BP219" t="s">
-        <v>2851</v>
+        <v>2826</v>
       </c>
       <c r="BQ219" t="s">
-        <v>1614</v>
+        <v>2827</v>
+      </c>
+      <c r="BR219" t="s">
+        <v>208</v>
+      </c>
+      <c r="BS219" t="s">
+        <v>2829</v>
+      </c>
+      <c r="BT219" t="s">
+        <v>2830</v>
+      </c>
+      <c r="CA219" t="s">
+        <v>2572</v>
+      </c>
+      <c r="CB219" t="s">
+        <v>2826</v>
+      </c>
+      <c r="CC219" t="s">
+        <v>2827</v>
+      </c>
+      <c r="CD219" t="s">
+        <v>208</v>
+      </c>
+      <c r="CE219" t="s">
+        <v>2829</v>
+      </c>
+      <c r="CF219" t="s">
+        <v>2830</v>
       </c>
     </row>
     <row r="220" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>2852</v>
+        <v>2831</v>
       </c>
       <c r="D220" t="s">
         <v>91</v>
       </c>
       <c r="E220" t="s">
-        <v>2853</v>
+        <v>2832</v>
       </c>
       <c r="F220" t="s">
-        <v>93</v>
+        <v>2477</v>
       </c>
       <c r="G220" t="s">
         <v>94</v>
       </c>
       <c r="H220" t="s">
-        <v>2657</v>
+        <v>2591</v>
       </c>
       <c r="I220" t="s">
-        <v>2854</v>
+        <v>2833</v>
       </c>
       <c r="J220" t="s">
-        <v>2817</v>
+        <v>1429</v>
       </c>
       <c r="K220" t="s">
-        <v>2855</v>
+        <v>1952</v>
       </c>
       <c r="L220" t="s">
-        <v>2856</v>
+        <v>2834</v>
       </c>
       <c r="Q220" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R220" t="s">
         <v>100</v>
       </c>
-      <c r="S220" t="s">
-        <v>2857</v>
+      <c r="S220">
+        <f>W220+Z220+AA220+AB220+AC220+V220+Y220</f>
       </c>
       <c r="T220" t="s">
-        <v>2858</v>
+        <v>2835</v>
       </c>
       <c r="U220" t="s">
-        <v>2856</v>
+        <v>2834</v>
+      </c>
+      <c r="V220" t="s">
+        <v>2636</v>
+      </c>
+      <c r="W220" t="s">
+        <v>2836</v>
       </c>
       <c r="Y220" t="s">
-        <v>836</v>
+        <v>2221</v>
       </c>
       <c r="Z220" t="s">
-        <v>2117</v>
+        <v>2029</v>
+      </c>
+      <c r="AA220" t="s">
+        <v>2464</v>
       </c>
       <c r="AC220" t="s">
-        <v>2859</v>
+        <v>160</v>
       </c>
       <c r="AD220" t="s">
-        <v>2280</v>
+        <v>160</v>
       </c>
       <c r="AE220" t="s">
-        <v>2860</v>
-      </c>
-      <c r="AU220" t="s">
-        <v>2861</v>
-      </c>
-      <c r="AW220" t="s">
-        <v>2862</v>
+        <v>160</v>
+      </c>
+      <c r="AF220" t="s">
+        <v>2422</v>
+      </c>
+      <c r="AG220" t="s">
+        <v>314</v>
+      </c>
+      <c r="AH220" t="s">
+        <v>371</v>
       </c>
       <c r="BI220" t="s">
-        <v>2863</v>
+        <v>2837</v>
       </c>
       <c r="BJ220" t="s">
-        <v>2864</v>
+        <v>2838</v>
       </c>
       <c r="BK220" t="s">
-        <v>2865</v>
+        <v>2839</v>
+      </c>
+      <c r="BL220" t="s">
+        <v>2840</v>
+      </c>
+      <c r="BM220" t="s">
+        <v>2841</v>
+      </c>
+      <c r="BN220" t="s">
+        <v>2842</v>
       </c>
       <c r="BO220" t="s">
-        <v>2866</v>
+        <v>2837</v>
       </c>
       <c r="BP220" t="s">
-        <v>2867</v>
+        <v>2838</v>
       </c>
       <c r="BQ220" t="s">
-        <v>2868</v>
+        <v>2839</v>
+      </c>
+      <c r="BR220" t="s">
+        <v>2843</v>
+      </c>
+      <c r="BS220" t="s">
+        <v>2844</v>
+      </c>
+      <c r="BT220" t="s">
+        <v>2845</v>
+      </c>
+      <c r="CA220" t="s">
+        <v>2837</v>
+      </c>
+      <c r="CB220" t="s">
+        <v>2838</v>
+      </c>
+      <c r="CC220" t="s">
+        <v>2839</v>
+      </c>
+      <c r="CD220" t="s">
+        <v>2843</v>
+      </c>
+      <c r="CE220" t="s">
+        <v>2844</v>
+      </c>
+      <c r="CF220" t="s">
+        <v>2845</v>
       </c>
     </row>
     <row r="221" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>2869</v>
+        <v>2846</v>
       </c>
       <c r="D221" t="s">
         <v>91</v>
       </c>
       <c r="E221" t="s">
-        <v>2838</v>
+        <v>2575</v>
       </c>
       <c r="F221" t="s">
-        <v>93</v>
+        <v>2477</v>
       </c>
       <c r="G221" t="s">
         <v>94</v>
       </c>
       <c r="H221" t="s">
-        <v>2602</v>
+        <v>2591</v>
       </c>
       <c r="I221" t="s">
-        <v>2870</v>
+        <v>2847</v>
       </c>
       <c r="J221" t="s">
-        <v>2648</v>
+        <v>1429</v>
       </c>
       <c r="K221" t="s">
-        <v>2700</v>
+        <v>1952</v>
       </c>
       <c r="L221" t="s">
-        <v>2871</v>
+        <v>2848</v>
       </c>
       <c r="Q221" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R221" t="s">
         <v>100</v>
       </c>
+      <c r="S221">
+        <f>W221+Z221+AA221+AB221+AC221+V221+Y221</f>
+      </c>
       <c r="T221" t="s">
-        <v>2872</v>
+        <v>2100</v>
       </c>
       <c r="U221" t="s">
-        <v>2871</v>
+        <v>2848</v>
+      </c>
+      <c r="V221" t="s">
+        <v>2002</v>
+      </c>
+      <c r="W221" t="s">
+        <v>2849</v>
+      </c>
+      <c r="X221" t="s">
+        <v>830</v>
+      </c>
+      <c r="Y221" t="s">
+        <v>386</v>
       </c>
       <c r="Z221" t="s">
-        <v>1303</v>
+        <v>2029</v>
+      </c>
+      <c r="AA221" t="s">
+        <v>2850</v>
       </c>
       <c r="AC221" t="s">
-        <v>667</v>
+        <v>160</v>
       </c>
       <c r="AD221" t="s">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="AE221" t="s">
-        <v>1318</v>
-      </c>
-      <c r="AO221" t="s">
-        <v>2873</v>
-      </c>
-      <c r="AQ221" t="s">
-        <v>2874</v>
-      </c>
-      <c r="AU221" t="s">
-        <v>2625</v>
-      </c>
-      <c r="AW221" t="s">
-        <v>2625</v>
+        <v>160</v>
+      </c>
+      <c r="AF221" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG221" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH221" t="s">
+        <v>171</v>
       </c>
       <c r="BI221" t="s">
-        <v>2875</v>
+        <v>1659</v>
       </c>
       <c r="BJ221" t="s">
-        <v>2876</v>
+        <v>585</v>
       </c>
       <c r="BK221" t="s">
-        <v>2877</v>
+        <v>2851</v>
+      </c>
+      <c r="BL221" t="s">
+        <v>2585</v>
+      </c>
+      <c r="BM221" t="s">
+        <v>2586</v>
+      </c>
+      <c r="BN221" t="s">
+        <v>2852</v>
       </c>
       <c r="BO221" t="s">
-        <v>2878</v>
+        <v>1659</v>
       </c>
       <c r="BP221" t="s">
-        <v>2879</v>
+        <v>585</v>
       </c>
       <c r="BQ221" t="s">
-        <v>2880</v>
+        <v>2851</v>
+      </c>
+      <c r="BR221" t="s">
+        <v>2853</v>
+      </c>
+      <c r="BS221" t="s">
+        <v>2854</v>
+      </c>
+      <c r="BT221" t="s">
+        <v>2855</v>
+      </c>
+      <c r="CA221" t="s">
+        <v>1659</v>
+      </c>
+      <c r="CB221" t="s">
+        <v>585</v>
+      </c>
+      <c r="CC221" t="s">
+        <v>2851</v>
+      </c>
+      <c r="CD221" t="s">
+        <v>2853</v>
+      </c>
+      <c r="CE221" t="s">
+        <v>2854</v>
+      </c>
+      <c r="CF221" t="s">
+        <v>2855</v>
       </c>
     </row>
     <row r="222" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>2881</v>
+        <v>2856</v>
       </c>
       <c r="D222" t="s">
         <v>91</v>
       </c>
       <c r="E222" t="s">
-        <v>2882</v>
+        <v>2728</v>
       </c>
       <c r="F222" t="s">
-        <v>93</v>
+        <v>2477</v>
       </c>
       <c r="G222" t="s">
         <v>94</v>
       </c>
       <c r="H222" t="s">
-        <v>2616</v>
+        <v>164</v>
       </c>
       <c r="I222" t="s">
-        <v>2883</v>
+        <v>2857</v>
       </c>
       <c r="J222" t="s">
-        <v>2884</v>
+        <v>2858</v>
       </c>
       <c r="K222" t="s">
-        <v>2649</v>
+        <v>592</v>
       </c>
       <c r="L222" t="s">
-        <v>2885</v>
+        <v>2859</v>
       </c>
       <c r="Q222" t="s">
-        <v>2249</v>
+        <v>2463</v>
       </c>
       <c r="R222" t="s">
         <v>100</v>
       </c>
-      <c r="S222" t="s">
-        <v>2886</v>
+      <c r="S222">
+        <f>W222+Z222+AA222+AB222+AC222+V222+Y222</f>
       </c>
       <c r="T222" t="s">
-        <v>2887</v>
+        <v>2860</v>
       </c>
       <c r="U222" t="s">
-        <v>2885</v>
+        <v>2859</v>
+      </c>
+      <c r="V222" t="s">
+        <v>2861</v>
+      </c>
+      <c r="W222" t="s">
+        <v>2862</v>
+      </c>
+      <c r="X222" t="s">
+        <v>951</v>
+      </c>
+      <c r="Y222" t="s">
+        <v>2863</v>
       </c>
       <c r="Z222" t="s">
-        <v>2888</v>
+        <v>2864</v>
+      </c>
+      <c r="AA222" t="s">
+        <v>951</v>
       </c>
       <c r="AC222" t="s">
-        <v>633</v>
+        <v>565</v>
       </c>
       <c r="AD222" t="s">
-        <v>2889</v>
+        <v>316</v>
       </c>
       <c r="AE222" t="s">
-        <v>2890</v>
-      </c>
-      <c r="AO222" t="s">
-        <v>2891</v>
-      </c>
-      <c r="AQ222" t="s">
-        <v>2892</v>
-      </c>
-      <c r="AU222" t="s">
-        <v>2861</v>
-      </c>
-      <c r="AW222" t="s">
-        <v>2861</v>
+        <v>160</v>
+      </c>
+      <c r="AF222" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG222" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH222" t="s">
+        <v>239</v>
       </c>
       <c r="BI222" t="s">
-        <v>2893</v>
+        <v>160</v>
       </c>
       <c r="BJ222" t="s">
-        <v>2894</v>
+        <v>160</v>
       </c>
       <c r="BK222" t="s">
-        <v>2895</v>
+        <v>160</v>
+      </c>
+      <c r="BL222" t="s">
+        <v>160</v>
+      </c>
+      <c r="BM222" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN222" t="s">
+        <v>160</v>
       </c>
       <c r="BO222" t="s">
-        <v>2896</v>
+        <v>565</v>
       </c>
       <c r="BP222" t="s">
-        <v>2897</v>
+        <v>316</v>
       </c>
       <c r="BQ222" t="s">
-        <v>2898</v>
+        <v>160</v>
+      </c>
+      <c r="BR222" t="s">
+        <v>160</v>
+      </c>
+      <c r="BS222" t="s">
+        <v>160</v>
+      </c>
+      <c r="BT222" t="s">
+        <v>239</v>
+      </c>
+      <c r="CA222" t="s">
+        <v>565</v>
+      </c>
+      <c r="CB222" t="s">
+        <v>316</v>
+      </c>
+      <c r="CC222" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD222" t="s">
+        <v>160</v>
+      </c>
+      <c r="CE222" t="s">
+        <v>160</v>
+      </c>
+      <c r="CF222" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="223" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>2899</v>
+        <v>2865</v>
       </c>
       <c r="D223" t="s">
         <v>91</v>
       </c>
       <c r="E223" t="s">
-        <v>2900</v>
+        <v>2866</v>
       </c>
       <c r="F223" t="s">
         <v>93</v>
@@ -29588,19 +31196,19 @@
         <v>94</v>
       </c>
       <c r="H223" t="s">
-        <v>2657</v>
+        <v>2867</v>
       </c>
       <c r="I223" t="s">
-        <v>2901</v>
+        <v>2868</v>
       </c>
       <c r="J223" t="s">
-        <v>2902</v>
+        <v>2869</v>
       </c>
       <c r="K223" t="s">
-        <v>2818</v>
+        <v>2870</v>
       </c>
       <c r="L223" t="s">
-        <v>2903</v>
+        <v>2871</v>
       </c>
       <c r="Q223" t="s">
         <v>2249</v>
@@ -29609,69 +31217,48 @@
         <v>100</v>
       </c>
       <c r="S223" t="s">
-        <v>2904</v>
+        <v>2872</v>
       </c>
       <c r="T223" t="s">
-        <v>2905</v>
+        <v>2873</v>
       </c>
       <c r="U223" t="s">
-        <v>2903</v>
-      </c>
-      <c r="Y223" t="s">
-        <v>2906</v>
+        <v>2871</v>
       </c>
       <c r="Z223" t="s">
         <v>697</v>
       </c>
       <c r="AC223" t="s">
-        <v>1980</v>
+        <v>2874</v>
       </c>
       <c r="AD223" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="AE223" t="s">
-        <v>966</v>
+        <v>2875</v>
       </c>
       <c r="AO223" t="s">
-        <v>2907</v>
+        <v>2876</v>
       </c>
       <c r="AQ223" t="s">
-        <v>2908</v>
+        <v>2877</v>
       </c>
       <c r="AU223" t="s">
-        <v>2909</v>
+        <v>2878</v>
       </c>
       <c r="AW223" t="s">
-        <v>2909</v>
-      </c>
-      <c r="BI223" t="s">
-        <v>2910</v>
-      </c>
-      <c r="BJ223" t="s">
-        <v>2911</v>
-      </c>
-      <c r="BK223" t="s">
-        <v>2912</v>
-      </c>
-      <c r="BO223" t="s">
-        <v>2913</v>
-      </c>
-      <c r="BP223" t="s">
-        <v>2914</v>
-      </c>
-      <c r="BQ223" t="s">
-        <v>2915</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="224" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>2916</v>
+        <v>2879</v>
       </c>
       <c r="D224" t="s">
         <v>91</v>
       </c>
       <c r="E224" t="s">
-        <v>2917</v>
+        <v>2880</v>
       </c>
       <c r="F224" t="s">
         <v>93</v>
@@ -29680,19 +31267,19 @@
         <v>94</v>
       </c>
       <c r="H224" t="s">
-        <v>2918</v>
+        <v>2881</v>
       </c>
       <c r="I224" t="s">
-        <v>2919</v>
+        <v>2882</v>
       </c>
       <c r="J224" t="s">
-        <v>2604</v>
+        <v>2883</v>
       </c>
       <c r="K224" t="s">
-        <v>2649</v>
+        <v>2884</v>
       </c>
       <c r="L224" t="s">
-        <v>2920</v>
+        <v>2885</v>
       </c>
       <c r="Q224" t="s">
         <v>2249</v>
@@ -29701,66 +31288,66 @@
         <v>100</v>
       </c>
       <c r="S224" t="s">
-        <v>2921</v>
+        <v>2886</v>
       </c>
       <c r="T224" t="s">
-        <v>1877</v>
+        <v>2887</v>
       </c>
       <c r="U224" t="s">
-        <v>2920</v>
+        <v>2885</v>
       </c>
       <c r="Z224" t="s">
-        <v>122</v>
+        <v>1127</v>
       </c>
       <c r="AC224" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="AD224" t="s">
-        <v>160</v>
+        <v>1989</v>
       </c>
       <c r="AE224" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="AO224" t="s">
-        <v>2922</v>
+        <v>2888</v>
       </c>
       <c r="AQ224" t="s">
-        <v>2825</v>
+        <v>2889</v>
       </c>
       <c r="AU224" t="s">
-        <v>2807</v>
+        <v>2890</v>
       </c>
       <c r="AW224" t="s">
-        <v>2807</v>
+        <v>2890</v>
       </c>
       <c r="BI224" t="s">
-        <v>207</v>
+        <v>2891</v>
       </c>
       <c r="BJ224" t="s">
-        <v>332</v>
+        <v>1219</v>
       </c>
       <c r="BK224" t="s">
-        <v>791</v>
+        <v>2892</v>
       </c>
       <c r="BO224" t="s">
-        <v>207</v>
+        <v>2893</v>
       </c>
       <c r="BP224" t="s">
-        <v>332</v>
+        <v>2894</v>
       </c>
       <c r="BQ224" t="s">
-        <v>791</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="225" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>2923</v>
+        <v>2895</v>
       </c>
       <c r="D225" t="s">
         <v>91</v>
       </c>
       <c r="E225" t="s">
-        <v>2924</v>
+        <v>2896</v>
       </c>
       <c r="F225" t="s">
         <v>93</v>
@@ -29769,19 +31356,19 @@
         <v>94</v>
       </c>
       <c r="H225" t="s">
-        <v>2657</v>
+        <v>2867</v>
       </c>
       <c r="I225" t="s">
-        <v>2925</v>
+        <v>2897</v>
       </c>
       <c r="J225" t="s">
-        <v>2817</v>
+        <v>2869</v>
       </c>
       <c r="K225" t="s">
-        <v>2818</v>
+        <v>2870</v>
       </c>
       <c r="L225" t="s">
-        <v>2926</v>
+        <v>2898</v>
       </c>
       <c r="Q225" t="s">
         <v>2249</v>
@@ -29790,63 +31377,57 @@
         <v>100</v>
       </c>
       <c r="S225" t="s">
-        <v>2927</v>
+        <v>2899</v>
       </c>
       <c r="T225" t="s">
-        <v>2928</v>
+        <v>2900</v>
       </c>
       <c r="U225" t="s">
-        <v>2926</v>
-      </c>
-      <c r="Y225" t="s">
-        <v>2929</v>
+        <v>2898</v>
       </c>
       <c r="Z225" t="s">
-        <v>1332</v>
-      </c>
-      <c r="AC225" t="s">
-        <v>2930</v>
-      </c>
-      <c r="AD225" t="s">
-        <v>2931</v>
-      </c>
-      <c r="AE225" t="s">
-        <v>2932</v>
+        <v>697</v>
+      </c>
+      <c r="AO225" t="s">
+        <v>2901</v>
+      </c>
+      <c r="AQ225" t="s">
+        <v>2902</v>
       </c>
       <c r="AU225" t="s">
-        <v>2933</v>
+        <v>2903</v>
       </c>
       <c r="AW225" t="s">
-        <v>2934</v>
+        <v>2903</v>
       </c>
       <c r="BI225" t="s">
-        <v>2935</v>
+        <v>2904</v>
       </c>
       <c r="BJ225" t="s">
-        <v>2936</v>
+        <v>2905</v>
       </c>
       <c r="BK225" t="s">
-        <v>2937</v>
+        <v>2906</v>
       </c>
       <c r="BO225" t="s">
-        <v>2938</v>
+        <v>2907</v>
       </c>
       <c r="BP225" t="s">
-        <v>2939</v>
+        <v>2908</v>
       </c>
       <c r="BQ225" t="s">
-        <v>2940</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="226" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>2941</v>
+        <v>2910</v>
       </c>
       <c r="D226" t="s">
         <v>91</v>
       </c>
       <c r="E226" t="s">
-        <v>2942</v>
+        <v>2911</v>
       </c>
       <c r="F226" t="s">
         <v>93</v>
@@ -29855,19 +31436,19 @@
         <v>94</v>
       </c>
       <c r="H226" t="s">
-        <v>2657</v>
+        <v>2867</v>
       </c>
       <c r="I226" t="s">
-        <v>2943</v>
+        <v>2912</v>
       </c>
       <c r="J226" t="s">
-        <v>2326</v>
+        <v>2913</v>
       </c>
       <c r="K226" t="s">
-        <v>2944</v>
+        <v>2914</v>
       </c>
       <c r="L226" t="s">
-        <v>2945</v>
+        <v>2915</v>
       </c>
       <c r="Q226" t="s">
         <v>2249</v>
@@ -29876,69 +31457,51 @@
         <v>100</v>
       </c>
       <c r="S226" t="s">
-        <v>2946</v>
+        <v>2916</v>
       </c>
       <c r="T226" t="s">
-        <v>2947</v>
+        <v>337</v>
       </c>
       <c r="U226" t="s">
-        <v>2945</v>
+        <v>2915</v>
       </c>
       <c r="Y226" t="s">
-        <v>1329</v>
+        <v>2917</v>
       </c>
       <c r="Z226" t="s">
-        <v>2948</v>
+        <v>123</v>
       </c>
       <c r="AC226" t="s">
-        <v>2949</v>
+        <v>1794</v>
       </c>
       <c r="AD226" t="s">
-        <v>2949</v>
+        <v>1161</v>
       </c>
       <c r="AE226" t="s">
-        <v>2950</v>
+        <v>1363</v>
       </c>
       <c r="AO226" t="s">
-        <v>160</v>
+        <v>2918</v>
       </c>
       <c r="AQ226" t="s">
-        <v>160</v>
+        <v>2919</v>
       </c>
       <c r="AU226" t="s">
-        <v>2951</v>
+        <v>2878</v>
       </c>
       <c r="AW226" t="s">
-        <v>2951</v>
-      </c>
-      <c r="BI226" t="s">
-        <v>2952</v>
-      </c>
-      <c r="BJ226" t="s">
-        <v>2952</v>
-      </c>
-      <c r="BK226" t="s">
-        <v>2953</v>
-      </c>
-      <c r="BO226" t="s">
-        <v>2954</v>
-      </c>
-      <c r="BP226" t="s">
-        <v>2954</v>
-      </c>
-      <c r="BQ226" t="s">
-        <v>2955</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="227" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>2956</v>
+        <v>2920</v>
       </c>
       <c r="D227" t="s">
         <v>91</v>
       </c>
       <c r="E227" t="s">
-        <v>2957</v>
+        <v>2921</v>
       </c>
       <c r="F227" t="s">
         <v>93</v>
@@ -29947,19 +31510,19 @@
         <v>94</v>
       </c>
       <c r="H227" t="s">
-        <v>2657</v>
+        <v>2922</v>
       </c>
       <c r="I227" t="s">
-        <v>2958</v>
+        <v>2923</v>
       </c>
       <c r="J227" t="s">
-        <v>2363</v>
+        <v>2924</v>
       </c>
       <c r="K227" t="s">
-        <v>2736</v>
+        <v>2925</v>
       </c>
       <c r="L227" t="s">
-        <v>697</v>
+        <v>2926</v>
       </c>
       <c r="Q227" t="s">
         <v>2249</v>
@@ -29967,58 +31530,67 @@
       <c r="R227" t="s">
         <v>100</v>
       </c>
+      <c r="T227" t="s">
+        <v>2927</v>
+      </c>
       <c r="U227" t="s">
-        <v>697</v>
+        <v>2926</v>
+      </c>
+      <c r="Y227" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z227" t="s">
+        <v>354</v>
       </c>
       <c r="AC227" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="AD227" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="AE227" t="s">
-        <v>160</v>
+        <v>1794</v>
       </c>
       <c r="AO227" t="s">
-        <v>2959</v>
+        <v>2928</v>
       </c>
       <c r="AQ227" t="s">
-        <v>2960</v>
+        <v>2929</v>
       </c>
       <c r="AU227" t="s">
-        <v>2961</v>
+        <v>2878</v>
       </c>
       <c r="AW227" t="s">
-        <v>2961</v>
+        <v>2878</v>
       </c>
       <c r="BI227" t="s">
-        <v>2962</v>
+        <v>2930</v>
       </c>
       <c r="BJ227" t="s">
-        <v>2963</v>
+        <v>2931</v>
       </c>
       <c r="BK227" t="s">
-        <v>2964</v>
+        <v>2932</v>
       </c>
       <c r="BO227" t="s">
-        <v>2962</v>
+        <v>2933</v>
       </c>
       <c r="BP227" t="s">
-        <v>2963</v>
+        <v>2934</v>
       </c>
       <c r="BQ227" t="s">
-        <v>2964</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="228" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>2965</v>
+        <v>2936</v>
       </c>
       <c r="D228" t="s">
         <v>91</v>
       </c>
       <c r="E228" t="s">
-        <v>2966</v>
+        <v>2937</v>
       </c>
       <c r="F228" t="s">
         <v>93</v>
@@ -30027,19 +31599,19 @@
         <v>94</v>
       </c>
       <c r="H228" t="s">
-        <v>2657</v>
+        <v>2922</v>
       </c>
       <c r="I228" t="s">
-        <v>2967</v>
+        <v>2938</v>
       </c>
       <c r="J228" t="s">
-        <v>2659</v>
+        <v>2939</v>
       </c>
       <c r="K228" t="s">
-        <v>2736</v>
+        <v>2925</v>
       </c>
       <c r="L228" t="s">
-        <v>578</v>
+        <v>2940</v>
       </c>
       <c r="Q228" t="s">
         <v>2249</v>
@@ -30047,58 +31619,67 @@
       <c r="R228" t="s">
         <v>100</v>
       </c>
+      <c r="T228" t="s">
+        <v>2941</v>
+      </c>
       <c r="U228" t="s">
-        <v>578</v>
+        <v>2940</v>
+      </c>
+      <c r="Y228" t="s">
+        <v>869</v>
+      </c>
+      <c r="Z228" t="s">
+        <v>2942</v>
       </c>
       <c r="AC228" t="s">
-        <v>160</v>
+        <v>1942</v>
       </c>
       <c r="AD228" t="s">
-        <v>160</v>
+        <v>1957</v>
       </c>
       <c r="AE228" t="s">
-        <v>160</v>
+        <v>1957</v>
       </c>
       <c r="AO228" t="s">
-        <v>2968</v>
+        <v>2943</v>
       </c>
       <c r="AQ228" t="s">
-        <v>2969</v>
+        <v>2944</v>
       </c>
       <c r="AU228" t="s">
-        <v>2763</v>
+        <v>2890</v>
       </c>
       <c r="AW228" t="s">
-        <v>2763</v>
+        <v>2890</v>
       </c>
       <c r="BI228" t="s">
-        <v>2970</v>
+        <v>2945</v>
       </c>
       <c r="BJ228" t="s">
-        <v>2971</v>
+        <v>2946</v>
       </c>
       <c r="BK228" t="s">
-        <v>2972</v>
+        <v>2947</v>
       </c>
       <c r="BO228" t="s">
-        <v>2970</v>
+        <v>2948</v>
       </c>
       <c r="BP228" t="s">
-        <v>2971</v>
+        <v>2949</v>
       </c>
       <c r="BQ228" t="s">
-        <v>2972</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="229" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>2973</v>
+        <v>2951</v>
       </c>
       <c r="D229" t="s">
         <v>91</v>
       </c>
       <c r="E229" t="s">
-        <v>2974</v>
+        <v>2952</v>
       </c>
       <c r="F229" t="s">
         <v>93</v>
@@ -30107,19 +31688,19 @@
         <v>94</v>
       </c>
       <c r="H229" t="s">
-        <v>2602</v>
+        <v>2867</v>
       </c>
       <c r="I229" t="s">
-        <v>2975</v>
+        <v>2953</v>
       </c>
       <c r="J229" t="s">
-        <v>2884</v>
+        <v>2913</v>
       </c>
       <c r="K229" t="s">
-        <v>2689</v>
+        <v>2954</v>
       </c>
       <c r="L229" t="s">
-        <v>2976</v>
+        <v>2955</v>
       </c>
       <c r="Q229" t="s">
         <v>2249</v>
@@ -30128,48 +31709,51 @@
         <v>100</v>
       </c>
       <c r="S229" t="s">
-        <v>2977</v>
+        <v>2956</v>
       </c>
       <c r="T229" t="s">
-        <v>220</v>
+        <v>2957</v>
       </c>
       <c r="U229" t="s">
-        <v>2976</v>
+        <v>2955</v>
+      </c>
+      <c r="Y229" t="s">
+        <v>819</v>
       </c>
       <c r="Z229" t="s">
-        <v>2978</v>
+        <v>159</v>
       </c>
       <c r="AC229" t="s">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="AD229" t="s">
-        <v>1766</v>
+        <v>2548</v>
       </c>
       <c r="AE229" t="s">
-        <v>1319</v>
+        <v>2958</v>
       </c>
       <c r="AO229" t="s">
-        <v>2979</v>
+        <v>2959</v>
       </c>
       <c r="AQ229" t="s">
-        <v>2980</v>
+        <v>2960</v>
       </c>
       <c r="AU229" t="s">
-        <v>1432</v>
+        <v>2961</v>
       </c>
       <c r="AW229" t="s">
-        <v>1432</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="230" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>2981</v>
+        <v>2962</v>
       </c>
       <c r="D230" t="s">
         <v>91</v>
       </c>
       <c r="E230" t="s">
-        <v>2982</v>
+        <v>2963</v>
       </c>
       <c r="F230" t="s">
         <v>93</v>
@@ -30178,19 +31762,19 @@
         <v>94</v>
       </c>
       <c r="H230" t="s">
-        <v>2602</v>
+        <v>2867</v>
       </c>
       <c r="I230" t="s">
-        <v>2983</v>
+        <v>2964</v>
       </c>
       <c r="J230" t="s">
-        <v>2984</v>
+        <v>2913</v>
       </c>
       <c r="K230" t="s">
-        <v>2689</v>
+        <v>2965</v>
       </c>
       <c r="L230" t="s">
-        <v>2985</v>
+        <v>2966</v>
       </c>
       <c r="Q230" t="s">
         <v>2249</v>
@@ -30199,69 +31783,69 @@
         <v>100</v>
       </c>
       <c r="S230" t="s">
-        <v>2986</v>
+        <v>2967</v>
       </c>
       <c r="T230" t="s">
-        <v>2987</v>
+        <v>2968</v>
       </c>
       <c r="U230" t="s">
-        <v>2985</v>
+        <v>2966</v>
       </c>
       <c r="Y230" t="s">
-        <v>788</v>
+        <v>354</v>
       </c>
       <c r="Z230" t="s">
-        <v>2888</v>
+        <v>2969</v>
       </c>
       <c r="AC230" t="s">
-        <v>106</v>
+        <v>2970</v>
       </c>
       <c r="AD230" t="s">
-        <v>357</v>
+        <v>2971</v>
       </c>
       <c r="AE230" t="s">
-        <v>1526</v>
+        <v>2972</v>
       </c>
       <c r="AO230" t="s">
-        <v>2988</v>
+        <v>2973</v>
       </c>
       <c r="AQ230" t="s">
-        <v>2989</v>
+        <v>2974</v>
       </c>
       <c r="AU230" t="s">
-        <v>2990</v>
+        <v>2975</v>
       </c>
       <c r="AW230" t="s">
-        <v>2990</v>
+        <v>2975</v>
       </c>
       <c r="BI230" t="s">
-        <v>2991</v>
+        <v>2976</v>
       </c>
       <c r="BJ230" t="s">
-        <v>2992</v>
+        <v>2977</v>
       </c>
       <c r="BK230" t="s">
-        <v>2993</v>
+        <v>2978</v>
       </c>
       <c r="BO230" t="s">
-        <v>2994</v>
+        <v>2979</v>
       </c>
       <c r="BP230" t="s">
-        <v>2995</v>
+        <v>2980</v>
       </c>
       <c r="BQ230" t="s">
-        <v>2996</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="231" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>2997</v>
+        <v>2982</v>
       </c>
       <c r="D231" t="s">
         <v>91</v>
       </c>
       <c r="E231" t="s">
-        <v>2998</v>
+        <v>2983</v>
       </c>
       <c r="F231" t="s">
         <v>93</v>
@@ -30270,19 +31854,19 @@
         <v>94</v>
       </c>
       <c r="H231" t="s">
-        <v>2602</v>
+        <v>2881</v>
       </c>
       <c r="I231" t="s">
-        <v>2999</v>
+        <v>2984</v>
       </c>
       <c r="J231" t="s">
-        <v>3000</v>
+        <v>2913</v>
       </c>
       <c r="K231" t="s">
-        <v>2689</v>
+        <v>2965</v>
       </c>
       <c r="L231" t="s">
-        <v>3001</v>
+        <v>2985</v>
       </c>
       <c r="Q231" t="s">
         <v>2249</v>
@@ -30291,66 +31875,69 @@
         <v>100</v>
       </c>
       <c r="S231" t="s">
-        <v>3002</v>
+        <v>2986</v>
       </c>
       <c r="T231" t="s">
-        <v>3003</v>
+        <v>2987</v>
       </c>
       <c r="U231" t="s">
-        <v>3001</v>
+        <v>2985</v>
+      </c>
+      <c r="Y231" t="s">
+        <v>2988</v>
       </c>
       <c r="Z231" t="s">
-        <v>419</v>
+        <v>2969</v>
       </c>
       <c r="AC231" t="s">
-        <v>1089</v>
+        <v>850</v>
       </c>
       <c r="AD231" t="s">
-        <v>533</v>
+        <v>931</v>
       </c>
       <c r="AE231" t="s">
-        <v>632</v>
+        <v>1062</v>
       </c>
       <c r="AO231" t="s">
-        <v>3004</v>
+        <v>2989</v>
       </c>
       <c r="AQ231" t="s">
-        <v>3005</v>
+        <v>2990</v>
       </c>
       <c r="AU231" t="s">
-        <v>3006</v>
+        <v>2991</v>
       </c>
       <c r="AW231" t="s">
-        <v>3006</v>
+        <v>2991</v>
       </c>
       <c r="BI231" t="s">
-        <v>1490</v>
+        <v>2992</v>
       </c>
       <c r="BJ231" t="s">
-        <v>3007</v>
+        <v>2993</v>
       </c>
       <c r="BK231" t="s">
-        <v>3008</v>
+        <v>2994</v>
       </c>
       <c r="BO231" t="s">
-        <v>3009</v>
+        <v>2995</v>
       </c>
       <c r="BP231" t="s">
-        <v>3010</v>
+        <v>2289</v>
       </c>
       <c r="BQ231" t="s">
-        <v>3011</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="232" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>3012</v>
+        <v>2997</v>
       </c>
       <c r="D232" t="s">
         <v>91</v>
       </c>
       <c r="E232" t="s">
-        <v>3013</v>
+        <v>2998</v>
       </c>
       <c r="F232" t="s">
         <v>93</v>
@@ -30359,19 +31946,19 @@
         <v>94</v>
       </c>
       <c r="H232" t="s">
-        <v>2602</v>
+        <v>2922</v>
       </c>
       <c r="I232" t="s">
-        <v>3014</v>
+        <v>2999</v>
       </c>
       <c r="J232" t="s">
-        <v>3015</v>
+        <v>3000</v>
       </c>
       <c r="K232" t="s">
-        <v>2791</v>
+        <v>3001</v>
       </c>
       <c r="L232" t="s">
-        <v>3016</v>
+        <v>3002</v>
       </c>
       <c r="Q232" t="s">
         <v>2249</v>
@@ -30380,51 +31967,51 @@
         <v>100</v>
       </c>
       <c r="S232" t="s">
-        <v>3017</v>
+        <v>3003</v>
       </c>
       <c r="T232" t="s">
-        <v>3018</v>
+        <v>3004</v>
       </c>
       <c r="U232" t="s">
-        <v>3016</v>
+        <v>3002</v>
       </c>
       <c r="Y232" t="s">
-        <v>886</v>
+        <v>1552</v>
       </c>
       <c r="Z232" t="s">
-        <v>697</v>
+        <v>2101</v>
       </c>
       <c r="AC232" t="s">
-        <v>964</v>
+        <v>3005</v>
       </c>
       <c r="AD232" t="s">
-        <v>502</v>
+        <v>3006</v>
       </c>
       <c r="AE232" t="s">
-        <v>3019</v>
+        <v>3007</v>
       </c>
       <c r="AO232" t="s">
-        <v>3020</v>
+        <v>3008</v>
       </c>
       <c r="AQ232" t="s">
-        <v>3021</v>
+        <v>3009</v>
       </c>
       <c r="AU232" t="s">
-        <v>2763</v>
+        <v>2890</v>
       </c>
       <c r="AW232" t="s">
-        <v>2763</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="233" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>3022</v>
+        <v>3010</v>
       </c>
       <c r="D233" t="s">
         <v>91</v>
       </c>
       <c r="E233" t="s">
-        <v>3023</v>
+        <v>3011</v>
       </c>
       <c r="F233" t="s">
         <v>93</v>
@@ -30433,19 +32020,19 @@
         <v>94</v>
       </c>
       <c r="H233" t="s">
-        <v>2616</v>
+        <v>2881</v>
       </c>
       <c r="I233" t="s">
-        <v>3024</v>
+        <v>3012</v>
       </c>
       <c r="J233" t="s">
-        <v>2648</v>
+        <v>3013</v>
       </c>
       <c r="K233" t="s">
-        <v>2700</v>
+        <v>3014</v>
       </c>
       <c r="L233" t="s">
-        <v>3025</v>
+        <v>3015</v>
       </c>
       <c r="Q233" t="s">
         <v>2249</v>
@@ -30454,69 +32041,51 @@
         <v>100</v>
       </c>
       <c r="S233" t="s">
-        <v>3026</v>
+        <v>3016</v>
       </c>
       <c r="T233" t="s">
-        <v>3027</v>
+        <v>951</v>
       </c>
       <c r="U233" t="s">
-        <v>3025</v>
+        <v>3015</v>
       </c>
       <c r="Y233" t="s">
-        <v>2652</v>
+        <v>3017</v>
       </c>
       <c r="Z233" t="s">
-        <v>2704</v>
+        <v>1851</v>
       </c>
       <c r="AC233" t="s">
-        <v>1161</v>
+        <v>564</v>
       </c>
       <c r="AD233" t="s">
-        <v>2384</v>
+        <v>205</v>
       </c>
       <c r="AE233" t="s">
-        <v>683</v>
+        <v>565</v>
       </c>
       <c r="AO233" t="s">
-        <v>3028</v>
+        <v>3018</v>
       </c>
       <c r="AQ233" t="s">
-        <v>3029</v>
+        <v>3019</v>
       </c>
       <c r="AU233" t="s">
-        <v>2807</v>
+        <v>1432</v>
       </c>
       <c r="AW233" t="s">
-        <v>2807</v>
-      </c>
-      <c r="BI233" t="s">
-        <v>3030</v>
-      </c>
-      <c r="BJ233" t="s">
-        <v>3031</v>
-      </c>
-      <c r="BK233" t="s">
-        <v>3032</v>
-      </c>
-      <c r="BO233" t="s">
-        <v>3033</v>
-      </c>
-      <c r="BP233" t="s">
-        <v>3034</v>
-      </c>
-      <c r="BQ233" t="s">
-        <v>3035</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="234" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>3036</v>
+        <v>3020</v>
       </c>
       <c r="D234" t="s">
         <v>91</v>
       </c>
       <c r="E234" t="s">
-        <v>3037</v>
+        <v>3021</v>
       </c>
       <c r="F234" t="s">
         <v>93</v>
@@ -30525,19 +32094,19 @@
         <v>94</v>
       </c>
       <c r="H234" t="s">
-        <v>2657</v>
+        <v>2881</v>
       </c>
       <c r="I234" t="s">
-        <v>3038</v>
+        <v>3022</v>
       </c>
       <c r="J234" t="s">
-        <v>2279</v>
+        <v>2913</v>
       </c>
       <c r="K234" t="s">
-        <v>2660</v>
+        <v>2965</v>
       </c>
       <c r="L234" t="s">
-        <v>3039</v>
+        <v>3023</v>
       </c>
       <c r="Q234" t="s">
         <v>2249</v>
@@ -30546,69 +32115,51 @@
         <v>100</v>
       </c>
       <c r="S234" t="s">
-        <v>3040</v>
+        <v>3024</v>
       </c>
       <c r="T234" t="s">
-        <v>3041</v>
+        <v>2761</v>
       </c>
       <c r="U234" t="s">
-        <v>3039</v>
+        <v>3023</v>
       </c>
       <c r="Y234" t="s">
-        <v>3042</v>
+        <v>743</v>
       </c>
       <c r="Z234" t="s">
-        <v>2474</v>
+        <v>1303</v>
       </c>
       <c r="AC234" t="s">
-        <v>160</v>
+        <v>1348</v>
       </c>
       <c r="AD234" t="s">
-        <v>312</v>
+        <v>145</v>
       </c>
       <c r="AE234" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="AO234" t="s">
-        <v>3043</v>
+        <v>3025</v>
       </c>
       <c r="AQ234" t="s">
-        <v>3044</v>
+        <v>3026</v>
       </c>
       <c r="AU234" t="s">
-        <v>2807</v>
+        <v>3027</v>
       </c>
       <c r="AW234" t="s">
-        <v>2807</v>
-      </c>
-      <c r="BI234" t="s">
-        <v>3045</v>
-      </c>
-      <c r="BJ234" t="s">
-        <v>3046</v>
-      </c>
-      <c r="BK234" t="s">
-        <v>1030</v>
-      </c>
-      <c r="BO234" t="s">
-        <v>3045</v>
-      </c>
-      <c r="BP234" t="s">
-        <v>2486</v>
-      </c>
-      <c r="BQ234" t="s">
-        <v>1030</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="235" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>3047</v>
+        <v>3028</v>
       </c>
       <c r="D235" t="s">
         <v>91</v>
       </c>
       <c r="E235" t="s">
-        <v>3048</v>
+        <v>3029</v>
       </c>
       <c r="F235" t="s">
         <v>93</v>
@@ -30617,19 +32168,19 @@
         <v>94</v>
       </c>
       <c r="H235" t="s">
-        <v>2602</v>
+        <v>2867</v>
       </c>
       <c r="I235" t="s">
-        <v>3049</v>
+        <v>3030</v>
       </c>
       <c r="J235" t="s">
-        <v>3050</v>
+        <v>3031</v>
       </c>
       <c r="K235" t="s">
-        <v>3051</v>
+        <v>2954</v>
       </c>
       <c r="L235" t="s">
-        <v>3052</v>
+        <v>3032</v>
       </c>
       <c r="Q235" t="s">
         <v>2249</v>
@@ -30638,45 +32189,66 @@
         <v>100</v>
       </c>
       <c r="S235" t="s">
-        <v>3053</v>
+        <v>3033</v>
       </c>
       <c r="T235" t="s">
-        <v>1014</v>
+        <v>3034</v>
       </c>
       <c r="U235" t="s">
-        <v>3052</v>
-      </c>
-      <c r="Y235" t="s">
-        <v>482</v>
+        <v>3032</v>
       </c>
       <c r="Z235" t="s">
-        <v>1777</v>
+        <v>578</v>
       </c>
       <c r="AC235" t="s">
-        <v>1348</v>
+        <v>1450</v>
       </c>
       <c r="AD235" t="s">
-        <v>700</v>
+        <v>1043</v>
       </c>
       <c r="AE235" t="s">
-        <v>1668</v>
+        <v>3035</v>
+      </c>
+      <c r="AO235" t="s">
+        <v>3036</v>
+      </c>
+      <c r="AQ235" t="s">
+        <v>3037</v>
       </c>
       <c r="AU235" t="s">
-        <v>1432</v>
+        <v>3038</v>
       </c>
       <c r="AW235" t="s">
-        <v>1432</v>
+        <v>3038</v>
+      </c>
+      <c r="BI235" t="s">
+        <v>3039</v>
+      </c>
+      <c r="BJ235" t="s">
+        <v>3040</v>
+      </c>
+      <c r="BK235" t="s">
+        <v>2646</v>
+      </c>
+      <c r="BO235" t="s">
+        <v>3041</v>
+      </c>
+      <c r="BP235" t="s">
+        <v>3042</v>
+      </c>
+      <c r="BQ235" t="s">
+        <v>3043</v>
       </c>
     </row>
     <row r="236" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>3054</v>
+        <v>3044</v>
       </c>
       <c r="D236" t="s">
         <v>91</v>
       </c>
       <c r="E236" t="s">
-        <v>3055</v>
+        <v>3045</v>
       </c>
       <c r="F236" t="s">
         <v>93</v>
@@ -30685,19 +32257,19 @@
         <v>94</v>
       </c>
       <c r="H236" t="s">
-        <v>2616</v>
+        <v>2881</v>
       </c>
       <c r="I236" t="s">
-        <v>3056</v>
+        <v>3046</v>
       </c>
       <c r="J236" t="s">
-        <v>3000</v>
+        <v>2913</v>
       </c>
       <c r="K236" t="s">
-        <v>2791</v>
+        <v>2914</v>
       </c>
       <c r="L236" t="s">
-        <v>3057</v>
+        <v>916</v>
       </c>
       <c r="Q236" t="s">
         <v>2249</v>
@@ -30706,69 +32278,51 @@
         <v>100</v>
       </c>
       <c r="S236" t="s">
-        <v>3058</v>
+        <v>3047</v>
       </c>
       <c r="T236" t="s">
-        <v>3059</v>
+        <v>105</v>
       </c>
       <c r="U236" t="s">
-        <v>3057</v>
+        <v>916</v>
       </c>
       <c r="Y236" t="s">
-        <v>978</v>
+        <v>3048</v>
       </c>
       <c r="Z236" t="s">
-        <v>1060</v>
+        <v>123</v>
       </c>
       <c r="AC236" t="s">
-        <v>1602</v>
+        <v>328</v>
       </c>
       <c r="AD236" t="s">
-        <v>667</v>
+        <v>328</v>
       </c>
       <c r="AE236" t="s">
-        <v>3060</v>
+        <v>613</v>
       </c>
       <c r="AO236" t="s">
-        <v>3061</v>
+        <v>3049</v>
       </c>
       <c r="AQ236" t="s">
-        <v>3062</v>
+        <v>3050</v>
       </c>
       <c r="AU236" t="s">
-        <v>3063</v>
+        <v>2890</v>
       </c>
       <c r="AW236" t="s">
-        <v>3063</v>
-      </c>
-      <c r="BI236" t="s">
-        <v>3064</v>
-      </c>
-      <c r="BJ236" t="s">
-        <v>3065</v>
-      </c>
-      <c r="BK236" t="s">
-        <v>3066</v>
-      </c>
-      <c r="BO236" t="s">
-        <v>3067</v>
-      </c>
-      <c r="BP236" t="s">
-        <v>3068</v>
-      </c>
-      <c r="BQ236" t="s">
-        <v>3069</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="237" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>3070</v>
+        <v>3051</v>
       </c>
       <c r="D237" t="s">
         <v>91</v>
       </c>
       <c r="E237" t="s">
-        <v>3071</v>
+        <v>3052</v>
       </c>
       <c r="F237" t="s">
         <v>93</v>
@@ -30777,19 +32331,19 @@
         <v>94</v>
       </c>
       <c r="H237" t="s">
-        <v>2657</v>
+        <v>2867</v>
       </c>
       <c r="I237" t="s">
-        <v>3072</v>
+        <v>3053</v>
       </c>
       <c r="J237" t="s">
-        <v>2327</v>
+        <v>2869</v>
       </c>
       <c r="K237" t="s">
-        <v>2736</v>
+        <v>3054</v>
       </c>
       <c r="L237" t="s">
-        <v>3073</v>
+        <v>3055</v>
       </c>
       <c r="Q237" t="s">
         <v>2249</v>
@@ -30797,58 +32351,52 @@
       <c r="R237" t="s">
         <v>100</v>
       </c>
+      <c r="S237" t="s">
+        <v>3056</v>
+      </c>
+      <c r="T237" t="s">
+        <v>466</v>
+      </c>
       <c r="U237" t="s">
-        <v>3073</v>
+        <v>3055</v>
+      </c>
+      <c r="Y237" t="s">
+        <v>3057</v>
+      </c>
+      <c r="Z237" t="s">
+        <v>1303</v>
       </c>
       <c r="AC237" t="s">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="AD237" t="s">
-        <v>160</v>
+        <v>2548</v>
       </c>
       <c r="AE237" t="s">
-        <v>160</v>
+        <v>3035</v>
       </c>
       <c r="AO237" t="s">
-        <v>3074</v>
+        <v>3058</v>
       </c>
       <c r="AQ237" t="s">
-        <v>3075</v>
+        <v>3059</v>
       </c>
       <c r="AU237" t="s">
-        <v>2836</v>
+        <v>2878</v>
       </c>
       <c r="AW237" t="s">
-        <v>2836</v>
-      </c>
-      <c r="BI237" t="s">
-        <v>3076</v>
-      </c>
-      <c r="BJ237" t="s">
-        <v>3077</v>
-      </c>
-      <c r="BK237" t="s">
-        <v>3078</v>
-      </c>
-      <c r="BO237" t="s">
-        <v>3076</v>
-      </c>
-      <c r="BP237" t="s">
-        <v>3077</v>
-      </c>
-      <c r="BQ237" t="s">
-        <v>3078</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="238" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>3079</v>
+        <v>3060</v>
       </c>
       <c r="D238" t="s">
         <v>91</v>
       </c>
       <c r="E238" t="s">
-        <v>3080</v>
+        <v>3061</v>
       </c>
       <c r="F238" t="s">
         <v>93</v>
@@ -30857,19 +32405,19 @@
         <v>94</v>
       </c>
       <c r="H238" t="s">
-        <v>2657</v>
+        <v>2922</v>
       </c>
       <c r="I238" t="s">
-        <v>3081</v>
+        <v>3062</v>
       </c>
       <c r="J238" t="s">
-        <v>3082</v>
+        <v>2939</v>
       </c>
       <c r="K238" t="s">
-        <v>2736</v>
+        <v>2925</v>
       </c>
       <c r="L238" t="s">
-        <v>3083</v>
+        <v>3063</v>
       </c>
       <c r="Q238" t="s">
         <v>2249</v>
@@ -30878,66 +32426,66 @@
         <v>100</v>
       </c>
       <c r="T238" t="s">
-        <v>2472</v>
+        <v>3064</v>
       </c>
       <c r="U238" t="s">
-        <v>3083</v>
+        <v>3063</v>
       </c>
       <c r="Y238" t="s">
-        <v>3084</v>
+        <v>3065</v>
       </c>
       <c r="Z238" t="s">
-        <v>578</v>
+        <v>2078</v>
       </c>
       <c r="AC238" t="s">
-        <v>3085</v>
+        <v>3066</v>
       </c>
       <c r="AD238" t="s">
-        <v>3086</v>
+        <v>2958</v>
       </c>
       <c r="AE238" t="s">
-        <v>3087</v>
+        <v>3067</v>
       </c>
       <c r="AO238" t="s">
-        <v>3088</v>
+        <v>3068</v>
       </c>
       <c r="AQ238" t="s">
-        <v>3089</v>
+        <v>3069</v>
       </c>
       <c r="AU238" t="s">
-        <v>2613</v>
+        <v>3070</v>
       </c>
       <c r="AW238" t="s">
-        <v>2613</v>
+        <v>3070</v>
       </c>
       <c r="BI238" t="s">
-        <v>3090</v>
+        <v>3071</v>
       </c>
       <c r="BJ238" t="s">
-        <v>3091</v>
+        <v>3072</v>
       </c>
       <c r="BK238" t="s">
-        <v>3092</v>
+        <v>3073</v>
       </c>
       <c r="BO238" t="s">
-        <v>3093</v>
+        <v>3074</v>
       </c>
       <c r="BP238" t="s">
-        <v>3094</v>
+        <v>3075</v>
       </c>
       <c r="BQ238" t="s">
-        <v>3095</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="239" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>3096</v>
+        <v>3077</v>
       </c>
       <c r="D239" t="s">
         <v>91</v>
       </c>
       <c r="E239" t="s">
-        <v>3097</v>
+        <v>3078</v>
       </c>
       <c r="F239" t="s">
         <v>93</v>
@@ -30946,19 +32494,19 @@
         <v>94</v>
       </c>
       <c r="H239" t="s">
-        <v>2657</v>
+        <v>2922</v>
       </c>
       <c r="I239" t="s">
-        <v>3098</v>
+        <v>3079</v>
       </c>
       <c r="J239" t="s">
-        <v>2279</v>
+        <v>3080</v>
       </c>
       <c r="K239" t="s">
-        <v>2660</v>
+        <v>3081</v>
       </c>
       <c r="L239" t="s">
-        <v>3099</v>
+        <v>3082</v>
       </c>
       <c r="Q239" t="s">
         <v>2249</v>
@@ -30967,69 +32515,51 @@
         <v>100</v>
       </c>
       <c r="S239" t="s">
-        <v>3100</v>
+        <v>3083</v>
       </c>
       <c r="T239" t="s">
-        <v>3101</v>
+        <v>1749</v>
       </c>
       <c r="U239" t="s">
-        <v>3099</v>
+        <v>3082</v>
       </c>
       <c r="Y239" t="s">
-        <v>3102</v>
+        <v>1610</v>
       </c>
       <c r="Z239" t="s">
-        <v>1332</v>
+        <v>2474</v>
       </c>
       <c r="AC239" t="s">
-        <v>388</v>
+        <v>3084</v>
       </c>
       <c r="AD239" t="s">
-        <v>1394</v>
+        <v>3085</v>
       </c>
       <c r="AE239" t="s">
-        <v>259</v>
+        <v>3086</v>
       </c>
       <c r="AO239" t="s">
-        <v>3103</v>
+        <v>3087</v>
       </c>
       <c r="AQ239" t="s">
-        <v>3104</v>
+        <v>3088</v>
       </c>
       <c r="AU239" t="s">
-        <v>2774</v>
+        <v>3027</v>
       </c>
       <c r="AW239" t="s">
-        <v>2774</v>
-      </c>
-      <c r="BI239" t="s">
-        <v>3105</v>
-      </c>
-      <c r="BJ239" t="s">
-        <v>3106</v>
-      </c>
-      <c r="BK239" t="s">
-        <v>3107</v>
-      </c>
-      <c r="BO239" t="s">
-        <v>3108</v>
-      </c>
-      <c r="BP239" t="s">
-        <v>3109</v>
-      </c>
-      <c r="BQ239" t="s">
-        <v>3110</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="240" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>3111</v>
+        <v>3089</v>
       </c>
       <c r="D240" t="s">
         <v>91</v>
       </c>
       <c r="E240" t="s">
-        <v>3112</v>
+        <v>3090</v>
       </c>
       <c r="F240" t="s">
         <v>93</v>
@@ -31038,19 +32568,19 @@
         <v>94</v>
       </c>
       <c r="H240" t="s">
-        <v>2616</v>
+        <v>2922</v>
       </c>
       <c r="I240" t="s">
-        <v>3113</v>
+        <v>3091</v>
       </c>
       <c r="J240" t="s">
-        <v>2648</v>
+        <v>2433</v>
       </c>
       <c r="K240" t="s">
-        <v>2700</v>
+        <v>3001</v>
       </c>
       <c r="L240" t="s">
-        <v>3114</v>
+        <v>3092</v>
       </c>
       <c r="Q240" t="s">
         <v>2249</v>
@@ -31058,67 +32588,49 @@
       <c r="R240" t="s">
         <v>100</v>
       </c>
-      <c r="S240" t="s">
-        <v>3115</v>
-      </c>
       <c r="T240" t="s">
-        <v>3116</v>
+        <v>3093</v>
       </c>
       <c r="U240" t="s">
-        <v>3114</v>
+        <v>3092</v>
+      </c>
+      <c r="Y240" t="s">
+        <v>1102</v>
       </c>
       <c r="Z240" t="s">
-        <v>1303</v>
+        <v>978</v>
       </c>
       <c r="AC240" t="s">
-        <v>3117</v>
+        <v>3094</v>
       </c>
       <c r="AD240" t="s">
-        <v>293</v>
+        <v>3095</v>
       </c>
       <c r="AE240" t="s">
-        <v>1711</v>
+        <v>3096</v>
       </c>
       <c r="AO240" t="s">
-        <v>3118</v>
+        <v>3097</v>
       </c>
       <c r="AQ240" t="s">
-        <v>3119</v>
+        <v>3098</v>
       </c>
       <c r="AU240" t="s">
-        <v>2613</v>
+        <v>3099</v>
       </c>
       <c r="AW240" t="s">
-        <v>2613</v>
-      </c>
-      <c r="BI240" t="s">
-        <v>3120</v>
-      </c>
-      <c r="BJ240" t="s">
-        <v>3121</v>
-      </c>
-      <c r="BK240" t="s">
-        <v>3122</v>
-      </c>
-      <c r="BO240" t="s">
-        <v>3123</v>
-      </c>
-      <c r="BP240" t="s">
-        <v>3124</v>
-      </c>
-      <c r="BQ240" t="s">
-        <v>3125</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="241" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>3126</v>
+        <v>3100</v>
       </c>
       <c r="D241" t="s">
         <v>91</v>
       </c>
       <c r="E241" t="s">
-        <v>3127</v>
+        <v>3101</v>
       </c>
       <c r="F241" t="s">
         <v>93</v>
@@ -31127,19 +32639,19 @@
         <v>94</v>
       </c>
       <c r="H241" t="s">
-        <v>2657</v>
+        <v>2867</v>
       </c>
       <c r="I241" t="s">
-        <v>3128</v>
+        <v>3102</v>
       </c>
       <c r="J241" t="s">
-        <v>3129</v>
+        <v>3103</v>
       </c>
       <c r="K241" t="s">
-        <v>2660</v>
+        <v>3104</v>
       </c>
       <c r="L241" t="s">
-        <v>3130</v>
+        <v>3105</v>
       </c>
       <c r="Q241" t="s">
         <v>2249</v>
@@ -31147,67 +32659,64 @@
       <c r="R241" t="s">
         <v>100</v>
       </c>
+      <c r="S241" t="s">
+        <v>3106</v>
+      </c>
       <c r="T241" t="s">
-        <v>3131</v>
+        <v>1244</v>
       </c>
       <c r="U241" t="s">
-        <v>3130</v>
-      </c>
-      <c r="Y241" t="s">
-        <v>697</v>
-      </c>
-      <c r="Z241" t="s">
-        <v>1636</v>
+        <v>3105</v>
       </c>
       <c r="AC241" t="s">
-        <v>2422</v>
+        <v>3107</v>
       </c>
       <c r="AD241" t="s">
-        <v>1989</v>
+        <v>3108</v>
       </c>
       <c r="AE241" t="s">
-        <v>533</v>
+        <v>3109</v>
       </c>
       <c r="AO241" t="s">
-        <v>3132</v>
+        <v>160</v>
       </c>
       <c r="AQ241" t="s">
-        <v>3133</v>
+        <v>160</v>
       </c>
       <c r="AU241" t="s">
-        <v>3006</v>
+        <v>2890</v>
       </c>
       <c r="AW241" t="s">
-        <v>3006</v>
+        <v>2890</v>
       </c>
       <c r="BI241" t="s">
-        <v>3134</v>
+        <v>3110</v>
       </c>
       <c r="BJ241" t="s">
-        <v>3135</v>
+        <v>3111</v>
       </c>
       <c r="BK241" t="s">
-        <v>3136</v>
+        <v>3112</v>
       </c>
       <c r="BO241" t="s">
-        <v>3137</v>
+        <v>3113</v>
       </c>
       <c r="BP241" t="s">
-        <v>3138</v>
+        <v>3114</v>
       </c>
       <c r="BQ241" t="s">
-        <v>1868</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="242" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>3139</v>
+        <v>3115</v>
       </c>
       <c r="D242" t="s">
         <v>91</v>
       </c>
       <c r="E242" t="s">
-        <v>3140</v>
+        <v>3116</v>
       </c>
       <c r="F242" t="s">
         <v>93</v>
@@ -31216,19 +32725,19 @@
         <v>94</v>
       </c>
       <c r="H242" t="s">
-        <v>2657</v>
+        <v>2922</v>
       </c>
       <c r="I242" t="s">
-        <v>3141</v>
+        <v>3117</v>
       </c>
       <c r="J242" t="s">
-        <v>3142</v>
+        <v>3080</v>
       </c>
       <c r="K242" t="s">
-        <v>2736</v>
+        <v>3118</v>
       </c>
       <c r="L242" t="s">
-        <v>3143</v>
+        <v>3119</v>
       </c>
       <c r="Q242" t="s">
         <v>2249</v>
@@ -31236,67 +32745,64 @@
       <c r="R242" t="s">
         <v>100</v>
       </c>
+      <c r="S242" t="s">
+        <v>3120</v>
+      </c>
       <c r="T242" t="s">
-        <v>3144</v>
+        <v>3121</v>
       </c>
       <c r="U242" t="s">
-        <v>3143</v>
+        <v>3119</v>
       </c>
       <c r="Y242" t="s">
-        <v>3145</v>
+        <v>836</v>
       </c>
       <c r="Z242" t="s">
-        <v>1127</v>
+        <v>2117</v>
       </c>
       <c r="AC242" t="s">
-        <v>1379</v>
+        <v>3122</v>
       </c>
       <c r="AD242" t="s">
-        <v>2565</v>
+        <v>2280</v>
       </c>
       <c r="AE242" t="s">
-        <v>3146</v>
-      </c>
-      <c r="AO242" t="s">
-        <v>3147</v>
-      </c>
-      <c r="AQ242" t="s">
-        <v>3148</v>
+        <v>3123</v>
       </c>
       <c r="AU242" t="s">
-        <v>2807</v>
+        <v>3124</v>
       </c>
       <c r="AW242" t="s">
-        <v>2807</v>
+        <v>3125</v>
       </c>
       <c r="BI242" t="s">
-        <v>3149</v>
+        <v>3126</v>
       </c>
       <c r="BJ242" t="s">
-        <v>3150</v>
+        <v>3127</v>
       </c>
       <c r="BK242" t="s">
-        <v>3151</v>
+        <v>3128</v>
       </c>
       <c r="BO242" t="s">
-        <v>3152</v>
+        <v>3129</v>
       </c>
       <c r="BP242" t="s">
-        <v>3153</v>
+        <v>3130</v>
       </c>
       <c r="BQ242" t="s">
-        <v>3154</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="243" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>3155</v>
+        <v>3132</v>
       </c>
       <c r="D243" t="s">
         <v>91</v>
       </c>
       <c r="E243" t="s">
-        <v>3156</v>
+        <v>3101</v>
       </c>
       <c r="F243" t="s">
         <v>93</v>
@@ -31305,19 +32811,19 @@
         <v>94</v>
       </c>
       <c r="H243" t="s">
-        <v>2657</v>
+        <v>2867</v>
       </c>
       <c r="I243" t="s">
-        <v>3157</v>
+        <v>3133</v>
       </c>
       <c r="J243" t="s">
-        <v>3158</v>
+        <v>2913</v>
       </c>
       <c r="K243" t="s">
-        <v>2660</v>
+        <v>2965</v>
       </c>
       <c r="L243" t="s">
-        <v>3159</v>
+        <v>3134</v>
       </c>
       <c r="Q243" t="s">
         <v>2249</v>
@@ -31325,70 +32831,64 @@
       <c r="R243" t="s">
         <v>100</v>
       </c>
-      <c r="S243" t="s">
-        <v>3160</v>
-      </c>
       <c r="T243" t="s">
-        <v>3161</v>
+        <v>3135</v>
       </c>
       <c r="U243" t="s">
-        <v>3159</v>
-      </c>
-      <c r="Y243" t="s">
-        <v>354</v>
+        <v>3134</v>
       </c>
       <c r="Z243" t="s">
-        <v>325</v>
+        <v>1303</v>
       </c>
       <c r="AC243" t="s">
-        <v>388</v>
+        <v>667</v>
       </c>
       <c r="AD243" t="s">
-        <v>739</v>
+        <v>700</v>
       </c>
       <c r="AE243" t="s">
-        <v>1989</v>
+        <v>1318</v>
       </c>
       <c r="AO243" t="s">
-        <v>3162</v>
+        <v>3136</v>
       </c>
       <c r="AQ243" t="s">
-        <v>3163</v>
+        <v>3137</v>
       </c>
       <c r="AU243" t="s">
-        <v>2763</v>
+        <v>2890</v>
       </c>
       <c r="AW243" t="s">
-        <v>2763</v>
+        <v>2890</v>
       </c>
       <c r="BI243" t="s">
-        <v>3164</v>
+        <v>3138</v>
       </c>
       <c r="BJ243" t="s">
-        <v>3165</v>
+        <v>3139</v>
       </c>
       <c r="BK243" t="s">
-        <v>3166</v>
+        <v>3140</v>
       </c>
       <c r="BO243" t="s">
-        <v>3167</v>
+        <v>3141</v>
       </c>
       <c r="BP243" t="s">
-        <v>3168</v>
+        <v>3142</v>
       </c>
       <c r="BQ243" t="s">
-        <v>3169</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="244" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>3170</v>
+        <v>3144</v>
       </c>
       <c r="D244" t="s">
         <v>91</v>
       </c>
       <c r="E244" t="s">
-        <v>3171</v>
+        <v>3145</v>
       </c>
       <c r="F244" t="s">
         <v>93</v>
@@ -31397,19 +32897,19 @@
         <v>94</v>
       </c>
       <c r="H244" t="s">
-        <v>2657</v>
+        <v>2881</v>
       </c>
       <c r="I244" t="s">
-        <v>3172</v>
+        <v>3146</v>
       </c>
       <c r="J244" t="s">
-        <v>3173</v>
+        <v>3147</v>
       </c>
       <c r="K244" t="s">
-        <v>2736</v>
+        <v>2914</v>
       </c>
       <c r="L244" t="s">
-        <v>3174</v>
+        <v>3148</v>
       </c>
       <c r="Q244" t="s">
         <v>2249</v>
@@ -31417,67 +32917,67 @@
       <c r="R244" t="s">
         <v>100</v>
       </c>
+      <c r="S244" t="s">
+        <v>3149</v>
+      </c>
       <c r="T244" t="s">
-        <v>3175</v>
+        <v>3150</v>
       </c>
       <c r="U244" t="s">
-        <v>3174</v>
-      </c>
-      <c r="Y244" t="s">
-        <v>142</v>
+        <v>3148</v>
       </c>
       <c r="Z244" t="s">
-        <v>2794</v>
+        <v>3151</v>
       </c>
       <c r="AC244" t="s">
-        <v>1257</v>
+        <v>633</v>
       </c>
       <c r="AD244" t="s">
-        <v>502</v>
+        <v>3152</v>
       </c>
       <c r="AE244" t="s">
-        <v>277</v>
+        <v>3153</v>
       </c>
       <c r="AO244" t="s">
-        <v>3176</v>
+        <v>3154</v>
       </c>
       <c r="AQ244" t="s">
-        <v>3176</v>
+        <v>3155</v>
       </c>
       <c r="AU244" t="s">
-        <v>2961</v>
+        <v>3124</v>
       </c>
       <c r="AW244" t="s">
-        <v>2961</v>
+        <v>3124</v>
       </c>
       <c r="BI244" t="s">
-        <v>3177</v>
+        <v>3156</v>
       </c>
       <c r="BJ244" t="s">
-        <v>3178</v>
+        <v>3157</v>
       </c>
       <c r="BK244" t="s">
-        <v>3179</v>
+        <v>3158</v>
       </c>
       <c r="BO244" t="s">
-        <v>3180</v>
+        <v>3159</v>
       </c>
       <c r="BP244" t="s">
-        <v>3181</v>
+        <v>3160</v>
       </c>
       <c r="BQ244" t="s">
-        <v>3182</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="245" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>3183</v>
+        <v>3162</v>
       </c>
       <c r="D245" t="s">
         <v>91</v>
       </c>
       <c r="E245" t="s">
-        <v>3184</v>
+        <v>3163</v>
       </c>
       <c r="F245" t="s">
         <v>93</v>
@@ -31486,19 +32986,19 @@
         <v>94</v>
       </c>
       <c r="H245" t="s">
-        <v>2657</v>
+        <v>2922</v>
       </c>
       <c r="I245" t="s">
-        <v>3185</v>
+        <v>3164</v>
       </c>
       <c r="J245" t="s">
-        <v>3186</v>
+        <v>3165</v>
       </c>
       <c r="K245" t="s">
-        <v>2660</v>
+        <v>3081</v>
       </c>
       <c r="L245" t="s">
-        <v>1549</v>
+        <v>3166</v>
       </c>
       <c r="Q245" t="s">
         <v>2249</v>
@@ -31507,69 +33007,69 @@
         <v>100</v>
       </c>
       <c r="S245" t="s">
-        <v>3187</v>
+        <v>3167</v>
       </c>
       <c r="T245" t="s">
-        <v>419</v>
+        <v>3168</v>
       </c>
       <c r="U245" t="s">
-        <v>1549</v>
+        <v>3166</v>
       </c>
       <c r="Y245" t="s">
-        <v>308</v>
+        <v>3169</v>
       </c>
       <c r="Z245" t="s">
-        <v>830</v>
+        <v>697</v>
       </c>
       <c r="AC245" t="s">
-        <v>486</v>
+        <v>1980</v>
       </c>
       <c r="AD245" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="AE245" t="s">
-        <v>517</v>
+        <v>966</v>
       </c>
       <c r="AO245" t="s">
-        <v>3188</v>
+        <v>3170</v>
       </c>
       <c r="AQ245" t="s">
-        <v>3189</v>
+        <v>3171</v>
       </c>
       <c r="AU245" t="s">
-        <v>2836</v>
+        <v>3172</v>
       </c>
       <c r="AW245" t="s">
-        <v>2836</v>
+        <v>3172</v>
       </c>
       <c r="BI245" t="s">
-        <v>3190</v>
+        <v>3173</v>
       </c>
       <c r="BJ245" t="s">
-        <v>3191</v>
+        <v>3174</v>
       </c>
       <c r="BK245" t="s">
-        <v>3192</v>
+        <v>3175</v>
       </c>
       <c r="BO245" t="s">
-        <v>3193</v>
+        <v>3176</v>
       </c>
       <c r="BP245" t="s">
-        <v>3194</v>
+        <v>3177</v>
       </c>
       <c r="BQ245" t="s">
-        <v>3195</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="246" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>3196</v>
+        <v>3179</v>
       </c>
       <c r="D246" t="s">
         <v>91</v>
       </c>
       <c r="E246" t="s">
-        <v>3197</v>
+        <v>3180</v>
       </c>
       <c r="F246" t="s">
         <v>93</v>
@@ -31578,19 +33078,19 @@
         <v>94</v>
       </c>
       <c r="H246" t="s">
-        <v>2657</v>
+        <v>3181</v>
       </c>
       <c r="I246" t="s">
-        <v>3198</v>
+        <v>3182</v>
       </c>
       <c r="J246" t="s">
-        <v>2279</v>
+        <v>2869</v>
       </c>
       <c r="K246" t="s">
-        <v>2660</v>
+        <v>2914</v>
       </c>
       <c r="L246" t="s">
-        <v>1810</v>
+        <v>3183</v>
       </c>
       <c r="Q246" t="s">
         <v>2249</v>
@@ -31599,58 +33099,1956 @@
         <v>100</v>
       </c>
       <c r="S246" t="s">
+        <v>3184</v>
+      </c>
+      <c r="T246" t="s">
+        <v>1877</v>
+      </c>
+      <c r="U246" t="s">
+        <v>3183</v>
+      </c>
+      <c r="Z246" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC246" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD246" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE246" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO246" t="s">
+        <v>3185</v>
+      </c>
+      <c r="AQ246" t="s">
+        <v>3088</v>
+      </c>
+      <c r="AU246" t="s">
+        <v>3070</v>
+      </c>
+      <c r="AW246" t="s">
+        <v>3070</v>
+      </c>
+      <c r="BI246" t="s">
+        <v>207</v>
+      </c>
+      <c r="BJ246" t="s">
+        <v>332</v>
+      </c>
+      <c r="BK246" t="s">
+        <v>791</v>
+      </c>
+      <c r="BO246" t="s">
+        <v>207</v>
+      </c>
+      <c r="BP246" t="s">
+        <v>332</v>
+      </c>
+      <c r="BQ246" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="247" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>3186</v>
+      </c>
+      <c r="D247" t="s">
+        <v>91</v>
+      </c>
+      <c r="E247" t="s">
+        <v>3187</v>
+      </c>
+      <c r="F247" t="s">
+        <v>93</v>
+      </c>
+      <c r="G247" t="s">
+        <v>94</v>
+      </c>
+      <c r="H247" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I247" t="s">
+        <v>3188</v>
+      </c>
+      <c r="J247" t="s">
+        <v>3080</v>
+      </c>
+      <c r="K247" t="s">
+        <v>3081</v>
+      </c>
+      <c r="L247" t="s">
+        <v>3189</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R247" t="s">
+        <v>100</v>
+      </c>
+      <c r="S247" t="s">
+        <v>3190</v>
+      </c>
+      <c r="T247" t="s">
+        <v>3191</v>
+      </c>
+      <c r="U247" t="s">
+        <v>3189</v>
+      </c>
+      <c r="Y247" t="s">
+        <v>3192</v>
+      </c>
+      <c r="Z247" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AC247" t="s">
+        <v>3193</v>
+      </c>
+      <c r="AD247" t="s">
+        <v>3194</v>
+      </c>
+      <c r="AE247" t="s">
+        <v>3195</v>
+      </c>
+      <c r="AU247" t="s">
+        <v>3196</v>
+      </c>
+      <c r="AW247" t="s">
+        <v>3197</v>
+      </c>
+      <c r="BI247" t="s">
+        <v>3198</v>
+      </c>
+      <c r="BJ247" t="s">
         <v>3199</v>
       </c>
-      <c r="T246" t="s">
+      <c r="BK247" t="s">
         <v>3200</v>
       </c>
-      <c r="U246" t="s">
+      <c r="BO247" t="s">
+        <v>3201</v>
+      </c>
+      <c r="BP247" t="s">
+        <v>3202</v>
+      </c>
+      <c r="BQ247" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="248" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>3204</v>
+      </c>
+      <c r="D248" t="s">
+        <v>91</v>
+      </c>
+      <c r="E248" t="s">
+        <v>3205</v>
+      </c>
+      <c r="F248" t="s">
+        <v>93</v>
+      </c>
+      <c r="G248" t="s">
+        <v>94</v>
+      </c>
+      <c r="H248" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I248" t="s">
+        <v>3206</v>
+      </c>
+      <c r="J248" t="s">
+        <v>2326</v>
+      </c>
+      <c r="K248" t="s">
+        <v>3207</v>
+      </c>
+      <c r="L248" t="s">
+        <v>3208</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R248" t="s">
+        <v>100</v>
+      </c>
+      <c r="S248" t="s">
+        <v>3209</v>
+      </c>
+      <c r="T248" t="s">
+        <v>3210</v>
+      </c>
+      <c r="U248" t="s">
+        <v>3208</v>
+      </c>
+      <c r="Y248" t="s">
+        <v>1329</v>
+      </c>
+      <c r="Z248" t="s">
+        <v>3211</v>
+      </c>
+      <c r="AC248" t="s">
+        <v>3212</v>
+      </c>
+      <c r="AD248" t="s">
+        <v>3212</v>
+      </c>
+      <c r="AE248" t="s">
+        <v>3213</v>
+      </c>
+      <c r="AO248" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ248" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU248" t="s">
+        <v>3214</v>
+      </c>
+      <c r="AW248" t="s">
+        <v>3214</v>
+      </c>
+      <c r="BI248" t="s">
+        <v>3215</v>
+      </c>
+      <c r="BJ248" t="s">
+        <v>3215</v>
+      </c>
+      <c r="BK248" t="s">
+        <v>3216</v>
+      </c>
+      <c r="BO248" t="s">
+        <v>3217</v>
+      </c>
+      <c r="BP248" t="s">
+        <v>3217</v>
+      </c>
+      <c r="BQ248" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="249" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>3219</v>
+      </c>
+      <c r="D249" t="s">
+        <v>91</v>
+      </c>
+      <c r="E249" t="s">
+        <v>3220</v>
+      </c>
+      <c r="F249" t="s">
+        <v>93</v>
+      </c>
+      <c r="G249" t="s">
+        <v>94</v>
+      </c>
+      <c r="H249" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I249" t="s">
+        <v>3221</v>
+      </c>
+      <c r="J249" t="s">
+        <v>2363</v>
+      </c>
+      <c r="K249" t="s">
+        <v>3001</v>
+      </c>
+      <c r="L249" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R249" t="s">
+        <v>100</v>
+      </c>
+      <c r="U249" t="s">
+        <v>697</v>
+      </c>
+      <c r="AC249" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD249" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE249" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO249" t="s">
+        <v>3222</v>
+      </c>
+      <c r="AQ249" t="s">
+        <v>3223</v>
+      </c>
+      <c r="AU249" t="s">
+        <v>3224</v>
+      </c>
+      <c r="AW249" t="s">
+        <v>3224</v>
+      </c>
+      <c r="BI249" t="s">
+        <v>3225</v>
+      </c>
+      <c r="BJ249" t="s">
+        <v>3226</v>
+      </c>
+      <c r="BK249" t="s">
+        <v>3227</v>
+      </c>
+      <c r="BO249" t="s">
+        <v>3225</v>
+      </c>
+      <c r="BP249" t="s">
+        <v>3226</v>
+      </c>
+      <c r="BQ249" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="250" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>3228</v>
+      </c>
+      <c r="D250" t="s">
+        <v>91</v>
+      </c>
+      <c r="E250" t="s">
+        <v>3229</v>
+      </c>
+      <c r="F250" t="s">
+        <v>93</v>
+      </c>
+      <c r="G250" t="s">
+        <v>94</v>
+      </c>
+      <c r="H250" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I250" t="s">
+        <v>3230</v>
+      </c>
+      <c r="J250" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K250" t="s">
+        <v>3001</v>
+      </c>
+      <c r="L250" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R250" t="s">
+        <v>100</v>
+      </c>
+      <c r="U250" t="s">
+        <v>578</v>
+      </c>
+      <c r="AC250" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD250" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE250" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO250" t="s">
+        <v>3231</v>
+      </c>
+      <c r="AQ250" t="s">
+        <v>3232</v>
+      </c>
+      <c r="AU250" t="s">
+        <v>3027</v>
+      </c>
+      <c r="AW250" t="s">
+        <v>3027</v>
+      </c>
+      <c r="BI250" t="s">
+        <v>3233</v>
+      </c>
+      <c r="BJ250" t="s">
+        <v>3234</v>
+      </c>
+      <c r="BK250" t="s">
+        <v>3235</v>
+      </c>
+      <c r="BO250" t="s">
+        <v>3233</v>
+      </c>
+      <c r="BP250" t="s">
+        <v>3234</v>
+      </c>
+      <c r="BQ250" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="251" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>3236</v>
+      </c>
+      <c r="D251" t="s">
+        <v>91</v>
+      </c>
+      <c r="E251" t="s">
+        <v>3237</v>
+      </c>
+      <c r="F251" t="s">
+        <v>93</v>
+      </c>
+      <c r="G251" t="s">
+        <v>94</v>
+      </c>
+      <c r="H251" t="s">
+        <v>2867</v>
+      </c>
+      <c r="I251" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J251" t="s">
+        <v>3147</v>
+      </c>
+      <c r="K251" t="s">
+        <v>2954</v>
+      </c>
+      <c r="L251" t="s">
+        <v>3239</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R251" t="s">
+        <v>100</v>
+      </c>
+      <c r="S251" t="s">
+        <v>3240</v>
+      </c>
+      <c r="T251" t="s">
+        <v>220</v>
+      </c>
+      <c r="U251" t="s">
+        <v>3239</v>
+      </c>
+      <c r="Z251" t="s">
+        <v>3241</v>
+      </c>
+      <c r="AC251" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD251" t="s">
+        <v>1766</v>
+      </c>
+      <c r="AE251" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AO251" t="s">
+        <v>3242</v>
+      </c>
+      <c r="AQ251" t="s">
+        <v>3243</v>
+      </c>
+      <c r="AU251" t="s">
+        <v>1432</v>
+      </c>
+      <c r="AW251" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="252" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>3244</v>
+      </c>
+      <c r="D252" t="s">
+        <v>91</v>
+      </c>
+      <c r="E252" t="s">
+        <v>3245</v>
+      </c>
+      <c r="F252" t="s">
+        <v>93</v>
+      </c>
+      <c r="G252" t="s">
+        <v>94</v>
+      </c>
+      <c r="H252" t="s">
+        <v>2867</v>
+      </c>
+      <c r="I252" t="s">
+        <v>3246</v>
+      </c>
+      <c r="J252" t="s">
+        <v>3247</v>
+      </c>
+      <c r="K252" t="s">
+        <v>2954</v>
+      </c>
+      <c r="L252" t="s">
+        <v>3248</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R252" t="s">
+        <v>100</v>
+      </c>
+      <c r="S252" t="s">
+        <v>3249</v>
+      </c>
+      <c r="T252" t="s">
+        <v>3250</v>
+      </c>
+      <c r="U252" t="s">
+        <v>3248</v>
+      </c>
+      <c r="Y252" t="s">
+        <v>788</v>
+      </c>
+      <c r="Z252" t="s">
+        <v>3151</v>
+      </c>
+      <c r="AC252" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD252" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE252" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AO252" t="s">
+        <v>3251</v>
+      </c>
+      <c r="AQ252" t="s">
+        <v>3252</v>
+      </c>
+      <c r="AU252" t="s">
+        <v>3253</v>
+      </c>
+      <c r="AW252" t="s">
+        <v>3253</v>
+      </c>
+      <c r="BI252" t="s">
+        <v>3254</v>
+      </c>
+      <c r="BJ252" t="s">
+        <v>3255</v>
+      </c>
+      <c r="BK252" t="s">
+        <v>3256</v>
+      </c>
+      <c r="BO252" t="s">
+        <v>3257</v>
+      </c>
+      <c r="BP252" t="s">
+        <v>3258</v>
+      </c>
+      <c r="BQ252" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="253" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>3260</v>
+      </c>
+      <c r="D253" t="s">
+        <v>91</v>
+      </c>
+      <c r="E253" t="s">
+        <v>3261</v>
+      </c>
+      <c r="F253" t="s">
+        <v>93</v>
+      </c>
+      <c r="G253" t="s">
+        <v>94</v>
+      </c>
+      <c r="H253" t="s">
+        <v>2867</v>
+      </c>
+      <c r="I253" t="s">
+        <v>3262</v>
+      </c>
+      <c r="J253" t="s">
+        <v>3263</v>
+      </c>
+      <c r="K253" t="s">
+        <v>2954</v>
+      </c>
+      <c r="L253" t="s">
+        <v>3264</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R253" t="s">
+        <v>100</v>
+      </c>
+      <c r="S253" t="s">
+        <v>3265</v>
+      </c>
+      <c r="T253" t="s">
+        <v>3266</v>
+      </c>
+      <c r="U253" t="s">
+        <v>3264</v>
+      </c>
+      <c r="Z253" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC253" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AD253" t="s">
+        <v>533</v>
+      </c>
+      <c r="AE253" t="s">
+        <v>632</v>
+      </c>
+      <c r="AO253" t="s">
+        <v>3267</v>
+      </c>
+      <c r="AQ253" t="s">
+        <v>3268</v>
+      </c>
+      <c r="AU253" t="s">
+        <v>3269</v>
+      </c>
+      <c r="AW253" t="s">
+        <v>3269</v>
+      </c>
+      <c r="BI253" t="s">
+        <v>1490</v>
+      </c>
+      <c r="BJ253" t="s">
+        <v>3270</v>
+      </c>
+      <c r="BK253" t="s">
+        <v>3271</v>
+      </c>
+      <c r="BO253" t="s">
+        <v>3272</v>
+      </c>
+      <c r="BP253" t="s">
+        <v>3273</v>
+      </c>
+      <c r="BQ253" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="254" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>3275</v>
+      </c>
+      <c r="D254" t="s">
+        <v>91</v>
+      </c>
+      <c r="E254" t="s">
+        <v>3276</v>
+      </c>
+      <c r="F254" t="s">
+        <v>93</v>
+      </c>
+      <c r="G254" t="s">
+        <v>94</v>
+      </c>
+      <c r="H254" t="s">
+        <v>2867</v>
+      </c>
+      <c r="I254" t="s">
+        <v>3277</v>
+      </c>
+      <c r="J254" t="s">
+        <v>3278</v>
+      </c>
+      <c r="K254" t="s">
+        <v>3054</v>
+      </c>
+      <c r="L254" t="s">
+        <v>3279</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R254" t="s">
+        <v>100</v>
+      </c>
+      <c r="S254" t="s">
+        <v>3280</v>
+      </c>
+      <c r="T254" t="s">
+        <v>3281</v>
+      </c>
+      <c r="U254" t="s">
+        <v>3279</v>
+      </c>
+      <c r="Y254" t="s">
+        <v>886</v>
+      </c>
+      <c r="Z254" t="s">
+        <v>697</v>
+      </c>
+      <c r="AC254" t="s">
+        <v>964</v>
+      </c>
+      <c r="AD254" t="s">
+        <v>502</v>
+      </c>
+      <c r="AE254" t="s">
+        <v>3282</v>
+      </c>
+      <c r="AO254" t="s">
+        <v>3283</v>
+      </c>
+      <c r="AQ254" t="s">
+        <v>3284</v>
+      </c>
+      <c r="AU254" t="s">
+        <v>3027</v>
+      </c>
+      <c r="AW254" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="255" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>3285</v>
+      </c>
+      <c r="D255" t="s">
+        <v>91</v>
+      </c>
+      <c r="E255" t="s">
+        <v>3286</v>
+      </c>
+      <c r="F255" t="s">
+        <v>93</v>
+      </c>
+      <c r="G255" t="s">
+        <v>94</v>
+      </c>
+      <c r="H255" t="s">
+        <v>2881</v>
+      </c>
+      <c r="I255" t="s">
+        <v>3287</v>
+      </c>
+      <c r="J255" t="s">
+        <v>2913</v>
+      </c>
+      <c r="K255" t="s">
+        <v>2965</v>
+      </c>
+      <c r="L255" t="s">
+        <v>3288</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R255" t="s">
+        <v>100</v>
+      </c>
+      <c r="S255" t="s">
+        <v>3289</v>
+      </c>
+      <c r="T255" t="s">
+        <v>3290</v>
+      </c>
+      <c r="U255" t="s">
+        <v>3288</v>
+      </c>
+      <c r="Y255" t="s">
+        <v>2917</v>
+      </c>
+      <c r="Z255" t="s">
+        <v>2969</v>
+      </c>
+      <c r="AC255" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AD255" t="s">
+        <v>2384</v>
+      </c>
+      <c r="AE255" t="s">
+        <v>683</v>
+      </c>
+      <c r="AO255" t="s">
+        <v>3291</v>
+      </c>
+      <c r="AQ255" t="s">
+        <v>3292</v>
+      </c>
+      <c r="AU255" t="s">
+        <v>3070</v>
+      </c>
+      <c r="AW255" t="s">
+        <v>3070</v>
+      </c>
+      <c r="BI255" t="s">
+        <v>3293</v>
+      </c>
+      <c r="BJ255" t="s">
+        <v>3294</v>
+      </c>
+      <c r="BK255" t="s">
+        <v>3295</v>
+      </c>
+      <c r="BO255" t="s">
+        <v>3296</v>
+      </c>
+      <c r="BP255" t="s">
+        <v>3297</v>
+      </c>
+      <c r="BQ255" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="256" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>3299</v>
+      </c>
+      <c r="D256" t="s">
+        <v>91</v>
+      </c>
+      <c r="E256" t="s">
+        <v>3300</v>
+      </c>
+      <c r="F256" t="s">
+        <v>93</v>
+      </c>
+      <c r="G256" t="s">
+        <v>94</v>
+      </c>
+      <c r="H256" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I256" t="s">
+        <v>3301</v>
+      </c>
+      <c r="J256" t="s">
+        <v>2279</v>
+      </c>
+      <c r="K256" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L256" t="s">
+        <v>3302</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R256" t="s">
+        <v>100</v>
+      </c>
+      <c r="S256" t="s">
+        <v>3303</v>
+      </c>
+      <c r="T256" t="s">
+        <v>3304</v>
+      </c>
+      <c r="U256" t="s">
+        <v>3302</v>
+      </c>
+      <c r="Y256" t="s">
+        <v>3305</v>
+      </c>
+      <c r="Z256" t="s">
+        <v>2474</v>
+      </c>
+      <c r="AC256" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD256" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE256" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO256" t="s">
+        <v>3306</v>
+      </c>
+      <c r="AQ256" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AU256" t="s">
+        <v>3070</v>
+      </c>
+      <c r="AW256" t="s">
+        <v>3070</v>
+      </c>
+      <c r="BI256" t="s">
+        <v>3308</v>
+      </c>
+      <c r="BJ256" t="s">
+        <v>3309</v>
+      </c>
+      <c r="BK256" t="s">
+        <v>1030</v>
+      </c>
+      <c r="BO256" t="s">
+        <v>3308</v>
+      </c>
+      <c r="BP256" t="s">
+        <v>2486</v>
+      </c>
+      <c r="BQ256" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="257" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>3310</v>
+      </c>
+      <c r="D257" t="s">
+        <v>91</v>
+      </c>
+      <c r="E257" t="s">
+        <v>3311</v>
+      </c>
+      <c r="F257" t="s">
+        <v>93</v>
+      </c>
+      <c r="G257" t="s">
+        <v>94</v>
+      </c>
+      <c r="H257" t="s">
+        <v>2867</v>
+      </c>
+      <c r="I257" t="s">
+        <v>3312</v>
+      </c>
+      <c r="J257" t="s">
+        <v>3313</v>
+      </c>
+      <c r="K257" t="s">
+        <v>3314</v>
+      </c>
+      <c r="L257" t="s">
+        <v>3315</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R257" t="s">
+        <v>100</v>
+      </c>
+      <c r="S257" t="s">
+        <v>3316</v>
+      </c>
+      <c r="T257" t="s">
+        <v>1014</v>
+      </c>
+      <c r="U257" t="s">
+        <v>3315</v>
+      </c>
+      <c r="Y257" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z257" t="s">
+        <v>1777</v>
+      </c>
+      <c r="AC257" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AD257" t="s">
+        <v>700</v>
+      </c>
+      <c r="AE257" t="s">
+        <v>1668</v>
+      </c>
+      <c r="AU257" t="s">
+        <v>1432</v>
+      </c>
+      <c r="AW257" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="258" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>3317</v>
+      </c>
+      <c r="D258" t="s">
+        <v>91</v>
+      </c>
+      <c r="E258" t="s">
+        <v>3318</v>
+      </c>
+      <c r="F258" t="s">
+        <v>93</v>
+      </c>
+      <c r="G258" t="s">
+        <v>94</v>
+      </c>
+      <c r="H258" t="s">
+        <v>2881</v>
+      </c>
+      <c r="I258" t="s">
+        <v>3319</v>
+      </c>
+      <c r="J258" t="s">
+        <v>3263</v>
+      </c>
+      <c r="K258" t="s">
+        <v>3054</v>
+      </c>
+      <c r="L258" t="s">
+        <v>3320</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R258" t="s">
+        <v>100</v>
+      </c>
+      <c r="S258" t="s">
+        <v>3321</v>
+      </c>
+      <c r="T258" t="s">
+        <v>3322</v>
+      </c>
+      <c r="U258" t="s">
+        <v>3320</v>
+      </c>
+      <c r="Y258" t="s">
+        <v>978</v>
+      </c>
+      <c r="Z258" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AC258" t="s">
+        <v>1602</v>
+      </c>
+      <c r="AD258" t="s">
+        <v>667</v>
+      </c>
+      <c r="AE258" t="s">
+        <v>3323</v>
+      </c>
+      <c r="AO258" t="s">
+        <v>3324</v>
+      </c>
+      <c r="AQ258" t="s">
+        <v>3325</v>
+      </c>
+      <c r="AU258" t="s">
+        <v>3326</v>
+      </c>
+      <c r="AW258" t="s">
+        <v>3326</v>
+      </c>
+      <c r="BI258" t="s">
+        <v>3327</v>
+      </c>
+      <c r="BJ258" t="s">
+        <v>3328</v>
+      </c>
+      <c r="BK258" t="s">
+        <v>3329</v>
+      </c>
+      <c r="BO258" t="s">
+        <v>3330</v>
+      </c>
+      <c r="BP258" t="s">
+        <v>3331</v>
+      </c>
+      <c r="BQ258" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="259" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D259" t="s">
+        <v>91</v>
+      </c>
+      <c r="E259" t="s">
+        <v>3334</v>
+      </c>
+      <c r="F259" t="s">
+        <v>93</v>
+      </c>
+      <c r="G259" t="s">
+        <v>94</v>
+      </c>
+      <c r="H259" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I259" t="s">
+        <v>3335</v>
+      </c>
+      <c r="J259" t="s">
+        <v>2327</v>
+      </c>
+      <c r="K259" t="s">
+        <v>3001</v>
+      </c>
+      <c r="L259" t="s">
+        <v>2651</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R259" t="s">
+        <v>100</v>
+      </c>
+      <c r="U259" t="s">
+        <v>2651</v>
+      </c>
+      <c r="AC259" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD259" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE259" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO259" t="s">
+        <v>3336</v>
+      </c>
+      <c r="AQ259" t="s">
+        <v>3337</v>
+      </c>
+      <c r="AU259" t="s">
+        <v>3099</v>
+      </c>
+      <c r="AW259" t="s">
+        <v>3099</v>
+      </c>
+      <c r="BI259" t="s">
+        <v>3338</v>
+      </c>
+      <c r="BJ259" t="s">
+        <v>3339</v>
+      </c>
+      <c r="BK259" t="s">
+        <v>3340</v>
+      </c>
+      <c r="BO259" t="s">
+        <v>3338</v>
+      </c>
+      <c r="BP259" t="s">
+        <v>3339</v>
+      </c>
+      <c r="BQ259" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="260" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D260" t="s">
+        <v>91</v>
+      </c>
+      <c r="E260" t="s">
+        <v>3342</v>
+      </c>
+      <c r="F260" t="s">
+        <v>93</v>
+      </c>
+      <c r="G260" t="s">
+        <v>94</v>
+      </c>
+      <c r="H260" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I260" t="s">
+        <v>3343</v>
+      </c>
+      <c r="J260" t="s">
+        <v>3344</v>
+      </c>
+      <c r="K260" t="s">
+        <v>3001</v>
+      </c>
+      <c r="L260" t="s">
+        <v>3345</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R260" t="s">
+        <v>100</v>
+      </c>
+      <c r="T260" t="s">
+        <v>2472</v>
+      </c>
+      <c r="U260" t="s">
+        <v>3345</v>
+      </c>
+      <c r="Y260" t="s">
+        <v>3346</v>
+      </c>
+      <c r="Z260" t="s">
+        <v>578</v>
+      </c>
+      <c r="AC260" t="s">
+        <v>3347</v>
+      </c>
+      <c r="AD260" t="s">
+        <v>3348</v>
+      </c>
+      <c r="AE260" t="s">
+        <v>3349</v>
+      </c>
+      <c r="AO260" t="s">
+        <v>3350</v>
+      </c>
+      <c r="AQ260" t="s">
+        <v>3351</v>
+      </c>
+      <c r="AU260" t="s">
+        <v>2878</v>
+      </c>
+      <c r="AW260" t="s">
+        <v>2878</v>
+      </c>
+      <c r="BI260" t="s">
+        <v>3352</v>
+      </c>
+      <c r="BJ260" t="s">
+        <v>3353</v>
+      </c>
+      <c r="BK260" t="s">
+        <v>3354</v>
+      </c>
+      <c r="BO260" t="s">
+        <v>3355</v>
+      </c>
+      <c r="BP260" t="s">
+        <v>3356</v>
+      </c>
+      <c r="BQ260" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="261" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>3358</v>
+      </c>
+      <c r="D261" t="s">
+        <v>91</v>
+      </c>
+      <c r="E261" t="s">
+        <v>3359</v>
+      </c>
+      <c r="F261" t="s">
+        <v>93</v>
+      </c>
+      <c r="G261" t="s">
+        <v>94</v>
+      </c>
+      <c r="H261" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I261" t="s">
+        <v>3360</v>
+      </c>
+      <c r="J261" t="s">
+        <v>2279</v>
+      </c>
+      <c r="K261" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L261" t="s">
+        <v>3361</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R261" t="s">
+        <v>100</v>
+      </c>
+      <c r="S261" t="s">
+        <v>3362</v>
+      </c>
+      <c r="T261" t="s">
+        <v>3363</v>
+      </c>
+      <c r="U261" t="s">
+        <v>3361</v>
+      </c>
+      <c r="Y261" t="s">
+        <v>3364</v>
+      </c>
+      <c r="Z261" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AC261" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD261" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AE261" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO261" t="s">
+        <v>3365</v>
+      </c>
+      <c r="AQ261" t="s">
+        <v>3366</v>
+      </c>
+      <c r="AU261" t="s">
+        <v>3038</v>
+      </c>
+      <c r="AW261" t="s">
+        <v>3038</v>
+      </c>
+      <c r="BI261" t="s">
+        <v>3367</v>
+      </c>
+      <c r="BJ261" t="s">
+        <v>3368</v>
+      </c>
+      <c r="BK261" t="s">
+        <v>3369</v>
+      </c>
+      <c r="BO261" t="s">
+        <v>3370</v>
+      </c>
+      <c r="BP261" t="s">
+        <v>3371</v>
+      </c>
+      <c r="BQ261" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="262" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>3373</v>
+      </c>
+      <c r="D262" t="s">
+        <v>91</v>
+      </c>
+      <c r="E262" t="s">
+        <v>3374</v>
+      </c>
+      <c r="F262" t="s">
+        <v>93</v>
+      </c>
+      <c r="G262" t="s">
+        <v>94</v>
+      </c>
+      <c r="H262" t="s">
+        <v>2881</v>
+      </c>
+      <c r="I262" t="s">
+        <v>3375</v>
+      </c>
+      <c r="J262" t="s">
+        <v>2913</v>
+      </c>
+      <c r="K262" t="s">
+        <v>2965</v>
+      </c>
+      <c r="L262" t="s">
+        <v>3376</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R262" t="s">
+        <v>100</v>
+      </c>
+      <c r="S262" t="s">
+        <v>3377</v>
+      </c>
+      <c r="T262" t="s">
+        <v>3378</v>
+      </c>
+      <c r="U262" t="s">
+        <v>3376</v>
+      </c>
+      <c r="Z262" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AC262" t="s">
+        <v>3379</v>
+      </c>
+      <c r="AD262" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE262" t="s">
+        <v>1711</v>
+      </c>
+      <c r="AO262" t="s">
+        <v>3380</v>
+      </c>
+      <c r="AQ262" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AU262" t="s">
+        <v>2878</v>
+      </c>
+      <c r="AW262" t="s">
+        <v>2878</v>
+      </c>
+      <c r="BI262" t="s">
+        <v>3382</v>
+      </c>
+      <c r="BJ262" t="s">
+        <v>3383</v>
+      </c>
+      <c r="BK262" t="s">
+        <v>3384</v>
+      </c>
+      <c r="BO262" t="s">
+        <v>3385</v>
+      </c>
+      <c r="BP262" t="s">
+        <v>3386</v>
+      </c>
+      <c r="BQ262" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="263" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>3388</v>
+      </c>
+      <c r="D263" t="s">
+        <v>91</v>
+      </c>
+      <c r="E263" t="s">
+        <v>3389</v>
+      </c>
+      <c r="F263" t="s">
+        <v>93</v>
+      </c>
+      <c r="G263" t="s">
+        <v>94</v>
+      </c>
+      <c r="H263" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I263" t="s">
+        <v>3390</v>
+      </c>
+      <c r="J263" t="s">
+        <v>3391</v>
+      </c>
+      <c r="K263" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L263" t="s">
+        <v>3392</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R263" t="s">
+        <v>100</v>
+      </c>
+      <c r="T263" t="s">
+        <v>3393</v>
+      </c>
+      <c r="U263" t="s">
+        <v>3392</v>
+      </c>
+      <c r="Y263" t="s">
+        <v>697</v>
+      </c>
+      <c r="Z263" t="s">
+        <v>1636</v>
+      </c>
+      <c r="AC263" t="s">
+        <v>2422</v>
+      </c>
+      <c r="AD263" t="s">
+        <v>1989</v>
+      </c>
+      <c r="AE263" t="s">
+        <v>533</v>
+      </c>
+      <c r="AO263" t="s">
+        <v>3394</v>
+      </c>
+      <c r="AQ263" t="s">
+        <v>3395</v>
+      </c>
+      <c r="AU263" t="s">
+        <v>3269</v>
+      </c>
+      <c r="AW263" t="s">
+        <v>3269</v>
+      </c>
+      <c r="BI263" t="s">
+        <v>3396</v>
+      </c>
+      <c r="BJ263" t="s">
+        <v>3397</v>
+      </c>
+      <c r="BK263" t="s">
+        <v>3398</v>
+      </c>
+      <c r="BO263" t="s">
+        <v>3399</v>
+      </c>
+      <c r="BP263" t="s">
+        <v>3400</v>
+      </c>
+      <c r="BQ263" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="264" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D264" t="s">
+        <v>91</v>
+      </c>
+      <c r="E264" t="s">
+        <v>3402</v>
+      </c>
+      <c r="F264" t="s">
+        <v>93</v>
+      </c>
+      <c r="G264" t="s">
+        <v>94</v>
+      </c>
+      <c r="H264" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I264" t="s">
+        <v>3403</v>
+      </c>
+      <c r="J264" t="s">
+        <v>3404</v>
+      </c>
+      <c r="K264" t="s">
+        <v>3001</v>
+      </c>
+      <c r="L264" t="s">
+        <v>3405</v>
+      </c>
+      <c r="Q264" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R264" t="s">
+        <v>100</v>
+      </c>
+      <c r="T264" t="s">
+        <v>3406</v>
+      </c>
+      <c r="U264" t="s">
+        <v>3405</v>
+      </c>
+      <c r="Y264" t="s">
+        <v>3407</v>
+      </c>
+      <c r="Z264" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AC264" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AD264" t="s">
+        <v>2565</v>
+      </c>
+      <c r="AE264" t="s">
+        <v>3408</v>
+      </c>
+      <c r="AO264" t="s">
+        <v>3409</v>
+      </c>
+      <c r="AQ264" t="s">
+        <v>3410</v>
+      </c>
+      <c r="AU264" t="s">
+        <v>3070</v>
+      </c>
+      <c r="AW264" t="s">
+        <v>3070</v>
+      </c>
+      <c r="BI264" t="s">
+        <v>3411</v>
+      </c>
+      <c r="BJ264" t="s">
+        <v>3412</v>
+      </c>
+      <c r="BK264" t="s">
+        <v>3413</v>
+      </c>
+      <c r="BO264" t="s">
+        <v>3414</v>
+      </c>
+      <c r="BP264" t="s">
+        <v>3415</v>
+      </c>
+      <c r="BQ264" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="265" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>3417</v>
+      </c>
+      <c r="D265" t="s">
+        <v>91</v>
+      </c>
+      <c r="E265" t="s">
+        <v>3418</v>
+      </c>
+      <c r="F265" t="s">
+        <v>93</v>
+      </c>
+      <c r="G265" t="s">
+        <v>94</v>
+      </c>
+      <c r="H265" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I265" t="s">
+        <v>3419</v>
+      </c>
+      <c r="J265" t="s">
+        <v>3420</v>
+      </c>
+      <c r="K265" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L265" t="s">
+        <v>3421</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R265" t="s">
+        <v>100</v>
+      </c>
+      <c r="S265" t="s">
+        <v>3422</v>
+      </c>
+      <c r="T265" t="s">
+        <v>3423</v>
+      </c>
+      <c r="U265" t="s">
+        <v>3421</v>
+      </c>
+      <c r="Y265" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z265" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC265" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD265" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE265" t="s">
+        <v>1989</v>
+      </c>
+      <c r="AO265" t="s">
+        <v>3424</v>
+      </c>
+      <c r="AQ265" t="s">
+        <v>3425</v>
+      </c>
+      <c r="AU265" t="s">
+        <v>3027</v>
+      </c>
+      <c r="AW265" t="s">
+        <v>3027</v>
+      </c>
+      <c r="BI265" t="s">
+        <v>3426</v>
+      </c>
+      <c r="BJ265" t="s">
+        <v>3427</v>
+      </c>
+      <c r="BK265" t="s">
+        <v>3428</v>
+      </c>
+      <c r="BO265" t="s">
+        <v>3429</v>
+      </c>
+      <c r="BP265" t="s">
+        <v>3430</v>
+      </c>
+      <c r="BQ265" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="266" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D266" t="s">
+        <v>91</v>
+      </c>
+      <c r="E266" t="s">
+        <v>3433</v>
+      </c>
+      <c r="F266" t="s">
+        <v>93</v>
+      </c>
+      <c r="G266" t="s">
+        <v>94</v>
+      </c>
+      <c r="H266" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I266" t="s">
+        <v>3434</v>
+      </c>
+      <c r="J266" t="s">
+        <v>3435</v>
+      </c>
+      <c r="K266" t="s">
+        <v>3001</v>
+      </c>
+      <c r="L266" t="s">
+        <v>3436</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R266" t="s">
+        <v>100</v>
+      </c>
+      <c r="T266" t="s">
+        <v>3437</v>
+      </c>
+      <c r="U266" t="s">
+        <v>3436</v>
+      </c>
+      <c r="Y266" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z266" t="s">
+        <v>3057</v>
+      </c>
+      <c r="AC266" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AD266" t="s">
+        <v>502</v>
+      </c>
+      <c r="AE266" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO266" t="s">
+        <v>3438</v>
+      </c>
+      <c r="AQ266" t="s">
+        <v>3438</v>
+      </c>
+      <c r="AU266" t="s">
+        <v>3224</v>
+      </c>
+      <c r="AW266" t="s">
+        <v>3224</v>
+      </c>
+      <c r="BI266" t="s">
+        <v>3439</v>
+      </c>
+      <c r="BJ266" t="s">
+        <v>3440</v>
+      </c>
+      <c r="BK266" t="s">
+        <v>3441</v>
+      </c>
+      <c r="BO266" t="s">
+        <v>3442</v>
+      </c>
+      <c r="BP266" t="s">
+        <v>3443</v>
+      </c>
+      <c r="BQ266" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="267" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D267" t="s">
+        <v>91</v>
+      </c>
+      <c r="E267" t="s">
+        <v>3446</v>
+      </c>
+      <c r="F267" t="s">
+        <v>93</v>
+      </c>
+      <c r="G267" t="s">
+        <v>94</v>
+      </c>
+      <c r="H267" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I267" t="s">
+        <v>3447</v>
+      </c>
+      <c r="J267" t="s">
+        <v>3448</v>
+      </c>
+      <c r="K267" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L267" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R267" t="s">
+        <v>100</v>
+      </c>
+      <c r="S267" t="s">
+        <v>3449</v>
+      </c>
+      <c r="T267" t="s">
+        <v>419</v>
+      </c>
+      <c r="U267" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Y267" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z267" t="s">
+        <v>830</v>
+      </c>
+      <c r="AC267" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD267" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE267" t="s">
+        <v>517</v>
+      </c>
+      <c r="AO267" t="s">
+        <v>3450</v>
+      </c>
+      <c r="AQ267" t="s">
+        <v>3451</v>
+      </c>
+      <c r="AU267" t="s">
+        <v>3099</v>
+      </c>
+      <c r="AW267" t="s">
+        <v>3099</v>
+      </c>
+      <c r="BI267" t="s">
+        <v>3452</v>
+      </c>
+      <c r="BJ267" t="s">
+        <v>3453</v>
+      </c>
+      <c r="BK267" t="s">
+        <v>3454</v>
+      </c>
+      <c r="BO267" t="s">
+        <v>3455</v>
+      </c>
+      <c r="BP267" t="s">
+        <v>3456</v>
+      </c>
+      <c r="BQ267" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="268" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>3457</v>
+      </c>
+      <c r="D268" t="s">
+        <v>91</v>
+      </c>
+      <c r="E268" t="s">
+        <v>3458</v>
+      </c>
+      <c r="F268" t="s">
+        <v>93</v>
+      </c>
+      <c r="G268" t="s">
+        <v>94</v>
+      </c>
+      <c r="H268" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I268" t="s">
+        <v>3459</v>
+      </c>
+      <c r="J268" t="s">
+        <v>2279</v>
+      </c>
+      <c r="K268" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L268" t="s">
         <v>1810</v>
       </c>
-      <c r="Y246" t="s">
+      <c r="Q268" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R268" t="s">
+        <v>100</v>
+      </c>
+      <c r="S268" t="s">
+        <v>3460</v>
+      </c>
+      <c r="T268" t="s">
+        <v>3461</v>
+      </c>
+      <c r="U268" t="s">
+        <v>1810</v>
+      </c>
+      <c r="Y268" t="s">
         <v>737</v>
       </c>
-      <c r="Z246" t="s">
+      <c r="Z268" t="s">
         <v>1332</v>
       </c>
-      <c r="AC246" t="s">
+      <c r="AC268" t="s">
         <v>486</v>
       </c>
-      <c r="AD246" t="s">
+      <c r="AD268" t="s">
         <v>485</v>
       </c>
-      <c r="AE246" t="s">
+      <c r="AE268" t="s">
         <v>205</v>
       </c>
-      <c r="AO246" t="s">
-        <v>3201</v>
-      </c>
-      <c r="AQ246" t="s">
-        <v>3202</v>
-      </c>
-      <c r="AU246" t="s">
-        <v>2774</v>
-      </c>
-      <c r="AW246" t="s">
-        <v>2774</v>
-      </c>
-      <c r="BI246" t="s">
-        <v>3203</v>
-      </c>
-      <c r="BJ246" t="s">
-        <v>3204</v>
-      </c>
-      <c r="BK246" t="s">
-        <v>3205</v>
-      </c>
-      <c r="BO246" t="s">
-        <v>3206</v>
-      </c>
-      <c r="BP246" t="s">
-        <v>3207</v>
-      </c>
-      <c r="BQ246" t="s">
-        <v>3208</v>
+      <c r="AO268" t="s">
+        <v>3462</v>
+      </c>
+      <c r="AQ268" t="s">
+        <v>3463</v>
+      </c>
+      <c r="AU268" t="s">
+        <v>3038</v>
+      </c>
+      <c r="AW268" t="s">
+        <v>3038</v>
+      </c>
+      <c r="BI268" t="s">
+        <v>3464</v>
+      </c>
+      <c r="BJ268" t="s">
+        <v>3465</v>
+      </c>
+      <c r="BK268" t="s">
+        <v>3466</v>
+      </c>
+      <c r="BO268" t="s">
+        <v>3467</v>
+      </c>
+      <c r="BP268" t="s">
+        <v>3468</v>
+      </c>
+      <c r="BQ268" t="s">
+        <v>3469</v>
       </c>
     </row>
   </sheetData>
